--- a/property_excel/template_gnkt_bopz.xlsx
+++ b/property_excel/template_gnkt_bopz.xlsx
@@ -2344,7 +2344,7 @@
     <xf numFmtId="0" fontId="32" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="34" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2735,6 +2735,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="65" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2813,14 +2829,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2839,6 +2847,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2850,9 +2859,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2897,21 +2903,53 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="25" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2919,57 +2957,6 @@
     <xf numFmtId="1" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="25" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2978,6 +2965,9 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="190" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -3041,8 +3031,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
     <xf numFmtId="181" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3053,41 +3075,27 @@
     <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="64" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="65" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="440">
@@ -3662,15 +3670,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>1420091</xdr:colOff>
+      <xdr:colOff>1091046</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>225138</xdr:rowOff>
+      <xdr:rowOff>207820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
+      <xdr:colOff>155864</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>65811</xdr:rowOff>
+      <xdr:rowOff>48493</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3679,7 +3687,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12399818" y="14322138"/>
+          <a:off x="12070773" y="14755093"/>
           <a:ext cx="502227" cy="810491"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDelay">
@@ -4077,8 +4085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q76" sqref="Q76:W78"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="AI62" sqref="AI62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4125,10 +4133,10 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
+      <c r="R1" s="205"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
       <c r="V1" s="90"/>
       <c r="W1" s="90"/>
     </row>
@@ -4159,28 +4167,28 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
       <c r="V3" s="89"/>
       <c r="W3" s="89"/>
     </row>
@@ -4197,19 +4205,19 @@
       <c r="J4" s="2"/>
       <c r="K4" s="12"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="205" t="s">
+      <c r="M4" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
-      <c r="W4" s="149"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
@@ -4224,24 +4232,24 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="149"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="149"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="148"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="154"/>
       <c r="F6" s="47"/>
       <c r="G6" s="48"/>
       <c r="H6" s="51"/>
@@ -4249,26 +4257,26 @@
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
-      <c r="M6" s="241" t="s">
+      <c r="M6" s="236" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="181"/>
-      <c r="O6" s="192"/>
-      <c r="P6" s="247"/>
-      <c r="Q6" s="181"/>
-      <c r="R6" s="181"/>
-      <c r="S6" s="181"/>
-      <c r="T6" s="181"/>
-      <c r="U6" s="181"/>
-      <c r="V6" s="181"/>
-      <c r="W6" s="192"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="243"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="194"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="195"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="150"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="156"/>
       <c r="F7" s="55"/>
       <c r="G7" s="54"/>
       <c r="H7" s="52"/>
@@ -4276,26 +4284,26 @@
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
-      <c r="M7" s="172" t="s">
+      <c r="M7" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="156"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="248"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="156"/>
-      <c r="W7" s="154"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="244"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
+      <c r="T7" s="162"/>
+      <c r="U7" s="162"/>
+      <c r="V7" s="162"/>
+      <c r="W7" s="160"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="150"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="156"/>
       <c r="F8" s="55"/>
       <c r="G8" s="54"/>
       <c r="H8" s="52"/>
@@ -4303,26 +4311,26 @@
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
       <c r="L8" s="56"/>
-      <c r="M8" s="157" t="s">
+      <c r="M8" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="158"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="158"/>
-      <c r="S8" s="158"/>
-      <c r="T8" s="158"/>
-      <c r="U8" s="158"/>
-      <c r="V8" s="158"/>
-      <c r="W8" s="159"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="251"/>
+      <c r="Q8" s="164"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="164"/>
+      <c r="T8" s="164"/>
+      <c r="U8" s="164"/>
+      <c r="V8" s="164"/>
+      <c r="W8" s="165"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="150"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156"/>
       <c r="F9" s="55"/>
       <c r="G9" s="54"/>
       <c r="H9" s="52"/>
@@ -4330,38 +4338,38 @@
       <c r="J9" s="93"/>
       <c r="K9" s="93"/>
       <c r="L9" s="94"/>
-      <c r="M9" s="217" t="s">
+      <c r="M9" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="181"/>
+      <c r="N9" s="194"/>
       <c r="O9" s="95"/>
-      <c r="P9" s="173" t="s">
+      <c r="P9" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="173" t="s">
+      <c r="Q9" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="173" t="s">
+      <c r="R9" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="215" t="s">
+      <c r="S9" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="216"/>
-      <c r="U9" s="173" t="s">
+      <c r="T9" s="231"/>
+      <c r="U9" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="173" t="s">
+      <c r="V9" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="192"/>
+      <c r="W9" s="195"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="150"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="156"/>
       <c r="F10" s="55"/>
       <c r="G10" s="54"/>
       <c r="H10" s="52"/>
@@ -4369,17 +4377,17 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
       <c r="L10" s="96"/>
-      <c r="M10" s="252" t="s">
+      <c r="M10" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="156"/>
+      <c r="N10" s="162"/>
       <c r="O10" s="97"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="149"/>
-      <c r="T10" s="149"/>
-      <c r="U10" s="165"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="171"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="171"/>
       <c r="V10" s="91" t="s">
         <v>13</v>
       </c>
@@ -4391,8 +4399,8 @@
       <c r="A11"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="150"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="55"/>
       <c r="G11" s="54"/>
       <c r="H11" s="52"/>
@@ -4400,11 +4408,11 @@
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
-      <c r="M11" s="170" t="s">
+      <c r="M11" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="156"/>
-      <c r="O11" s="171"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="177"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="21"/>
@@ -4418,8 +4426,8 @@
       <c r="A12"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="152"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="158"/>
       <c r="F12" s="55"/>
       <c r="G12" s="70"/>
       <c r="H12" s="71"/>
@@ -4427,11 +4435,11 @@
       <c r="J12" s="73"/>
       <c r="K12" s="74"/>
       <c r="L12" s="58"/>
-      <c r="M12" s="170" t="s">
+      <c r="M12" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="156"/>
-      <c r="O12" s="171"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="177"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="22"/>
@@ -4454,11 +4462,11 @@
       <c r="J13" s="102"/>
       <c r="K13" s="102"/>
       <c r="L13" s="102"/>
-      <c r="M13" s="170" t="s">
+      <c r="M13" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="156"/>
-      <c r="O13" s="171"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="177"/>
       <c r="P13" s="92"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
@@ -4481,19 +4489,19 @@
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
       <c r="L14" s="57"/>
-      <c r="M14" s="155" t="s">
+      <c r="M14" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="158"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="232"/>
-      <c r="Q14" s="234"/>
-      <c r="R14" s="234"/>
-      <c r="S14" s="244"/>
-      <c r="T14" s="174"/>
-      <c r="U14" s="183"/>
-      <c r="V14" s="178"/>
-      <c r="W14" s="184"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="267"/>
+      <c r="Q14" s="239"/>
+      <c r="R14" s="239"/>
+      <c r="S14" s="240"/>
+      <c r="T14" s="180"/>
+      <c r="U14" s="220"/>
+      <c r="V14" s="184"/>
+      <c r="W14" s="186"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
@@ -4508,17 +4516,17 @@
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
       <c r="L15" s="57"/>
-      <c r="M15" s="239"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="179"/>
-      <c r="Q15" s="179"/>
-      <c r="R15" s="179"/>
-      <c r="S15" s="245"/>
-      <c r="T15" s="175"/>
-      <c r="U15" s="179"/>
-      <c r="V15" s="179"/>
-      <c r="W15" s="185"/>
+      <c r="M15" s="274"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="185"/>
+      <c r="R15" s="185"/>
+      <c r="S15" s="241"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="185"/>
+      <c r="V15" s="185"/>
+      <c r="W15" s="187"/>
     </row>
     <row r="16" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
@@ -4533,17 +4541,17 @@
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
       <c r="L16" s="57"/>
-      <c r="M16" s="239"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="179"/>
-      <c r="Q16" s="179"/>
-      <c r="R16" s="179"/>
-      <c r="S16" s="245"/>
-      <c r="T16" s="175"/>
-      <c r="U16" s="179"/>
-      <c r="V16" s="179"/>
-      <c r="W16" s="185"/>
+      <c r="M16" s="274"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="185"/>
+      <c r="R16" s="185"/>
+      <c r="S16" s="241"/>
+      <c r="T16" s="181"/>
+      <c r="U16" s="185"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="187"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
@@ -4558,17 +4566,17 @@
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
       <c r="L17" s="57"/>
-      <c r="M17" s="240"/>
-      <c r="N17" s="207"/>
-      <c r="O17" s="176"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="165"/>
-      <c r="S17" s="246"/>
-      <c r="T17" s="176"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="186"/>
+      <c r="M17" s="264"/>
+      <c r="N17" s="209"/>
+      <c r="O17" s="182"/>
+      <c r="P17" s="171"/>
+      <c r="Q17" s="171"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="242"/>
+      <c r="T17" s="182"/>
+      <c r="U17" s="171"/>
+      <c r="V17" s="171"/>
+      <c r="W17" s="188"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
@@ -4583,11 +4591,11 @@
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
       <c r="L18" s="57"/>
-      <c r="M18" s="194" t="s">
+      <c r="M18" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="195"/>
-      <c r="O18" s="189"/>
+      <c r="N18" s="198"/>
+      <c r="O18" s="191"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="34"/>
       <c r="R18" s="34"/>
@@ -4610,11 +4618,11 @@
       <c r="J19" s="57"/>
       <c r="K19" s="57"/>
       <c r="L19" s="57"/>
-      <c r="M19" s="206" t="s">
+      <c r="M19" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="207"/>
-      <c r="O19" s="208"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="210"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="30"/>
       <c r="R19" s="29"/>
@@ -4637,11 +4645,11 @@
       <c r="J20" s="77"/>
       <c r="K20" s="77"/>
       <c r="L20" s="77"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="156"/>
-      <c r="Q20" s="154"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="160"/>
       <c r="R20" s="23"/>
       <c r="S20" s="98"/>
       <c r="T20" s="27"/>
@@ -4662,9 +4670,9 @@
       <c r="J21" s="132"/>
       <c r="K21" s="79"/>
       <c r="L21" s="79"/>
-      <c r="M21" s="272"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="171"/>
+      <c r="M21" s="268"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="177"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
@@ -4687,16 +4695,16 @@
       <c r="J22" s="133"/>
       <c r="K22" s="80"/>
       <c r="L22" s="80"/>
-      <c r="M22" s="275" t="s">
+      <c r="M22" s="271" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="195"/>
-      <c r="O22" s="265"/>
+      <c r="N22" s="198"/>
+      <c r="O22" s="261"/>
       <c r="P22" s="68"/>
       <c r="Q22" s="69"/>
       <c r="R22" s="68"/>
-      <c r="S22" s="264"/>
-      <c r="T22" s="265"/>
+      <c r="S22" s="260"/>
+      <c r="T22" s="261"/>
       <c r="U22" s="116"/>
       <c r="V22" s="117"/>
       <c r="W22" s="118"/>
@@ -4714,19 +4722,19 @@
       <c r="J23" s="119"/>
       <c r="K23" s="120"/>
       <c r="L23" s="120"/>
-      <c r="M23" s="257" t="s">
+      <c r="M23" s="253" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="149"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="149"/>
-      <c r="V23" s="149"/>
-      <c r="W23" s="149"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="155"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="155"/>
+      <c r="S23" s="155"/>
+      <c r="T23" s="155"/>
+      <c r="U23" s="155"/>
+      <c r="V23" s="155"/>
+      <c r="W23" s="155"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -4743,17 +4751,17 @@
         <v>23</v>
       </c>
       <c r="L24" s="77"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="149"/>
-      <c r="O24" s="149"/>
-      <c r="P24" s="149"/>
-      <c r="Q24" s="149"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="149"/>
-      <c r="T24" s="149"/>
-      <c r="U24" s="149"/>
-      <c r="V24" s="149"/>
-      <c r="W24" s="149"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="155"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="155"/>
+      <c r="S24" s="155"/>
+      <c r="T24" s="155"/>
+      <c r="U24" s="155"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="155"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
@@ -4768,27 +4776,27 @@
       <c r="J25" s="84"/>
       <c r="K25" s="78"/>
       <c r="L25" s="79"/>
-      <c r="M25" s="266" t="s">
+      <c r="M25" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="267"/>
-      <c r="O25" s="191" t="s">
+      <c r="N25" s="263"/>
+      <c r="O25" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="267"/>
-      <c r="Q25" s="191" t="s">
+      <c r="P25" s="263"/>
+      <c r="Q25" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="181"/>
-      <c r="S25" s="181"/>
-      <c r="T25" s="192"/>
-      <c r="U25" s="191" t="s">
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="195"/>
+      <c r="U25" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="V25" s="212" t="s">
+      <c r="V25" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="W25" s="230" t="s">
+      <c r="W25" s="229" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4802,24 +4810,24 @@
       <c r="G26" s="46"/>
       <c r="H26" s="83"/>
       <c r="I26" s="83"/>
-      <c r="J26" s="277"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="240"/>
-      <c r="N26" s="176"/>
-      <c r="O26" s="246"/>
-      <c r="P26" s="176"/>
-      <c r="Q26" s="223" t="s">
+      <c r="J26" s="272"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="264"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="242"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="159"/>
-      <c r="S26" s="223" t="s">
+      <c r="R26" s="165"/>
+      <c r="S26" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="T26" s="159"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="186"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="171"/>
+      <c r="V26" s="171"/>
+      <c r="W26" s="188"/>
     </row>
     <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
@@ -4834,17 +4842,17 @@
       <c r="J27" s="77"/>
       <c r="K27" s="77"/>
       <c r="L27" s="77"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="190"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="154"/>
-      <c r="U27" s="249"/>
-      <c r="V27" s="196"/>
-      <c r="W27" s="237"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="192"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="166"/>
+      <c r="R27" s="160"/>
+      <c r="S27" s="166"/>
+      <c r="T27" s="160"/>
+      <c r="U27" s="245"/>
+      <c r="V27" s="199"/>
+      <c r="W27" s="232"/>
     </row>
     <row r="28" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
@@ -4859,14 +4867,14 @@
       <c r="J28" s="57"/>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="190"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="160"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="160"/>
-      <c r="T28" s="154"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="192"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="166"/>
+      <c r="R28" s="160"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="160"/>
       <c r="U28" s="37"/>
       <c r="V28" s="41"/>
       <c r="W28" s="42"/>
@@ -4881,17 +4889,17 @@
       <c r="G29" s="46"/>
       <c r="H29" s="2"/>
       <c r="I29" s="121"/>
-      <c r="J29" s="274"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="190"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="154"/>
-      <c r="S29" s="160"/>
-      <c r="T29" s="154"/>
+      <c r="J29" s="270"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="192"/>
+      <c r="P29" s="160"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="160"/>
+      <c r="S29" s="166"/>
+      <c r="T29" s="160"/>
       <c r="U29" s="37"/>
       <c r="V29" s="41"/>
       <c r="W29" s="42"/>
@@ -4906,17 +4914,17 @@
       <c r="G30" s="46"/>
       <c r="H30" s="2"/>
       <c r="I30" s="121"/>
-      <c r="J30" s="202"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="190"/>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="160"/>
-      <c r="R30" s="154"/>
-      <c r="S30" s="160"/>
-      <c r="T30" s="154"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="192"/>
+      <c r="P30" s="160"/>
+      <c r="Q30" s="166"/>
+      <c r="R30" s="160"/>
+      <c r="S30" s="166"/>
+      <c r="T30" s="160"/>
       <c r="U30" s="37"/>
       <c r="V30" s="41"/>
       <c r="W30" s="42"/>
@@ -4931,17 +4939,17 @@
       <c r="G31" s="46"/>
       <c r="H31" s="2"/>
       <c r="I31" s="121"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="154"/>
-      <c r="O31" s="190"/>
-      <c r="P31" s="154"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="154"/>
-      <c r="S31" s="160"/>
-      <c r="T31" s="154"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="192"/>
+      <c r="P31" s="160"/>
+      <c r="Q31" s="166"/>
+      <c r="R31" s="160"/>
+      <c r="S31" s="166"/>
+      <c r="T31" s="160"/>
       <c r="U31" s="37"/>
       <c r="V31" s="41"/>
       <c r="W31" s="42"/>
@@ -4956,17 +4964,17 @@
       <c r="G32" s="46"/>
       <c r="H32" s="56"/>
       <c r="I32" s="122"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="154"/>
-      <c r="O32" s="190"/>
-      <c r="P32" s="154"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="154"/>
-      <c r="S32" s="160"/>
-      <c r="T32" s="154"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="192"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="166"/>
+      <c r="R32" s="160"/>
+      <c r="S32" s="166"/>
+      <c r="T32" s="160"/>
       <c r="U32" s="37"/>
       <c r="V32" s="41"/>
       <c r="W32" s="42"/>
@@ -4981,17 +4989,17 @@
       <c r="G33" s="46"/>
       <c r="H33" s="56"/>
       <c r="I33" s="122"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="161"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="190"/>
-      <c r="P33" s="154"/>
-      <c r="Q33" s="160"/>
-      <c r="R33" s="154"/>
-      <c r="S33" s="160"/>
-      <c r="T33" s="154"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="160"/>
+      <c r="O33" s="192"/>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="166"/>
+      <c r="R33" s="160"/>
+      <c r="S33" s="166"/>
+      <c r="T33" s="160"/>
       <c r="U33" s="37"/>
       <c r="V33" s="41"/>
       <c r="W33" s="42"/>
@@ -5006,17 +5014,17 @@
       <c r="G34" s="46"/>
       <c r="H34" s="56"/>
       <c r="I34" s="122"/>
-      <c r="J34" s="202"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="161"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="190"/>
-      <c r="P34" s="154"/>
-      <c r="Q34" s="160"/>
-      <c r="R34" s="154"/>
-      <c r="S34" s="160"/>
-      <c r="T34" s="154"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="192"/>
+      <c r="P34" s="160"/>
+      <c r="Q34" s="166"/>
+      <c r="R34" s="160"/>
+      <c r="S34" s="166"/>
+      <c r="T34" s="160"/>
       <c r="U34" s="37"/>
       <c r="V34" s="41"/>
       <c r="W34" s="42"/>
@@ -5031,17 +5039,17 @@
       <c r="G35" s="46"/>
       <c r="H35" s="56"/>
       <c r="I35" s="122"/>
-      <c r="J35" s="202"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="161"/>
-      <c r="N35" s="154"/>
-      <c r="O35" s="190"/>
-      <c r="P35" s="154"/>
-      <c r="Q35" s="160"/>
-      <c r="R35" s="154"/>
-      <c r="S35" s="160"/>
-      <c r="T35" s="154"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="167"/>
+      <c r="N35" s="160"/>
+      <c r="O35" s="192"/>
+      <c r="P35" s="160"/>
+      <c r="Q35" s="166"/>
+      <c r="R35" s="160"/>
+      <c r="S35" s="166"/>
+      <c r="T35" s="160"/>
       <c r="U35" s="37"/>
       <c r="V35" s="41"/>
       <c r="W35" s="42"/>
@@ -5056,17 +5064,17 @@
       <c r="G36" s="46"/>
       <c r="H36" s="56"/>
       <c r="I36" s="122"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="161"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="190"/>
-      <c r="P36" s="154"/>
-      <c r="Q36" s="160"/>
-      <c r="R36" s="154"/>
-      <c r="S36" s="160"/>
-      <c r="T36" s="154"/>
+      <c r="J36" s="204"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="192"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="166"/>
+      <c r="R36" s="160"/>
+      <c r="S36" s="166"/>
+      <c r="T36" s="160"/>
       <c r="U36" s="37"/>
       <c r="V36" s="41"/>
       <c r="W36" s="42"/>
@@ -5081,17 +5089,17 @@
       <c r="G37" s="46"/>
       <c r="H37" s="56"/>
       <c r="I37" s="122"/>
-      <c r="J37" s="202"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="161"/>
-      <c r="N37" s="154"/>
-      <c r="O37" s="190"/>
-      <c r="P37" s="154"/>
-      <c r="Q37" s="160"/>
-      <c r="R37" s="154"/>
-      <c r="S37" s="160"/>
-      <c r="T37" s="154"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="167"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="192"/>
+      <c r="P37" s="160"/>
+      <c r="Q37" s="166"/>
+      <c r="R37" s="160"/>
+      <c r="S37" s="166"/>
+      <c r="T37" s="160"/>
       <c r="U37" s="37"/>
       <c r="V37" s="41"/>
       <c r="W37" s="42"/>
@@ -5106,17 +5114,17 @@
       <c r="G38" s="46"/>
       <c r="H38" s="56"/>
       <c r="I38" s="122"/>
-      <c r="J38" s="202"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="161"/>
-      <c r="N38" s="154"/>
-      <c r="O38" s="190"/>
-      <c r="P38" s="154"/>
-      <c r="Q38" s="160"/>
-      <c r="R38" s="154"/>
-      <c r="S38" s="160"/>
-      <c r="T38" s="154"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="192"/>
+      <c r="P38" s="160"/>
+      <c r="Q38" s="166"/>
+      <c r="R38" s="160"/>
+      <c r="S38" s="166"/>
+      <c r="T38" s="160"/>
       <c r="U38" s="37"/>
       <c r="V38" s="41"/>
       <c r="W38" s="42"/>
@@ -5131,17 +5139,17 @@
       <c r="G39" s="46"/>
       <c r="H39" s="56"/>
       <c r="I39" s="122"/>
-      <c r="J39" s="202"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="161"/>
-      <c r="N39" s="154"/>
-      <c r="O39" s="190"/>
-      <c r="P39" s="154"/>
-      <c r="Q39" s="160"/>
-      <c r="R39" s="154"/>
-      <c r="S39" s="160"/>
-      <c r="T39" s="154"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="167"/>
+      <c r="N39" s="160"/>
+      <c r="O39" s="192"/>
+      <c r="P39" s="160"/>
+      <c r="Q39" s="166"/>
+      <c r="R39" s="160"/>
+      <c r="S39" s="166"/>
+      <c r="T39" s="160"/>
       <c r="U39" s="37"/>
       <c r="V39" s="41"/>
       <c r="W39" s="42"/>
@@ -5156,17 +5164,17 @@
       <c r="G40" s="46"/>
       <c r="H40" s="56"/>
       <c r="I40" s="122"/>
-      <c r="J40" s="202"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="204"/>
-      <c r="N40" s="189"/>
-      <c r="O40" s="251"/>
-      <c r="P40" s="189"/>
-      <c r="Q40" s="238"/>
-      <c r="R40" s="189"/>
-      <c r="S40" s="238"/>
-      <c r="T40" s="189"/>
+      <c r="J40" s="204"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="206"/>
+      <c r="N40" s="191"/>
+      <c r="O40" s="247"/>
+      <c r="P40" s="191"/>
+      <c r="Q40" s="233"/>
+      <c r="R40" s="191"/>
+      <c r="S40" s="233"/>
+      <c r="T40" s="191"/>
       <c r="U40" s="38"/>
       <c r="V40" s="43"/>
       <c r="W40" s="44"/>
@@ -5184,19 +5192,19 @@
       <c r="J41" s="57"/>
       <c r="K41" s="57"/>
       <c r="L41" s="57"/>
-      <c r="M41" s="258" t="s">
+      <c r="M41" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="N41" s="149"/>
-      <c r="O41" s="149"/>
-      <c r="P41" s="149"/>
-      <c r="Q41" s="149"/>
-      <c r="R41" s="149"/>
-      <c r="S41" s="149"/>
-      <c r="T41" s="149"/>
-      <c r="U41" s="149"/>
-      <c r="V41" s="149"/>
-      <c r="W41" s="149"/>
+      <c r="N41" s="155"/>
+      <c r="O41" s="155"/>
+      <c r="P41" s="155"/>
+      <c r="Q41" s="155"/>
+      <c r="R41" s="155"/>
+      <c r="S41" s="155"/>
+      <c r="T41" s="155"/>
+      <c r="U41" s="155"/>
+      <c r="V41" s="155"/>
+      <c r="W41" s="155"/>
     </row>
     <row r="42" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
@@ -5211,17 +5219,17 @@
       <c r="J42" s="123"/>
       <c r="K42" s="59"/>
       <c r="L42" s="56"/>
-      <c r="M42" s="259"/>
-      <c r="N42" s="259"/>
-      <c r="O42" s="259"/>
-      <c r="P42" s="259"/>
-      <c r="Q42" s="259"/>
-      <c r="R42" s="259"/>
-      <c r="S42" s="259"/>
-      <c r="T42" s="259"/>
-      <c r="U42" s="259"/>
-      <c r="V42" s="259"/>
-      <c r="W42" s="259"/>
+      <c r="M42" s="255"/>
+      <c r="N42" s="255"/>
+      <c r="O42" s="255"/>
+      <c r="P42" s="255"/>
+      <c r="Q42" s="255"/>
+      <c r="R42" s="255"/>
+      <c r="S42" s="255"/>
+      <c r="T42" s="255"/>
+      <c r="U42" s="255"/>
+      <c r="V42" s="255"/>
+      <c r="W42" s="255"/>
     </row>
     <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -5236,19 +5244,19 @@
       <c r="J43" s="123"/>
       <c r="K43" s="59"/>
       <c r="L43" s="56"/>
-      <c r="M43" s="180" t="s">
+      <c r="M43" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="N43" s="181"/>
-      <c r="O43" s="181"/>
-      <c r="P43" s="181"/>
-      <c r="Q43" s="181"/>
-      <c r="R43" s="181"/>
-      <c r="S43" s="181"/>
-      <c r="T43" s="181"/>
-      <c r="U43" s="182"/>
-      <c r="V43" s="262"/>
-      <c r="W43" s="182"/>
+      <c r="N43" s="194"/>
+      <c r="O43" s="194"/>
+      <c r="P43" s="194"/>
+      <c r="Q43" s="194"/>
+      <c r="R43" s="194"/>
+      <c r="S43" s="194"/>
+      <c r="T43" s="194"/>
+      <c r="U43" s="219"/>
+      <c r="V43" s="258"/>
+      <c r="W43" s="219"/>
     </row>
     <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
@@ -5263,19 +5271,19 @@
       <c r="J44" s="123"/>
       <c r="K44" s="59"/>
       <c r="L44" s="56"/>
-      <c r="M44" s="226" t="s">
+      <c r="M44" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="N44" s="156"/>
-      <c r="O44" s="156"/>
-      <c r="P44" s="156"/>
-      <c r="Q44" s="156"/>
-      <c r="R44" s="156"/>
-      <c r="S44" s="156"/>
-      <c r="T44" s="156"/>
-      <c r="U44" s="227"/>
-      <c r="V44" s="260"/>
-      <c r="W44" s="227"/>
+      <c r="N44" s="162"/>
+      <c r="O44" s="162"/>
+      <c r="P44" s="162"/>
+      <c r="Q44" s="162"/>
+      <c r="R44" s="162"/>
+      <c r="S44" s="162"/>
+      <c r="T44" s="162"/>
+      <c r="U44" s="226"/>
+      <c r="V44" s="256"/>
+      <c r="W44" s="226"/>
     </row>
     <row r="45" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
@@ -5290,19 +5298,19 @@
       <c r="J45" s="123"/>
       <c r="K45" s="56"/>
       <c r="L45" s="56"/>
-      <c r="M45" s="253" t="s">
+      <c r="M45" s="249" t="s">
         <v>35</v>
       </c>
-      <c r="N45" s="195"/>
-      <c r="O45" s="195"/>
-      <c r="P45" s="195"/>
-      <c r="Q45" s="195"/>
-      <c r="R45" s="195"/>
-      <c r="S45" s="195"/>
-      <c r="T45" s="195"/>
-      <c r="U45" s="167"/>
-      <c r="V45" s="166"/>
-      <c r="W45" s="167"/>
+      <c r="N45" s="198"/>
+      <c r="O45" s="198"/>
+      <c r="P45" s="198"/>
+      <c r="Q45" s="198"/>
+      <c r="R45" s="198"/>
+      <c r="S45" s="198"/>
+      <c r="T45" s="198"/>
+      <c r="U45" s="173"/>
+      <c r="V45" s="172"/>
+      <c r="W45" s="173"/>
     </row>
     <row r="46" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
@@ -5317,19 +5325,19 @@
       <c r="J46" s="57"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
-      <c r="M46" s="263" t="s">
+      <c r="M46" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="N46" s="216"/>
-      <c r="O46" s="216"/>
-      <c r="P46" s="216"/>
-      <c r="Q46" s="216"/>
-      <c r="R46" s="216"/>
-      <c r="S46" s="216"/>
-      <c r="T46" s="216"/>
-      <c r="U46" s="216"/>
-      <c r="V46" s="216"/>
-      <c r="W46" s="216"/>
+      <c r="N46" s="231"/>
+      <c r="O46" s="231"/>
+      <c r="P46" s="231"/>
+      <c r="Q46" s="231"/>
+      <c r="R46" s="231"/>
+      <c r="S46" s="231"/>
+      <c r="T46" s="231"/>
+      <c r="U46" s="231"/>
+      <c r="V46" s="231"/>
+      <c r="W46" s="231"/>
     </row>
     <row r="47" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
@@ -5344,17 +5352,17 @@
       <c r="J47" s="57"/>
       <c r="K47" s="57"/>
       <c r="L47" s="57"/>
-      <c r="M47" s="149"/>
-      <c r="N47" s="149"/>
-      <c r="O47" s="149"/>
-      <c r="P47" s="149"/>
-      <c r="Q47" s="149"/>
-      <c r="R47" s="149"/>
-      <c r="S47" s="149"/>
-      <c r="T47" s="149"/>
-      <c r="U47" s="149"/>
-      <c r="V47" s="149"/>
-      <c r="W47" s="149"/>
+      <c r="M47" s="155"/>
+      <c r="N47" s="155"/>
+      <c r="O47" s="155"/>
+      <c r="P47" s="155"/>
+      <c r="Q47" s="155"/>
+      <c r="R47" s="155"/>
+      <c r="S47" s="155"/>
+      <c r="T47" s="155"/>
+      <c r="U47" s="155"/>
+      <c r="V47" s="155"/>
+      <c r="W47" s="155"/>
     </row>
     <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
@@ -5366,19 +5374,19 @@
       <c r="G48" s="46"/>
       <c r="H48" s="57"/>
       <c r="I48" s="57"/>
-      <c r="M48" s="243" t="s">
+      <c r="M48" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="N48" s="181"/>
-      <c r="O48" s="181"/>
-      <c r="P48" s="181"/>
-      <c r="Q48" s="192"/>
-      <c r="R48" s="235"/>
-      <c r="S48" s="192"/>
-      <c r="T48" s="236"/>
-      <c r="U48" s="192"/>
-      <c r="V48" s="276"/>
-      <c r="W48" s="192"/>
+      <c r="N48" s="194"/>
+      <c r="O48" s="194"/>
+      <c r="P48" s="194"/>
+      <c r="Q48" s="195"/>
+      <c r="R48" s="273"/>
+      <c r="S48" s="195"/>
+      <c r="T48" s="282"/>
+      <c r="U48" s="195"/>
+      <c r="V48" s="280"/>
+      <c r="W48" s="195"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
@@ -5390,19 +5398,19 @@
       <c r="G49" s="46"/>
       <c r="H49" s="60"/>
       <c r="I49" s="60"/>
-      <c r="M49" s="155" t="s">
+      <c r="M49" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="N49" s="156"/>
-      <c r="O49" s="156"/>
-      <c r="P49" s="156"/>
-      <c r="Q49" s="154"/>
-      <c r="R49" s="200"/>
-      <c r="S49" s="154"/>
-      <c r="T49" s="269"/>
-      <c r="U49" s="154"/>
-      <c r="V49" s="209"/>
-      <c r="W49" s="154"/>
+      <c r="N49" s="162"/>
+      <c r="O49" s="162"/>
+      <c r="P49" s="162"/>
+      <c r="Q49" s="160"/>
+      <c r="R49" s="202"/>
+      <c r="S49" s="160"/>
+      <c r="T49" s="277"/>
+      <c r="U49" s="160"/>
+      <c r="V49" s="211"/>
+      <c r="W49" s="160"/>
     </row>
     <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
@@ -5414,19 +5422,19 @@
       <c r="G50" s="46"/>
       <c r="H50" s="124"/>
       <c r="I50" s="124"/>
-      <c r="M50" s="155" t="s">
+      <c r="M50" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="N50" s="156"/>
-      <c r="O50" s="156"/>
-      <c r="P50" s="156"/>
-      <c r="Q50" s="154"/>
-      <c r="R50" s="168"/>
-      <c r="S50" s="154"/>
-      <c r="T50" s="254"/>
-      <c r="U50" s="154"/>
-      <c r="V50" s="221"/>
-      <c r="W50" s="154"/>
+      <c r="N50" s="162"/>
+      <c r="O50" s="162"/>
+      <c r="P50" s="162"/>
+      <c r="Q50" s="160"/>
+      <c r="R50" s="174"/>
+      <c r="S50" s="160"/>
+      <c r="T50" s="250"/>
+      <c r="U50" s="160"/>
+      <c r="V50" s="235"/>
+      <c r="W50" s="160"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
@@ -5441,19 +5449,19 @@
       <c r="J51" s="56"/>
       <c r="K51" s="17"/>
       <c r="L51" s="16"/>
-      <c r="M51" s="155" t="s">
+      <c r="M51" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="N51" s="156"/>
-      <c r="O51" s="156"/>
-      <c r="P51" s="156"/>
-      <c r="Q51" s="154"/>
-      <c r="R51" s="250"/>
-      <c r="S51" s="154"/>
-      <c r="T51" s="201"/>
-      <c r="U51" s="154"/>
-      <c r="V51" s="221"/>
-      <c r="W51" s="154"/>
+      <c r="N51" s="162"/>
+      <c r="O51" s="162"/>
+      <c r="P51" s="162"/>
+      <c r="Q51" s="160"/>
+      <c r="R51" s="246"/>
+      <c r="S51" s="160"/>
+      <c r="T51" s="203"/>
+      <c r="U51" s="160"/>
+      <c r="V51" s="235"/>
+      <c r="W51" s="160"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
@@ -5468,21 +5476,21 @@
       <c r="J52" s="88"/>
       <c r="K52" s="88"/>
       <c r="L52" s="88"/>
-      <c r="M52" s="172" t="s">
+      <c r="M52" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="N52" s="156"/>
-      <c r="O52" s="156"/>
-      <c r="P52" s="156"/>
-      <c r="Q52" s="154"/>
-      <c r="R52" s="222"/>
-      <c r="S52" s="154"/>
-      <c r="T52" s="187" t="s">
+      <c r="N52" s="162"/>
+      <c r="O52" s="162"/>
+      <c r="P52" s="162"/>
+      <c r="Q52" s="160"/>
+      <c r="R52" s="221"/>
+      <c r="S52" s="160"/>
+      <c r="T52" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="U52" s="154"/>
-      <c r="V52" s="271"/>
-      <c r="W52" s="154"/>
+      <c r="U52" s="160"/>
+      <c r="V52" s="279"/>
+      <c r="W52" s="160"/>
     </row>
     <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
@@ -5497,19 +5505,19 @@
       <c r="J53" s="124"/>
       <c r="K53"/>
       <c r="L53" s="87"/>
-      <c r="M53" s="172" t="s">
+      <c r="M53" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="N53" s="156"/>
-      <c r="O53" s="156"/>
-      <c r="P53" s="156"/>
-      <c r="Q53" s="154"/>
-      <c r="R53" s="210"/>
-      <c r="S53" s="154"/>
-      <c r="T53" s="242"/>
-      <c r="U53" s="154"/>
-      <c r="V53" s="220"/>
-      <c r="W53" s="154"/>
+      <c r="N53" s="162"/>
+      <c r="O53" s="162"/>
+      <c r="P53" s="162"/>
+      <c r="Q53" s="160"/>
+      <c r="R53" s="212"/>
+      <c r="S53" s="160"/>
+      <c r="T53" s="237"/>
+      <c r="U53" s="160"/>
+      <c r="V53" s="234"/>
+      <c r="W53" s="160"/>
     </row>
     <row r="54" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
@@ -5524,21 +5532,21 @@
       <c r="J54" s="60"/>
       <c r="K54" s="126"/>
       <c r="L54" s="122"/>
-      <c r="M54" s="155" t="s">
+      <c r="M54" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="N54" s="156"/>
-      <c r="O54" s="156"/>
-      <c r="P54" s="156"/>
-      <c r="Q54" s="154"/>
-      <c r="R54" s="224"/>
-      <c r="S54" s="154"/>
-      <c r="T54" s="201" t="s">
+      <c r="N54" s="162"/>
+      <c r="O54" s="162"/>
+      <c r="P54" s="162"/>
+      <c r="Q54" s="160"/>
+      <c r="R54" s="223"/>
+      <c r="S54" s="160"/>
+      <c r="T54" s="203" t="s">
         <v>45</v>
       </c>
-      <c r="U54" s="154"/>
-      <c r="V54" s="169"/>
-      <c r="W54" s="154"/>
+      <c r="U54" s="160"/>
+      <c r="V54" s="175"/>
+      <c r="W54" s="160"/>
     </row>
     <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
@@ -5553,21 +5561,21 @@
       <c r="J55" s="123"/>
       <c r="K55" s="16"/>
       <c r="L55" s="127"/>
-      <c r="M55" s="155" t="s">
+      <c r="M55" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="N55" s="156"/>
-      <c r="O55" s="156"/>
-      <c r="P55" s="156"/>
-      <c r="Q55" s="154"/>
-      <c r="R55" s="261"/>
-      <c r="S55" s="154"/>
-      <c r="T55" s="201" t="s">
+      <c r="N55" s="162"/>
+      <c r="O55" s="162"/>
+      <c r="P55" s="162"/>
+      <c r="Q55" s="160"/>
+      <c r="R55" s="257"/>
+      <c r="S55" s="160"/>
+      <c r="T55" s="203" t="s">
         <v>45</v>
       </c>
-      <c r="U55" s="154"/>
-      <c r="V55" s="233"/>
-      <c r="W55" s="154"/>
+      <c r="U55" s="160"/>
+      <c r="V55" s="281"/>
+      <c r="W55" s="160"/>
     </row>
     <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
@@ -5582,19 +5590,19 @@
       <c r="J56" s="62"/>
       <c r="K56" s="56"/>
       <c r="L56" s="63"/>
-      <c r="M56" s="172" t="s">
+      <c r="M56" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="N56" s="156"/>
-      <c r="O56" s="156"/>
-      <c r="P56" s="156"/>
-      <c r="Q56" s="154"/>
-      <c r="R56" s="193"/>
-      <c r="S56" s="154"/>
-      <c r="T56" s="193"/>
-      <c r="U56" s="154"/>
-      <c r="V56" s="193"/>
-      <c r="W56" s="154"/>
+      <c r="N56" s="162"/>
+      <c r="O56" s="162"/>
+      <c r="P56" s="162"/>
+      <c r="Q56" s="160"/>
+      <c r="R56" s="196"/>
+      <c r="S56" s="160"/>
+      <c r="T56" s="196"/>
+      <c r="U56" s="160"/>
+      <c r="V56" s="196"/>
+      <c r="W56" s="160"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
@@ -5609,19 +5617,19 @@
       <c r="J57" s="56"/>
       <c r="K57" s="56"/>
       <c r="L57" s="64"/>
-      <c r="M57" s="172" t="s">
+      <c r="M57" s="178" t="s">
         <v>48</v>
       </c>
-      <c r="N57" s="156"/>
-      <c r="O57" s="156"/>
-      <c r="P57" s="156"/>
-      <c r="Q57" s="154"/>
-      <c r="R57" s="193"/>
-      <c r="S57" s="154"/>
-      <c r="T57" s="193"/>
-      <c r="U57" s="154"/>
-      <c r="V57" s="193"/>
-      <c r="W57" s="154"/>
+      <c r="N57" s="162"/>
+      <c r="O57" s="162"/>
+      <c r="P57" s="162"/>
+      <c r="Q57" s="160"/>
+      <c r="R57" s="196"/>
+      <c r="S57" s="160"/>
+      <c r="T57" s="196"/>
+      <c r="U57" s="160"/>
+      <c r="V57" s="196"/>
+      <c r="W57" s="160"/>
     </row>
     <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
@@ -5636,21 +5644,21 @@
       <c r="J58" s="56"/>
       <c r="K58" s="56"/>
       <c r="L58" s="56"/>
-      <c r="M58" s="172" t="s">
+      <c r="M58" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="N58" s="156"/>
-      <c r="O58" s="156"/>
-      <c r="P58" s="156"/>
-      <c r="Q58" s="154"/>
-      <c r="R58" s="228"/>
-      <c r="S58" s="154"/>
-      <c r="T58" s="193" t="s">
+      <c r="N58" s="162"/>
+      <c r="O58" s="162"/>
+      <c r="P58" s="162"/>
+      <c r="Q58" s="160"/>
+      <c r="R58" s="227"/>
+      <c r="S58" s="160"/>
+      <c r="T58" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="U58" s="154"/>
-      <c r="V58" s="270"/>
-      <c r="W58" s="154"/>
+      <c r="U58" s="160"/>
+      <c r="V58" s="278"/>
+      <c r="W58" s="160"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
@@ -5665,19 +5673,19 @@
       <c r="J59" s="66"/>
       <c r="K59" s="66"/>
       <c r="L59" s="66"/>
-      <c r="M59" s="155" t="s">
+      <c r="M59" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="N59" s="156"/>
-      <c r="O59" s="156"/>
-      <c r="P59" s="156"/>
-      <c r="Q59" s="154"/>
-      <c r="R59" s="268"/>
-      <c r="S59" s="154"/>
-      <c r="T59" s="193"/>
-      <c r="U59" s="154"/>
-      <c r="V59" s="153"/>
-      <c r="W59" s="154"/>
+      <c r="N59" s="162"/>
+      <c r="O59" s="162"/>
+      <c r="P59" s="162"/>
+      <c r="Q59" s="160"/>
+      <c r="R59" s="265"/>
+      <c r="S59" s="160"/>
+      <c r="T59" s="196"/>
+      <c r="U59" s="160"/>
+      <c r="V59" s="159"/>
+      <c r="W59" s="160"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
@@ -5692,19 +5700,19 @@
       <c r="J60" s="66"/>
       <c r="K60" s="66"/>
       <c r="L60" s="66"/>
-      <c r="M60" s="155" t="s">
+      <c r="M60" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="N60" s="156"/>
-      <c r="O60" s="156"/>
-      <c r="P60" s="156"/>
-      <c r="Q60" s="154"/>
-      <c r="R60" s="268"/>
-      <c r="S60" s="154"/>
-      <c r="T60" s="193"/>
-      <c r="U60" s="154"/>
-      <c r="V60" s="153"/>
-      <c r="W60" s="154"/>
+      <c r="N60" s="162"/>
+      <c r="O60" s="162"/>
+      <c r="P60" s="162"/>
+      <c r="Q60" s="160"/>
+      <c r="R60" s="265"/>
+      <c r="S60" s="160"/>
+      <c r="T60" s="196"/>
+      <c r="U60" s="160"/>
+      <c r="V60" s="159"/>
+      <c r="W60" s="160"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
@@ -5715,19 +5723,19 @@
       <c r="F61" s="139"/>
       <c r="G61" s="135"/>
       <c r="H61" s="56"/>
-      <c r="M61" s="155" t="s">
+      <c r="M61" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="N61" s="156"/>
-      <c r="O61" s="156"/>
-      <c r="P61" s="156"/>
-      <c r="Q61" s="154"/>
-      <c r="R61" s="231"/>
-      <c r="S61" s="154"/>
-      <c r="T61" s="225"/>
-      <c r="U61" s="154"/>
-      <c r="V61" s="177"/>
-      <c r="W61" s="154"/>
+      <c r="N61" s="162"/>
+      <c r="O61" s="162"/>
+      <c r="P61" s="162"/>
+      <c r="Q61" s="160"/>
+      <c r="R61" s="266"/>
+      <c r="S61" s="160"/>
+      <c r="T61" s="224"/>
+      <c r="U61" s="160"/>
+      <c r="V61" s="183"/>
+      <c r="W61" s="160"/>
     </row>
     <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="128"/>
@@ -5738,19 +5746,19 @@
       <c r="F62" s="129"/>
       <c r="G62" s="136"/>
       <c r="H62" s="56"/>
-      <c r="M62" s="213" t="s">
+      <c r="M62" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="N62" s="195"/>
-      <c r="O62" s="195"/>
-      <c r="P62" s="195"/>
-      <c r="Q62" s="189"/>
-      <c r="R62" s="211"/>
-      <c r="S62" s="189"/>
-      <c r="T62" s="256"/>
-      <c r="U62" s="189"/>
-      <c r="V62" s="229"/>
-      <c r="W62" s="189"/>
+      <c r="N62" s="198"/>
+      <c r="O62" s="198"/>
+      <c r="P62" s="198"/>
+      <c r="Q62" s="191"/>
+      <c r="R62" s="213"/>
+      <c r="S62" s="191"/>
+      <c r="T62" s="252"/>
+      <c r="U62" s="191"/>
+      <c r="V62" s="228"/>
+      <c r="W62" s="191"/>
     </row>
     <row r="63" spans="1:23" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
@@ -5791,20 +5799,20 @@
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
-      <c r="L64" s="199" t="s">
+      <c r="L64" s="201" t="s">
         <v>54</v>
       </c>
-      <c r="M64" s="181"/>
-      <c r="N64" s="181"/>
-      <c r="O64" s="181"/>
-      <c r="P64" s="181"/>
-      <c r="Q64" s="181"/>
-      <c r="R64" s="181"/>
-      <c r="S64" s="181"/>
-      <c r="T64" s="181"/>
-      <c r="U64" s="181"/>
-      <c r="V64" s="181"/>
-      <c r="W64" s="192"/>
+      <c r="M64" s="194"/>
+      <c r="N64" s="194"/>
+      <c r="O64" s="194"/>
+      <c r="P64" s="194"/>
+      <c r="Q64" s="194"/>
+      <c r="R64" s="194"/>
+      <c r="S64" s="194"/>
+      <c r="T64" s="194"/>
+      <c r="U64" s="194"/>
+      <c r="V64" s="194"/>
+      <c r="W64" s="195"/>
     </row>
     <row r="65" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
@@ -5818,32 +5826,32 @@
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
-      <c r="L65" s="162" t="s">
+      <c r="L65" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="M65" s="164" t="s">
+      <c r="M65" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="N65" s="164" t="s">
+      <c r="N65" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="O65" s="164" t="s">
+      <c r="O65" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="P65" s="164" t="s">
+      <c r="P65" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="Q65" s="156"/>
-      <c r="R65" s="156"/>
-      <c r="S65" s="154"/>
-      <c r="T65" s="164" t="s">
+      <c r="Q65" s="162"/>
+      <c r="R65" s="162"/>
+      <c r="S65" s="160"/>
+      <c r="T65" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="U65" s="154"/>
-      <c r="V65" s="164" t="s">
+      <c r="U65" s="160"/>
+      <c r="V65" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="W65" s="154"/>
+      <c r="W65" s="160"/>
     </row>
     <row r="66" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
@@ -5857,26 +5865,26 @@
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
-      <c r="L66" s="163"/>
-      <c r="M66" s="165"/>
-      <c r="N66" s="165"/>
-      <c r="O66" s="165"/>
-      <c r="P66" s="218" t="s">
+      <c r="L66" s="169"/>
+      <c r="M66" s="171"/>
+      <c r="N66" s="171"/>
+      <c r="O66" s="171"/>
+      <c r="P66" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="Q66" s="154"/>
-      <c r="R66" s="164" t="s">
+      <c r="Q66" s="160"/>
+      <c r="R66" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="S66" s="154"/>
-      <c r="T66" s="164" t="s">
+      <c r="S66" s="160"/>
+      <c r="T66" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="U66" s="154"/>
-      <c r="V66" s="164" t="s">
+      <c r="U66" s="160"/>
+      <c r="V66" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="W66" s="154"/>
+      <c r="W66" s="160"/>
     </row>
     <row r="67" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
@@ -5894,14 +5902,14 @@
       <c r="M67" s="85"/>
       <c r="N67" s="85"/>
       <c r="O67" s="39"/>
-      <c r="P67" s="188"/>
-      <c r="Q67" s="189"/>
-      <c r="R67" s="188"/>
-      <c r="S67" s="189"/>
-      <c r="T67" s="188"/>
-      <c r="U67" s="189"/>
-      <c r="V67" s="188"/>
-      <c r="W67" s="189"/>
+      <c r="P67" s="190"/>
+      <c r="Q67" s="191"/>
+      <c r="R67" s="190"/>
+      <c r="S67" s="191"/>
+      <c r="T67" s="190"/>
+      <c r="U67" s="191"/>
+      <c r="V67" s="190"/>
+      <c r="W67" s="191"/>
     </row>
     <row r="68" spans="1:24" ht="12.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68"/>
@@ -5915,10 +5923,10 @@
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
-      <c r="N68" s="149"/>
-      <c r="O68" s="149"/>
-      <c r="P68" s="149"/>
-      <c r="Q68" s="149"/>
+      <c r="N68" s="155"/>
+      <c r="O68" s="155"/>
+      <c r="P68" s="155"/>
+      <c r="Q68" s="155"/>
     </row>
     <row r="69" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
@@ -5932,20 +5940,20 @@
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
-      <c r="L69" s="199" t="s">
+      <c r="L69" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="M69" s="192"/>
-      <c r="N69" s="191" t="s">
+      <c r="M69" s="195"/>
+      <c r="N69" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="O69" s="192"/>
-      <c r="P69" s="191" t="s">
+      <c r="O69" s="195"/>
+      <c r="P69" s="193" t="s">
         <v>62</v>
       </c>
-      <c r="Q69" s="192"/>
-      <c r="R69" s="273"/>
-      <c r="S69" s="149"/>
+      <c r="Q69" s="195"/>
+      <c r="R69" s="269"/>
+      <c r="S69" s="155"/>
     </row>
     <row r="70" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
@@ -5959,24 +5967,24 @@
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
-      <c r="L70" s="197" t="s">
+      <c r="L70" s="285" t="s">
         <v>63</v>
       </c>
-      <c r="M70" s="189"/>
-      <c r="N70" s="214">
+      <c r="M70" s="191"/>
+      <c r="N70" s="283">
         <f>L67*P67/1000</f>
         <v>0</v>
       </c>
-      <c r="O70" s="189"/>
-      <c r="P70" s="214">
+      <c r="O70" s="191"/>
+      <c r="P70" s="283">
         <f>L70+N70</f>
         <v>1</v>
       </c>
-      <c r="Q70" s="189"/>
-      <c r="R70" s="219"/>
-      <c r="S70" s="149"/>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q70" s="191"/>
+      <c r="R70" s="284"/>
+      <c r="S70" s="155"/>
+    </row>
+    <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -5988,9 +5996,20 @@
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
-      <c r="L71"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L71" s="148"/>
+      <c r="M71" s="148"/>
+      <c r="N71" s="148"/>
+      <c r="O71" s="148"/>
+      <c r="P71" s="148"/>
+      <c r="Q71" s="148"/>
+      <c r="R71" s="148"/>
+      <c r="S71" s="149"/>
+      <c r="T71" s="149"/>
+      <c r="U71" s="149"/>
+      <c r="V71" s="149"/>
+      <c r="W71" s="149"/>
+    </row>
+    <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -6002,38 +6021,82 @@
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
-      <c r="L72"/>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L73" s="141" t="s">
+      <c r="L72" s="148"/>
+      <c r="M72" s="148"/>
+      <c r="N72" s="148"/>
+      <c r="O72" s="148"/>
+      <c r="P72" s="148"/>
+      <c r="Q72" s="148"/>
+      <c r="R72" s="148"/>
+      <c r="S72" s="149"/>
+      <c r="T72" s="149"/>
+      <c r="U72" s="149"/>
+      <c r="V72" s="149"/>
+      <c r="W72" s="149"/>
+    </row>
+    <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="L73" s="286" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L74" s="141" t="s">
+      <c r="M73" s="286"/>
+      <c r="N73" s="286"/>
+      <c r="O73" s="286"/>
+      <c r="P73" s="286"/>
+      <c r="Q73" s="286"/>
+      <c r="R73" s="286"/>
+      <c r="S73" s="286"/>
+      <c r="T73" s="286"/>
+      <c r="U73" s="286"/>
+      <c r="V73" s="286"/>
+      <c r="W73" s="286"/>
+    </row>
+    <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="L74" s="286" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L75" s="141" t="s">
+      <c r="M74" s="286"/>
+      <c r="N74" s="286"/>
+      <c r="O74" s="286"/>
+      <c r="P74" s="286"/>
+      <c r="Q74" s="286"/>
+      <c r="R74" s="286"/>
+      <c r="S74" s="286"/>
+      <c r="T74" s="286"/>
+      <c r="U74" s="286"/>
+      <c r="V74" s="286"/>
+      <c r="W74" s="286"/>
+    </row>
+    <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="L75" s="287" t="s">
         <v>65</v>
       </c>
+      <c r="M75" s="287"/>
+      <c r="N75" s="287"/>
+      <c r="O75" s="287"/>
+      <c r="P75" s="287"/>
+      <c r="Q75" s="287"/>
+      <c r="R75" s="287"/>
+      <c r="S75" s="287"/>
+      <c r="T75" s="287"/>
+      <c r="U75" s="287"/>
+      <c r="V75" s="287"/>
+      <c r="W75" s="287"/>
     </row>
     <row r="76" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="L76" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="O76" s="278"/>
+      <c r="O76" s="144"/>
       <c r="P76" s="143"/>
-      <c r="Q76" s="279" t="s">
+      <c r="Q76" s="275" t="s">
         <v>66</v>
       </c>
-      <c r="R76" s="279"/>
-      <c r="S76" s="279"/>
-      <c r="T76" s="280"/>
-      <c r="U76" s="281"/>
-      <c r="V76" s="280"/>
-      <c r="W76" s="280"/>
+      <c r="R76" s="275"/>
+      <c r="S76" s="275"/>
+      <c r="T76" s="145"/>
+      <c r="U76" s="146"/>
+      <c r="V76" s="145"/>
+      <c r="W76" s="145"/>
       <c r="X76" s="143"/>
     </row>
     <row r="77" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -6042,13 +6105,13 @@
       </c>
       <c r="O77" s="143"/>
       <c r="P77" s="143"/>
-      <c r="Q77" s="279"/>
-      <c r="R77" s="279"/>
-      <c r="S77" s="279"/>
-      <c r="T77" s="280"/>
-      <c r="U77" s="282"/>
-      <c r="V77" s="279"/>
-      <c r="W77" s="279"/>
+      <c r="Q77" s="275"/>
+      <c r="R77" s="275"/>
+      <c r="S77" s="275"/>
+      <c r="T77" s="145"/>
+      <c r="U77" s="147"/>
+      <c r="V77" s="275"/>
+      <c r="W77" s="275"/>
       <c r="X77" s="143"/>
     </row>
     <row r="78" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6057,69 +6120,69 @@
       </c>
       <c r="O78" s="143"/>
       <c r="P78" s="143"/>
-      <c r="Q78" s="283"/>
-      <c r="R78" s="283"/>
-      <c r="S78" s="283"/>
-      <c r="T78" s="280"/>
-      <c r="U78" s="280"/>
-      <c r="V78" s="283"/>
-      <c r="W78" s="283"/>
+      <c r="Q78" s="276"/>
+      <c r="R78" s="276"/>
+      <c r="S78" s="276"/>
+      <c r="T78" s="145"/>
+      <c r="U78" s="145"/>
+      <c r="V78" s="276"/>
+      <c r="W78" s="276"/>
     </row>
     <row r="79" spans="1:24" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="L79" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="M79" s="144" t="s">
+      <c r="M79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="N79" s="144" t="s">
+      <c r="N79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="O79" s="144" t="s">
+      <c r="O79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="P79" s="144" t="s">
+      <c r="P79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="Q79" s="144" t="s">
+      <c r="Q79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="R79" s="144" t="s">
+      <c r="R79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="S79" s="144" t="s">
+      <c r="S79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="T79" s="144" t="s">
+      <c r="T79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="U79" s="144" t="s">
+      <c r="U79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="V79" s="144" t="s">
+      <c r="V79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="W79" s="144" t="s">
+      <c r="W79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="X79" s="146"/>
+      <c r="X79" s="152"/>
     </row>
     <row r="80" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L80" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="M80" s="145"/>
-      <c r="N80" s="145"/>
-      <c r="O80" s="145"/>
-      <c r="P80" s="145"/>
-      <c r="Q80" s="145"/>
-      <c r="R80" s="145"/>
-      <c r="S80" s="145"/>
-      <c r="T80" s="145"/>
-      <c r="U80" s="145"/>
-      <c r="V80" s="145"/>
-      <c r="W80" s="145"/>
-      <c r="X80" s="146"/>
+      <c r="M80" s="151"/>
+      <c r="N80" s="151"/>
+      <c r="O80" s="151"/>
+      <c r="P80" s="151"/>
+      <c r="Q80" s="151"/>
+      <c r="R80" s="151"/>
+      <c r="S80" s="151"/>
+      <c r="T80" s="151"/>
+      <c r="U80" s="151"/>
+      <c r="V80" s="151"/>
+      <c r="W80" s="151"/>
+      <c r="X80" s="152"/>
     </row>
     <row r="81" spans="12:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="L81" s="141" t="s">
@@ -6135,7 +6198,7 @@
     <row r="116" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="226">
+  <mergeCells count="229">
     <mergeCell ref="Q77:S78"/>
     <mergeCell ref="V77:W78"/>
     <mergeCell ref="Q76:S76"/>
@@ -6145,7 +6208,18 @@
     <mergeCell ref="M49:Q49"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="V52:W52"/>
-    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:W73"/>
+    <mergeCell ref="L74:W74"/>
+    <mergeCell ref="L75:W75"/>
     <mergeCell ref="P69:Q69"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="R69:S69"/>
@@ -6158,16 +6232,15 @@
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="V48:W48"/>
     <mergeCell ref="M52:Q52"/>
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="R59:S59"/>
     <mergeCell ref="M65:M66"/>
-    <mergeCell ref="T67:U67"/>
     <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="L69:M69"/>
     <mergeCell ref="P8:W8"/>
     <mergeCell ref="T62:U62"/>
     <mergeCell ref="O32:P32"/>
@@ -6187,6 +6260,11 @@
     <mergeCell ref="R60:S60"/>
     <mergeCell ref="O25:P26"/>
     <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="M14:O17"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="T53:U53"/>
     <mergeCell ref="M48:Q48"/>
@@ -6211,33 +6289,17 @@
     <mergeCell ref="Q30:R30"/>
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="S35:T35"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="W27"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q40:R40"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="S40:T40"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="S33:T33"/>
-    <mergeCell ref="M14:O17"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="V53:W53"/>
     <mergeCell ref="V50:W50"/>
     <mergeCell ref="J37:L37"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="T50:U50"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="R52:S52"/>
@@ -6251,16 +6313,17 @@
     <mergeCell ref="T56:U56"/>
     <mergeCell ref="M44:U44"/>
     <mergeCell ref="R58:S58"/>
-    <mergeCell ref="V62:W62"/>
     <mergeCell ref="V56:W56"/>
     <mergeCell ref="Q37:R37"/>
     <mergeCell ref="W25:W26"/>
-    <mergeCell ref="N70:O70"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="S9:T10"/>
     <mergeCell ref="O34:P34"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="W27"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T55:U55"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="R57:S57"/>
     <mergeCell ref="M39:N39"/>
@@ -6273,12 +6336,17 @@
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="O38:P38"/>
     <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="N69:O69"/>
     <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="P65:S65"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="M10:N10"/>
     <mergeCell ref="B3:U3"/>
     <mergeCell ref="L64:W64"/>
     <mergeCell ref="R49:S49"/>
@@ -6303,9 +6371,6 @@
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="V25:V26"/>
     <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="U14:U17"/>
     <mergeCell ref="W14:W17"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="S29:T29"/>
@@ -6324,8 +6389,9 @@
     <mergeCell ref="V27"/>
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="S31:T31"/>
-    <mergeCell ref="L70:M70"/>
     <mergeCell ref="T57:U57"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V62:W62"/>
     <mergeCell ref="D6:E12"/>
     <mergeCell ref="V59:W59"/>
     <mergeCell ref="M54:Q54"/>

--- a/property_excel/template_gnkt_bopz.xlsx
+++ b/property_excel/template_gnkt_bopz.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\Create_work_krs\property_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Create_work_krs\property_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <definedName name="пакер">СХЕМА!$U$19</definedName>
     <definedName name="раствор_глушения">СХЕМА!$R$52</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -2344,7 +2344,7 @@
     <xf numFmtId="0" fontId="32" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="34" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2572,9 +2572,6 @@
     <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2732,9 +2729,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2751,351 +2745,376 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="174" fontId="42" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="25" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="39" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="182" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
     <xf numFmtId="189" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="39" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="25" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="42" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="440">
@@ -4085,34 +4104,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="AI62" sqref="AI62"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="14" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="4.85546875" style="86" customWidth="1"/>
-    <col min="3" max="3" width="1.140625" style="86" customWidth="1"/>
-    <col min="4" max="4" width="2.5703125" style="86" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="86" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="86" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="86" customWidth="1"/>
-    <col min="8" max="8" width="3" style="86" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="86" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" style="86" customWidth="1"/>
-    <col min="11" max="11" width="5" style="86" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="86" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="86" customWidth="1"/>
-    <col min="14" max="15" width="9.5703125" style="86" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="86" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="86" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="86" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="86" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="86" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" style="86" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="86" customWidth="1"/>
-    <col min="23" max="23" width="21.42578125" style="86" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="85" customWidth="1"/>
+    <col min="3" max="3" width="1.140625" style="85" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="85" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="85" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="85" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="85" customWidth="1"/>
+    <col min="8" max="8" width="3" style="85" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="85" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="85" customWidth="1"/>
+    <col min="11" max="11" width="5" style="85" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="85" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="85" customWidth="1"/>
+    <col min="14" max="15" width="9.5703125" style="85" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="85" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="85" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="85" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" style="85" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="85" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" style="85" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" style="85" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4133,12 +4152,12 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="205"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="R1" s="253"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="57"/>
@@ -4167,30 +4186,30 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
@@ -4205,19 +4224,19 @@
       <c r="J4" s="2"/>
       <c r="K4" s="12"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="207" t="s">
+      <c r="M4" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
@@ -4232,24 +4251,24 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="T5" s="155"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="155"/>
-      <c r="W5" s="155"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="154"/>
+      <c r="D6" s="269"/>
+      <c r="E6" s="270"/>
       <c r="F6" s="47"/>
       <c r="G6" s="48"/>
       <c r="H6" s="51"/>
@@ -4257,26 +4276,26 @@
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
-      <c r="M6" s="236" t="s">
+      <c r="M6" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="194"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="243"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="194"/>
-      <c r="T6" s="194"/>
-      <c r="U6" s="194"/>
-      <c r="V6" s="194"/>
-      <c r="W6" s="195"/>
+      <c r="N6" s="219"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="224"/>
+      <c r="Q6" s="219"/>
+      <c r="R6" s="219"/>
+      <c r="S6" s="219"/>
+      <c r="T6" s="219"/>
+      <c r="U6" s="219"/>
+      <c r="V6" s="219"/>
+      <c r="W6" s="163"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="156"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="271"/>
       <c r="F7" s="55"/>
       <c r="G7" s="54"/>
       <c r="H7" s="52"/>
@@ -4284,26 +4303,26 @@
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
-      <c r="M7" s="178" t="s">
+      <c r="M7" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="162"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="244"/>
-      <c r="Q7" s="162"/>
-      <c r="R7" s="162"/>
-      <c r="S7" s="162"/>
-      <c r="T7" s="162"/>
-      <c r="U7" s="162"/>
-      <c r="V7" s="162"/>
-      <c r="W7" s="160"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="155"/>
+      <c r="P7" s="225"/>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="158"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="158"/>
+      <c r="U7" s="158"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="155"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="156"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="271"/>
       <c r="F8" s="55"/>
       <c r="G8" s="54"/>
       <c r="H8" s="52"/>
@@ -4311,84 +4330,84 @@
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
       <c r="L8" s="56"/>
-      <c r="M8" s="163" t="s">
+      <c r="M8" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="164"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="251"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="164"/>
-      <c r="T8" s="164"/>
-      <c r="U8" s="164"/>
-      <c r="V8" s="164"/>
-      <c r="W8" s="165"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="187"/>
+      <c r="Q8" s="188"/>
+      <c r="R8" s="188"/>
+      <c r="S8" s="188"/>
+      <c r="T8" s="188"/>
+      <c r="U8" s="188"/>
+      <c r="V8" s="188"/>
+      <c r="W8" s="189"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="271"/>
       <c r="F9" s="55"/>
       <c r="G9" s="54"/>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="216" t="s">
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="194"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="179" t="s">
+      <c r="N9" s="219"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="179" t="s">
+      <c r="Q9" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="179" t="s">
+      <c r="R9" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="230" t="s">
+      <c r="S9" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="231"/>
-      <c r="U9" s="179" t="s">
+      <c r="T9" s="203"/>
+      <c r="U9" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="179" t="s">
+      <c r="V9" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="195"/>
+      <c r="W9" s="163"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="271"/>
       <c r="F10" s="55"/>
       <c r="G10" s="54"/>
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="248" t="s">
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="162"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="171"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="171"/>
-      <c r="V10" s="91" t="s">
+      <c r="N10" s="158"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="184"/>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="90" t="s">
         <v>13</v>
       </c>
       <c r="W10" s="32" t="s">
@@ -4399,8 +4418,8 @@
       <c r="A11"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="271"/>
       <c r="F11" s="55"/>
       <c r="G11" s="54"/>
       <c r="H11" s="52"/>
@@ -4408,26 +4427,26 @@
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
-      <c r="M11" s="176" t="s">
+      <c r="M11" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="162"/>
-      <c r="O11" s="177"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="173"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="98"/>
+      <c r="S11" s="97"/>
       <c r="T11" s="27"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="101"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="100"/>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="158"/>
+      <c r="D12" s="272"/>
+      <c r="E12" s="273"/>
       <c r="F12" s="55"/>
       <c r="G12" s="70"/>
       <c r="H12" s="71"/>
@@ -4435,19 +4454,19 @@
       <c r="J12" s="73"/>
       <c r="K12" s="74"/>
       <c r="L12" s="58"/>
-      <c r="M12" s="176" t="s">
+      <c r="M12" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="162"/>
-      <c r="O12" s="177"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="173"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="22"/>
-      <c r="S12" s="98"/>
+      <c r="S12" s="97"/>
       <c r="T12" s="27"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="101"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="100"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
@@ -4459,22 +4478,22 @@
       <c r="G13" s="54"/>
       <c r="H13" s="52"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="176" t="s">
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="162"/>
-      <c r="O13" s="177"/>
-      <c r="P13" s="92"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="91"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
-      <c r="S13" s="98"/>
+      <c r="S13" s="97"/>
       <c r="T13" s="27"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="101"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="100"/>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
@@ -4489,19 +4508,19 @@
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
       <c r="L14" s="57"/>
-      <c r="M14" s="161" t="s">
+      <c r="M14" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="164"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="267"/>
-      <c r="Q14" s="239"/>
-      <c r="R14" s="239"/>
-      <c r="S14" s="240"/>
-      <c r="T14" s="180"/>
-      <c r="U14" s="220"/>
-      <c r="V14" s="184"/>
-      <c r="W14" s="186"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="212"/>
+      <c r="Q14" s="214"/>
+      <c r="R14" s="214"/>
+      <c r="S14" s="222"/>
+      <c r="T14" s="279"/>
+      <c r="U14" s="249"/>
+      <c r="V14" s="281"/>
+      <c r="W14" s="263"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
@@ -4516,17 +4535,17 @@
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
       <c r="L15" s="57"/>
-      <c r="M15" s="274"/>
-      <c r="N15" s="155"/>
-      <c r="O15" s="181"/>
-      <c r="P15" s="185"/>
-      <c r="Q15" s="185"/>
-      <c r="R15" s="185"/>
-      <c r="S15" s="241"/>
-      <c r="T15" s="181"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="187"/>
+      <c r="M15" s="215"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="216"/>
+      <c r="P15" s="213"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="213"/>
+      <c r="S15" s="223"/>
+      <c r="T15" s="216"/>
+      <c r="U15" s="213"/>
+      <c r="V15" s="213"/>
+      <c r="W15" s="264"/>
     </row>
     <row r="16" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
@@ -4541,17 +4560,17 @@
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
       <c r="L16" s="57"/>
-      <c r="M16" s="274"/>
-      <c r="N16" s="155"/>
-      <c r="O16" s="181"/>
-      <c r="P16" s="185"/>
-      <c r="Q16" s="185"/>
-      <c r="R16" s="185"/>
-      <c r="S16" s="241"/>
-      <c r="T16" s="181"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="187"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="216"/>
+      <c r="P16" s="213"/>
+      <c r="Q16" s="213"/>
+      <c r="R16" s="213"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="216"/>
+      <c r="U16" s="213"/>
+      <c r="V16" s="213"/>
+      <c r="W16" s="264"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
@@ -4566,17 +4585,17 @@
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
       <c r="L17" s="57"/>
-      <c r="M17" s="264"/>
-      <c r="N17" s="209"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="171"/>
-      <c r="Q17" s="171"/>
-      <c r="R17" s="171"/>
-      <c r="S17" s="242"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="171"/>
-      <c r="V17" s="171"/>
-      <c r="W17" s="188"/>
+      <c r="M17" s="207"/>
+      <c r="N17" s="217"/>
+      <c r="O17" s="208"/>
+      <c r="P17" s="184"/>
+      <c r="Q17" s="184"/>
+      <c r="R17" s="184"/>
+      <c r="S17" s="209"/>
+      <c r="T17" s="208"/>
+      <c r="U17" s="184"/>
+      <c r="V17" s="184"/>
+      <c r="W17" s="243"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
@@ -4591,19 +4610,19 @@
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
       <c r="L18" s="57"/>
-      <c r="M18" s="197" t="s">
+      <c r="M18" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="198"/>
-      <c r="O18" s="191"/>
+      <c r="N18" s="178"/>
+      <c r="O18" s="153"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="34"/>
       <c r="R18" s="34"/>
-      <c r="S18" s="103"/>
+      <c r="S18" s="102"/>
       <c r="T18" s="67"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="106"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="105"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
@@ -4618,19 +4637,19 @@
       <c r="J19" s="57"/>
       <c r="K19" s="57"/>
       <c r="L19" s="57"/>
-      <c r="M19" s="208" t="s">
+      <c r="M19" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="209"/>
-      <c r="O19" s="210"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="257"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="30"/>
       <c r="R19" s="29"/>
-      <c r="S19" s="107"/>
+      <c r="S19" s="106"/>
       <c r="T19" s="31"/>
-      <c r="U19" s="108"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="110"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="109"/>
     </row>
     <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -4645,17 +4664,17 @@
       <c r="J20" s="77"/>
       <c r="K20" s="77"/>
       <c r="L20" s="77"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="160"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="158"/>
+      <c r="Q20" s="155"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="98"/>
+      <c r="S20" s="97"/>
       <c r="T20" s="27"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="101"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="100"/>
     </row>
     <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
@@ -4664,23 +4683,23 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="49"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="132"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="131"/>
       <c r="K21" s="79"/>
       <c r="L21" s="79"/>
-      <c r="M21" s="268"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="177"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="173"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
-      <c r="S21" s="112"/>
+      <c r="S21" s="111"/>
       <c r="T21" s="28"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="115"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="114"/>
     </row>
     <row r="22" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
@@ -4689,25 +4708,25 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="49"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="132"/>
       <c r="K22" s="80"/>
       <c r="L22" s="80"/>
-      <c r="M22" s="271" t="s">
+      <c r="M22" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="198"/>
-      <c r="O22" s="261"/>
+      <c r="N22" s="178"/>
+      <c r="O22" s="179"/>
       <c r="P22" s="68"/>
       <c r="Q22" s="69"/>
       <c r="R22" s="68"/>
-      <c r="S22" s="260"/>
-      <c r="T22" s="261"/>
-      <c r="U22" s="116"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="118"/>
+      <c r="S22" s="204"/>
+      <c r="T22" s="179"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="117"/>
     </row>
     <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
@@ -4717,24 +4736,24 @@
       <c r="E23" s="2"/>
       <c r="F23" s="45"/>
       <c r="G23" s="46"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="253" t="s">
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="160"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -4751,17 +4770,17 @@
         <v>23</v>
       </c>
       <c r="L24" s="77"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="155"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="155"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="160"/>
+      <c r="S24" s="160"/>
+      <c r="T24" s="160"/>
+      <c r="U24" s="160"/>
+      <c r="V24" s="160"/>
+      <c r="W24" s="160"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
@@ -4776,27 +4795,27 @@
       <c r="J25" s="84"/>
       <c r="K25" s="78"/>
       <c r="L25" s="79"/>
-      <c r="M25" s="262" t="s">
+      <c r="M25" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="263"/>
-      <c r="O25" s="193" t="s">
+      <c r="N25" s="206"/>
+      <c r="O25" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="263"/>
-      <c r="Q25" s="193" t="s">
+      <c r="P25" s="206"/>
+      <c r="Q25" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="194"/>
-      <c r="S25" s="194"/>
-      <c r="T25" s="195"/>
-      <c r="U25" s="193" t="s">
+      <c r="R25" s="219"/>
+      <c r="S25" s="219"/>
+      <c r="T25" s="163"/>
+      <c r="U25" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="V25" s="214" t="s">
+      <c r="V25" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="W25" s="229" t="s">
+      <c r="W25" s="242" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4810,26 +4829,26 @@
       <c r="G26" s="46"/>
       <c r="H26" s="83"/>
       <c r="I26" s="83"/>
-      <c r="J26" s="272"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="264"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="242"/>
-      <c r="P26" s="182"/>
-      <c r="Q26" s="222" t="s">
+      <c r="J26" s="181"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="207"/>
+      <c r="N26" s="208"/>
+      <c r="O26" s="209"/>
+      <c r="P26" s="208"/>
+      <c r="Q26" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="165"/>
-      <c r="S26" s="222" t="s">
+      <c r="R26" s="189"/>
+      <c r="S26" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="T26" s="165"/>
-      <c r="U26" s="171"/>
-      <c r="V26" s="171"/>
-      <c r="W26" s="188"/>
-    </row>
-    <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T26" s="189"/>
+      <c r="U26" s="184"/>
+      <c r="V26" s="184"/>
+      <c r="W26" s="243"/>
+    </row>
+    <row r="27" spans="1:23" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4842,17 +4861,17 @@
       <c r="J27" s="77"/>
       <c r="K27" s="77"/>
       <c r="L27" s="77"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="192"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="166"/>
-      <c r="R27" s="160"/>
-      <c r="S27" s="166"/>
-      <c r="T27" s="160"/>
-      <c r="U27" s="245"/>
-      <c r="V27" s="199"/>
-      <c r="W27" s="232"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="197"/>
+      <c r="R27" s="155"/>
+      <c r="S27" s="197"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="226"/>
+      <c r="V27" s="267"/>
+      <c r="W27" s="245"/>
     </row>
     <row r="28" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
@@ -4867,14 +4886,14 @@
       <c r="J28" s="57"/>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="192"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="166"/>
-      <c r="R28" s="160"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="160"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="191"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="197"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="197"/>
+      <c r="T28" s="155"/>
       <c r="U28" s="37"/>
       <c r="V28" s="41"/>
       <c r="W28" s="42"/>
@@ -4888,18 +4907,18 @@
       <c r="F29" s="45"/>
       <c r="G29" s="46"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="270"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="192"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="160"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="160"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="197"/>
+      <c r="R29" s="155"/>
+      <c r="S29" s="197"/>
+      <c r="T29" s="155"/>
       <c r="U29" s="37"/>
       <c r="V29" s="41"/>
       <c r="W29" s="42"/>
@@ -4913,18 +4932,18 @@
       <c r="F30" s="45"/>
       <c r="G30" s="46"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="192"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="166"/>
-      <c r="R30" s="160"/>
-      <c r="S30" s="166"/>
-      <c r="T30" s="160"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="197"/>
+      <c r="R30" s="155"/>
+      <c r="S30" s="197"/>
+      <c r="T30" s="155"/>
       <c r="U30" s="37"/>
       <c r="V30" s="41"/>
       <c r="W30" s="42"/>
@@ -4938,18 +4957,18 @@
       <c r="F31" s="45"/>
       <c r="G31" s="46"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="192"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="166"/>
-      <c r="R31" s="160"/>
-      <c r="S31" s="166"/>
-      <c r="T31" s="160"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="197"/>
+      <c r="R31" s="155"/>
+      <c r="S31" s="197"/>
+      <c r="T31" s="155"/>
       <c r="U31" s="37"/>
       <c r="V31" s="41"/>
       <c r="W31" s="42"/>
@@ -4963,18 +4982,18 @@
       <c r="F32" s="45"/>
       <c r="G32" s="46"/>
       <c r="H32" s="56"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="192"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="166"/>
-      <c r="R32" s="160"/>
-      <c r="S32" s="166"/>
-      <c r="T32" s="160"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="155"/>
+      <c r="Q32" s="197"/>
+      <c r="R32" s="155"/>
+      <c r="S32" s="197"/>
+      <c r="T32" s="155"/>
       <c r="U32" s="37"/>
       <c r="V32" s="41"/>
       <c r="W32" s="42"/>
@@ -4988,18 +5007,18 @@
       <c r="F33" s="45"/>
       <c r="G33" s="46"/>
       <c r="H33" s="56"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="160"/>
-      <c r="O33" s="192"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="166"/>
-      <c r="R33" s="160"/>
-      <c r="S33" s="166"/>
-      <c r="T33" s="160"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="160"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="191"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="197"/>
+      <c r="R33" s="155"/>
+      <c r="S33" s="197"/>
+      <c r="T33" s="155"/>
       <c r="U33" s="37"/>
       <c r="V33" s="41"/>
       <c r="W33" s="42"/>
@@ -5013,18 +5032,18 @@
       <c r="F34" s="45"/>
       <c r="G34" s="46"/>
       <c r="H34" s="56"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="167"/>
-      <c r="N34" s="160"/>
-      <c r="O34" s="192"/>
-      <c r="P34" s="160"/>
-      <c r="Q34" s="166"/>
-      <c r="R34" s="160"/>
-      <c r="S34" s="166"/>
-      <c r="T34" s="160"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="191"/>
+      <c r="P34" s="155"/>
+      <c r="Q34" s="197"/>
+      <c r="R34" s="155"/>
+      <c r="S34" s="197"/>
+      <c r="T34" s="155"/>
       <c r="U34" s="37"/>
       <c r="V34" s="41"/>
       <c r="W34" s="42"/>
@@ -5038,18 +5057,18 @@
       <c r="F35" s="45"/>
       <c r="G35" s="46"/>
       <c r="H35" s="56"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="167"/>
-      <c r="N35" s="160"/>
-      <c r="O35" s="192"/>
-      <c r="P35" s="160"/>
-      <c r="Q35" s="166"/>
-      <c r="R35" s="160"/>
-      <c r="S35" s="166"/>
-      <c r="T35" s="160"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="159"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="175"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="191"/>
+      <c r="P35" s="155"/>
+      <c r="Q35" s="197"/>
+      <c r="R35" s="155"/>
+      <c r="S35" s="197"/>
+      <c r="T35" s="155"/>
       <c r="U35" s="37"/>
       <c r="V35" s="41"/>
       <c r="W35" s="42"/>
@@ -5063,18 +5082,18 @@
       <c r="F36" s="45"/>
       <c r="G36" s="46"/>
       <c r="H36" s="56"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="167"/>
-      <c r="N36" s="160"/>
-      <c r="O36" s="192"/>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="166"/>
-      <c r="R36" s="160"/>
-      <c r="S36" s="166"/>
-      <c r="T36" s="160"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="160"/>
+      <c r="L36" s="160"/>
+      <c r="M36" s="175"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="191"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="197"/>
+      <c r="R36" s="155"/>
+      <c r="S36" s="197"/>
+      <c r="T36" s="155"/>
       <c r="U36" s="37"/>
       <c r="V36" s="41"/>
       <c r="W36" s="42"/>
@@ -5088,18 +5107,18 @@
       <c r="F37" s="45"/>
       <c r="G37" s="46"/>
       <c r="H37" s="56"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="160"/>
-      <c r="O37" s="192"/>
-      <c r="P37" s="160"/>
-      <c r="Q37" s="166"/>
-      <c r="R37" s="160"/>
-      <c r="S37" s="166"/>
-      <c r="T37" s="160"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="159"/>
+      <c r="K37" s="160"/>
+      <c r="L37" s="160"/>
+      <c r="M37" s="175"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="191"/>
+      <c r="P37" s="155"/>
+      <c r="Q37" s="197"/>
+      <c r="R37" s="155"/>
+      <c r="S37" s="197"/>
+      <c r="T37" s="155"/>
       <c r="U37" s="37"/>
       <c r="V37" s="41"/>
       <c r="W37" s="42"/>
@@ -5113,18 +5132,18 @@
       <c r="F38" s="45"/>
       <c r="G38" s="46"/>
       <c r="H38" s="56"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="160"/>
-      <c r="O38" s="192"/>
-      <c r="P38" s="160"/>
-      <c r="Q38" s="166"/>
-      <c r="R38" s="160"/>
-      <c r="S38" s="166"/>
-      <c r="T38" s="160"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="160"/>
+      <c r="L38" s="160"/>
+      <c r="M38" s="175"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="191"/>
+      <c r="P38" s="155"/>
+      <c r="Q38" s="197"/>
+      <c r="R38" s="155"/>
+      <c r="S38" s="197"/>
+      <c r="T38" s="155"/>
       <c r="U38" s="37"/>
       <c r="V38" s="41"/>
       <c r="W38" s="42"/>
@@ -5138,18 +5157,18 @@
       <c r="F39" s="45"/>
       <c r="G39" s="46"/>
       <c r="H39" s="56"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="167"/>
-      <c r="N39" s="160"/>
-      <c r="O39" s="192"/>
-      <c r="P39" s="160"/>
-      <c r="Q39" s="166"/>
-      <c r="R39" s="160"/>
-      <c r="S39" s="166"/>
-      <c r="T39" s="160"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="159"/>
+      <c r="K39" s="160"/>
+      <c r="L39" s="160"/>
+      <c r="M39" s="175"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="191"/>
+      <c r="P39" s="155"/>
+      <c r="Q39" s="197"/>
+      <c r="R39" s="155"/>
+      <c r="S39" s="197"/>
+      <c r="T39" s="155"/>
       <c r="U39" s="37"/>
       <c r="V39" s="41"/>
       <c r="W39" s="42"/>
@@ -5163,18 +5182,18 @@
       <c r="F40" s="45"/>
       <c r="G40" s="46"/>
       <c r="H40" s="56"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="204"/>
-      <c r="K40" s="155"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="206"/>
-      <c r="N40" s="191"/>
-      <c r="O40" s="247"/>
-      <c r="P40" s="191"/>
-      <c r="Q40" s="233"/>
-      <c r="R40" s="191"/>
-      <c r="S40" s="233"/>
-      <c r="T40" s="191"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="159"/>
+      <c r="K40" s="160"/>
+      <c r="L40" s="160"/>
+      <c r="M40" s="254"/>
+      <c r="N40" s="153"/>
+      <c r="O40" s="229"/>
+      <c r="P40" s="153"/>
+      <c r="Q40" s="231"/>
+      <c r="R40" s="153"/>
+      <c r="S40" s="231"/>
+      <c r="T40" s="153"/>
       <c r="U40" s="38"/>
       <c r="V40" s="43"/>
       <c r="W40" s="44"/>
@@ -5192,19 +5211,19 @@
       <c r="J41" s="57"/>
       <c r="K41" s="57"/>
       <c r="L41" s="57"/>
-      <c r="M41" s="254" t="s">
+      <c r="M41" s="285" t="s">
         <v>32</v>
       </c>
-      <c r="N41" s="155"/>
-      <c r="O41" s="155"/>
-      <c r="P41" s="155"/>
-      <c r="Q41" s="155"/>
-      <c r="R41" s="155"/>
-      <c r="S41" s="155"/>
-      <c r="T41" s="155"/>
-      <c r="U41" s="155"/>
-      <c r="V41" s="155"/>
-      <c r="W41" s="155"/>
+      <c r="N41" s="285"/>
+      <c r="O41" s="285"/>
+      <c r="P41" s="285"/>
+      <c r="Q41" s="285"/>
+      <c r="R41" s="285"/>
+      <c r="S41" s="285"/>
+      <c r="T41" s="285"/>
+      <c r="U41" s="285"/>
+      <c r="V41" s="285"/>
+      <c r="W41" s="285"/>
     </row>
     <row r="42" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
@@ -5214,22 +5233,22 @@
       <c r="E42" s="2"/>
       <c r="F42" s="45"/>
       <c r="G42" s="46"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="123"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
       <c r="K42" s="59"/>
       <c r="L42" s="56"/>
-      <c r="M42" s="255"/>
-      <c r="N42" s="255"/>
-      <c r="O42" s="255"/>
-      <c r="P42" s="255"/>
-      <c r="Q42" s="255"/>
-      <c r="R42" s="255"/>
-      <c r="S42" s="255"/>
-      <c r="T42" s="255"/>
-      <c r="U42" s="255"/>
-      <c r="V42" s="255"/>
-      <c r="W42" s="255"/>
+      <c r="M42" s="194"/>
+      <c r="N42" s="194"/>
+      <c r="O42" s="194"/>
+      <c r="P42" s="194"/>
+      <c r="Q42" s="194"/>
+      <c r="R42" s="194"/>
+      <c r="S42" s="194"/>
+      <c r="T42" s="194"/>
+      <c r="U42" s="194"/>
+      <c r="V42" s="194"/>
+      <c r="W42" s="194"/>
     </row>
     <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -5239,24 +5258,24 @@
       <c r="E43" s="2"/>
       <c r="F43" s="45"/>
       <c r="G43" s="46"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="123"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
       <c r="K43" s="59"/>
       <c r="L43" s="56"/>
-      <c r="M43" s="218" t="s">
+      <c r="M43" s="248" t="s">
         <v>33</v>
       </c>
-      <c r="N43" s="194"/>
-      <c r="O43" s="194"/>
-      <c r="P43" s="194"/>
-      <c r="Q43" s="194"/>
-      <c r="R43" s="194"/>
-      <c r="S43" s="194"/>
-      <c r="T43" s="194"/>
-      <c r="U43" s="219"/>
-      <c r="V43" s="258"/>
-      <c r="W43" s="219"/>
+      <c r="N43" s="219"/>
+      <c r="O43" s="219"/>
+      <c r="P43" s="219"/>
+      <c r="Q43" s="219"/>
+      <c r="R43" s="219"/>
+      <c r="S43" s="219"/>
+      <c r="T43" s="219"/>
+      <c r="U43" s="201"/>
+      <c r="V43" s="200"/>
+      <c r="W43" s="201"/>
     </row>
     <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
@@ -5266,24 +5285,24 @@
       <c r="E44" s="2"/>
       <c r="F44" s="45"/>
       <c r="G44" s="46"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="123"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
       <c r="K44" s="59"/>
       <c r="L44" s="56"/>
-      <c r="M44" s="225" t="s">
+      <c r="M44" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="N44" s="162"/>
-      <c r="O44" s="162"/>
-      <c r="P44" s="162"/>
-      <c r="Q44" s="162"/>
-      <c r="R44" s="162"/>
-      <c r="S44" s="162"/>
-      <c r="T44" s="162"/>
-      <c r="U44" s="226"/>
-      <c r="V44" s="256"/>
-      <c r="W44" s="226"/>
+      <c r="N44" s="158"/>
+      <c r="O44" s="158"/>
+      <c r="P44" s="158"/>
+      <c r="Q44" s="158"/>
+      <c r="R44" s="158"/>
+      <c r="S44" s="158"/>
+      <c r="T44" s="158"/>
+      <c r="U44" s="196"/>
+      <c r="V44" s="195"/>
+      <c r="W44" s="196"/>
     </row>
     <row r="45" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
@@ -5293,24 +5312,24 @@
       <c r="E45" s="2"/>
       <c r="F45" s="45"/>
       <c r="G45" s="46"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
       <c r="K45" s="56"/>
       <c r="L45" s="56"/>
-      <c r="M45" s="249" t="s">
+      <c r="M45" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="N45" s="198"/>
-      <c r="O45" s="198"/>
-      <c r="P45" s="198"/>
-      <c r="Q45" s="198"/>
-      <c r="R45" s="198"/>
-      <c r="S45" s="198"/>
-      <c r="T45" s="198"/>
-      <c r="U45" s="173"/>
-      <c r="V45" s="172"/>
-      <c r="W45" s="173"/>
+      <c r="N45" s="178"/>
+      <c r="O45" s="178"/>
+      <c r="P45" s="178"/>
+      <c r="Q45" s="178"/>
+      <c r="R45" s="178"/>
+      <c r="S45" s="178"/>
+      <c r="T45" s="178"/>
+      <c r="U45" s="234"/>
+      <c r="V45" s="276"/>
+      <c r="W45" s="234"/>
     </row>
     <row r="46" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
@@ -5325,19 +5344,19 @@
       <c r="J46" s="57"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
-      <c r="M46" s="259" t="s">
+      <c r="M46" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="N46" s="231"/>
-      <c r="O46" s="231"/>
-      <c r="P46" s="231"/>
-      <c r="Q46" s="231"/>
-      <c r="R46" s="231"/>
-      <c r="S46" s="231"/>
-      <c r="T46" s="231"/>
-      <c r="U46" s="231"/>
-      <c r="V46" s="231"/>
-      <c r="W46" s="231"/>
+      <c r="N46" s="203"/>
+      <c r="O46" s="203"/>
+      <c r="P46" s="203"/>
+      <c r="Q46" s="203"/>
+      <c r="R46" s="203"/>
+      <c r="S46" s="203"/>
+      <c r="T46" s="203"/>
+      <c r="U46" s="203"/>
+      <c r="V46" s="203"/>
+      <c r="W46" s="203"/>
     </row>
     <row r="47" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
@@ -5352,17 +5371,17 @@
       <c r="J47" s="57"/>
       <c r="K47" s="57"/>
       <c r="L47" s="57"/>
-      <c r="M47" s="155"/>
-      <c r="N47" s="155"/>
-      <c r="O47" s="155"/>
-      <c r="P47" s="155"/>
-      <c r="Q47" s="155"/>
-      <c r="R47" s="155"/>
-      <c r="S47" s="155"/>
-      <c r="T47" s="155"/>
-      <c r="U47" s="155"/>
-      <c r="V47" s="155"/>
-      <c r="W47" s="155"/>
+      <c r="M47" s="160"/>
+      <c r="N47" s="160"/>
+      <c r="O47" s="160"/>
+      <c r="P47" s="160"/>
+      <c r="Q47" s="160"/>
+      <c r="R47" s="160"/>
+      <c r="S47" s="160"/>
+      <c r="T47" s="160"/>
+      <c r="U47" s="160"/>
+      <c r="V47" s="160"/>
+      <c r="W47" s="160"/>
     </row>
     <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
@@ -5374,19 +5393,19 @@
       <c r="G48" s="46"/>
       <c r="H48" s="57"/>
       <c r="I48" s="57"/>
-      <c r="M48" s="238" t="s">
+      <c r="M48" s="221" t="s">
         <v>37</v>
       </c>
-      <c r="N48" s="194"/>
-      <c r="O48" s="194"/>
-      <c r="P48" s="194"/>
-      <c r="Q48" s="195"/>
-      <c r="R48" s="273"/>
-      <c r="S48" s="195"/>
-      <c r="T48" s="282"/>
-      <c r="U48" s="195"/>
-      <c r="V48" s="280"/>
-      <c r="W48" s="195"/>
+      <c r="N48" s="219"/>
+      <c r="O48" s="219"/>
+      <c r="P48" s="219"/>
+      <c r="Q48" s="163"/>
+      <c r="R48" s="185"/>
+      <c r="S48" s="163"/>
+      <c r="T48" s="165"/>
+      <c r="U48" s="163"/>
+      <c r="V48" s="162"/>
+      <c r="W48" s="163"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
@@ -5398,19 +5417,19 @@
       <c r="G49" s="46"/>
       <c r="H49" s="60"/>
       <c r="I49" s="60"/>
-      <c r="M49" s="161" t="s">
+      <c r="M49" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="N49" s="162"/>
-      <c r="O49" s="162"/>
-      <c r="P49" s="162"/>
-      <c r="Q49" s="160"/>
-      <c r="R49" s="202"/>
-      <c r="S49" s="160"/>
-      <c r="T49" s="277"/>
-      <c r="U49" s="160"/>
-      <c r="V49" s="211"/>
-      <c r="W49" s="160"/>
+      <c r="N49" s="158"/>
+      <c r="O49" s="158"/>
+      <c r="P49" s="158"/>
+      <c r="Q49" s="155"/>
+      <c r="R49" s="252"/>
+      <c r="S49" s="155"/>
+      <c r="T49" s="154"/>
+      <c r="U49" s="155"/>
+      <c r="V49" s="258"/>
+      <c r="W49" s="155"/>
     </row>
     <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
@@ -5420,21 +5439,21 @@
       <c r="E50" s="2"/>
       <c r="F50" s="45"/>
       <c r="G50" s="46"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="M50" s="161" t="s">
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
+      <c r="M50" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="N50" s="162"/>
-      <c r="O50" s="162"/>
-      <c r="P50" s="162"/>
-      <c r="Q50" s="160"/>
-      <c r="R50" s="174"/>
-      <c r="S50" s="160"/>
-      <c r="T50" s="250"/>
-      <c r="U50" s="160"/>
-      <c r="V50" s="235"/>
-      <c r="W50" s="160"/>
+      <c r="N50" s="158"/>
+      <c r="O50" s="158"/>
+      <c r="P50" s="158"/>
+      <c r="Q50" s="155"/>
+      <c r="R50" s="277"/>
+      <c r="S50" s="155"/>
+      <c r="T50" s="235"/>
+      <c r="U50" s="155"/>
+      <c r="V50" s="230"/>
+      <c r="W50" s="155"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
@@ -5445,23 +5464,23 @@
       <c r="F51" s="45"/>
       <c r="G51" s="46"/>
       <c r="H51" s="61"/>
-      <c r="I51" s="125"/>
+      <c r="I51" s="124"/>
       <c r="J51" s="56"/>
       <c r="K51" s="17"/>
       <c r="L51" s="16"/>
-      <c r="M51" s="161" t="s">
+      <c r="M51" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="N51" s="162"/>
-      <c r="O51" s="162"/>
-      <c r="P51" s="162"/>
-      <c r="Q51" s="160"/>
-      <c r="R51" s="246"/>
-      <c r="S51" s="160"/>
-      <c r="T51" s="203"/>
-      <c r="U51" s="160"/>
-      <c r="V51" s="235"/>
-      <c r="W51" s="160"/>
+      <c r="N51" s="158"/>
+      <c r="O51" s="158"/>
+      <c r="P51" s="158"/>
+      <c r="Q51" s="155"/>
+      <c r="R51" s="227"/>
+      <c r="S51" s="155"/>
+      <c r="T51" s="228"/>
+      <c r="U51" s="155"/>
+      <c r="V51" s="230"/>
+      <c r="W51" s="155"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
@@ -5473,24 +5492,24 @@
       <c r="G52" s="46"/>
       <c r="H52" s="57"/>
       <c r="I52" s="57"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="178" t="s">
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="N52" s="162"/>
-      <c r="O52" s="162"/>
-      <c r="P52" s="162"/>
-      <c r="Q52" s="160"/>
-      <c r="R52" s="221"/>
-      <c r="S52" s="160"/>
-      <c r="T52" s="189" t="s">
+      <c r="N52" s="158"/>
+      <c r="O52" s="158"/>
+      <c r="P52" s="158"/>
+      <c r="Q52" s="155"/>
+      <c r="R52" s="236"/>
+      <c r="S52" s="155"/>
+      <c r="T52" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="U52" s="160"/>
-      <c r="V52" s="279"/>
-      <c r="W52" s="160"/>
+      <c r="U52" s="155"/>
+      <c r="V52" s="161"/>
+      <c r="W52" s="155"/>
     </row>
     <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
@@ -5500,24 +5519,24 @@
       <c r="E53" s="2"/>
       <c r="F53" s="45"/>
       <c r="G53" s="46"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="124"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="123"/>
       <c r="K53"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="178" t="s">
+      <c r="L53" s="86"/>
+      <c r="M53" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="N53" s="162"/>
-      <c r="O53" s="162"/>
-      <c r="P53" s="162"/>
-      <c r="Q53" s="160"/>
-      <c r="R53" s="212"/>
-      <c r="S53" s="160"/>
-      <c r="T53" s="237"/>
-      <c r="U53" s="160"/>
-      <c r="V53" s="234"/>
-      <c r="W53" s="160"/>
+      <c r="N53" s="158"/>
+      <c r="O53" s="158"/>
+      <c r="P53" s="158"/>
+      <c r="Q53" s="155"/>
+      <c r="R53" s="259"/>
+      <c r="S53" s="155"/>
+      <c r="T53" s="220"/>
+      <c r="U53" s="155"/>
+      <c r="V53" s="232"/>
+      <c r="W53" s="155"/>
     </row>
     <row r="54" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
@@ -5530,23 +5549,23 @@
       <c r="H54" s="60"/>
       <c r="I54" s="60"/>
       <c r="J54" s="60"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="122"/>
-      <c r="M54" s="161" t="s">
+      <c r="K54" s="125"/>
+      <c r="L54" s="121"/>
+      <c r="M54" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="N54" s="162"/>
-      <c r="O54" s="162"/>
-      <c r="P54" s="162"/>
-      <c r="Q54" s="160"/>
-      <c r="R54" s="223"/>
-      <c r="S54" s="160"/>
-      <c r="T54" s="203" t="s">
+      <c r="N54" s="158"/>
+      <c r="O54" s="158"/>
+      <c r="P54" s="158"/>
+      <c r="Q54" s="155"/>
+      <c r="R54" s="237"/>
+      <c r="S54" s="155"/>
+      <c r="T54" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="U54" s="160"/>
-      <c r="V54" s="175"/>
-      <c r="W54" s="160"/>
+      <c r="U54" s="155"/>
+      <c r="V54" s="278"/>
+      <c r="W54" s="155"/>
     </row>
     <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
@@ -5556,26 +5575,26 @@
       <c r="E55" s="2"/>
       <c r="F55" s="45"/>
       <c r="G55" s="46"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="123"/>
-      <c r="J55" s="123"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
       <c r="K55" s="16"/>
-      <c r="L55" s="127"/>
-      <c r="M55" s="161" t="s">
+      <c r="L55" s="126"/>
+      <c r="M55" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="N55" s="162"/>
-      <c r="O55" s="162"/>
-      <c r="P55" s="162"/>
-      <c r="Q55" s="160"/>
-      <c r="R55" s="257"/>
-      <c r="S55" s="160"/>
-      <c r="T55" s="203" t="s">
+      <c r="N55" s="158"/>
+      <c r="O55" s="158"/>
+      <c r="P55" s="158"/>
+      <c r="Q55" s="155"/>
+      <c r="R55" s="198"/>
+      <c r="S55" s="155"/>
+      <c r="T55" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="U55" s="160"/>
-      <c r="V55" s="281"/>
-      <c r="W55" s="160"/>
+      <c r="U55" s="155"/>
+      <c r="V55" s="164"/>
+      <c r="W55" s="155"/>
     </row>
     <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
@@ -5590,19 +5609,19 @@
       <c r="J56" s="62"/>
       <c r="K56" s="56"/>
       <c r="L56" s="63"/>
-      <c r="M56" s="178" t="s">
+      <c r="M56" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="N56" s="162"/>
-      <c r="O56" s="162"/>
-      <c r="P56" s="162"/>
-      <c r="Q56" s="160"/>
-      <c r="R56" s="196"/>
-      <c r="S56" s="160"/>
-      <c r="T56" s="196"/>
-      <c r="U56" s="160"/>
-      <c r="V56" s="196"/>
-      <c r="W56" s="160"/>
+      <c r="N56" s="158"/>
+      <c r="O56" s="158"/>
+      <c r="P56" s="158"/>
+      <c r="Q56" s="155"/>
+      <c r="R56" s="239"/>
+      <c r="S56" s="155"/>
+      <c r="T56" s="239"/>
+      <c r="U56" s="155"/>
+      <c r="V56" s="239"/>
+      <c r="W56" s="155"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
@@ -5613,23 +5632,23 @@
       <c r="F57" s="45"/>
       <c r="G57" s="46"/>
       <c r="H57" s="56"/>
-      <c r="I57" s="122"/>
+      <c r="I57" s="121"/>
       <c r="J57" s="56"/>
       <c r="K57" s="56"/>
       <c r="L57" s="64"/>
-      <c r="M57" s="178" t="s">
+      <c r="M57" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="N57" s="162"/>
-      <c r="O57" s="162"/>
-      <c r="P57" s="162"/>
-      <c r="Q57" s="160"/>
-      <c r="R57" s="196"/>
-      <c r="S57" s="160"/>
-      <c r="T57" s="196"/>
-      <c r="U57" s="160"/>
-      <c r="V57" s="196"/>
-      <c r="W57" s="160"/>
+      <c r="N57" s="158"/>
+      <c r="O57" s="158"/>
+      <c r="P57" s="158"/>
+      <c r="Q57" s="155"/>
+      <c r="R57" s="239"/>
+      <c r="S57" s="155"/>
+      <c r="T57" s="239"/>
+      <c r="U57" s="155"/>
+      <c r="V57" s="239"/>
+      <c r="W57" s="155"/>
     </row>
     <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
@@ -5644,21 +5663,21 @@
       <c r="J58" s="56"/>
       <c r="K58" s="56"/>
       <c r="L58" s="56"/>
-      <c r="M58" s="178" t="s">
+      <c r="M58" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="N58" s="162"/>
-      <c r="O58" s="162"/>
-      <c r="P58" s="162"/>
-      <c r="Q58" s="160"/>
-      <c r="R58" s="227"/>
-      <c r="S58" s="160"/>
-      <c r="T58" s="196" t="s">
+      <c r="N58" s="158"/>
+      <c r="O58" s="158"/>
+      <c r="P58" s="158"/>
+      <c r="Q58" s="155"/>
+      <c r="R58" s="241"/>
+      <c r="S58" s="155"/>
+      <c r="T58" s="239" t="s">
         <v>23</v>
       </c>
-      <c r="U58" s="160"/>
-      <c r="V58" s="278"/>
-      <c r="W58" s="160"/>
+      <c r="U58" s="155"/>
+      <c r="V58" s="156"/>
+      <c r="W58" s="155"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
@@ -5673,19 +5692,19 @@
       <c r="J59" s="66"/>
       <c r="K59" s="66"/>
       <c r="L59" s="66"/>
-      <c r="M59" s="161" t="s">
+      <c r="M59" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="N59" s="162"/>
-      <c r="O59" s="162"/>
-      <c r="P59" s="162"/>
-      <c r="Q59" s="160"/>
-      <c r="R59" s="265"/>
-      <c r="S59" s="160"/>
-      <c r="T59" s="196"/>
-      <c r="U59" s="160"/>
-      <c r="V59" s="159"/>
-      <c r="W59" s="160"/>
+      <c r="N59" s="158"/>
+      <c r="O59" s="158"/>
+      <c r="P59" s="158"/>
+      <c r="Q59" s="155"/>
+      <c r="R59" s="182"/>
+      <c r="S59" s="155"/>
+      <c r="T59" s="239"/>
+      <c r="U59" s="155"/>
+      <c r="V59" s="274"/>
+      <c r="W59" s="155"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
@@ -5700,77 +5719,77 @@
       <c r="J60" s="66"/>
       <c r="K60" s="66"/>
       <c r="L60" s="66"/>
-      <c r="M60" s="161" t="s">
+      <c r="M60" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="N60" s="162"/>
-      <c r="O60" s="162"/>
-      <c r="P60" s="162"/>
-      <c r="Q60" s="160"/>
-      <c r="R60" s="265"/>
-      <c r="S60" s="160"/>
-      <c r="T60" s="196"/>
-      <c r="U60" s="160"/>
-      <c r="V60" s="159"/>
-      <c r="W60" s="160"/>
+      <c r="N60" s="158"/>
+      <c r="O60" s="158"/>
+      <c r="P60" s="158"/>
+      <c r="Q60" s="155"/>
+      <c r="R60" s="182"/>
+      <c r="S60" s="155"/>
+      <c r="T60" s="239"/>
+      <c r="U60" s="155"/>
+      <c r="V60" s="274"/>
+      <c r="W60" s="155"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="8"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="139"/>
-      <c r="G61" s="135"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="138"/>
+      <c r="G61" s="134"/>
       <c r="H61" s="56"/>
-      <c r="M61" s="161" t="s">
+      <c r="M61" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="N61" s="162"/>
-      <c r="O61" s="162"/>
-      <c r="P61" s="162"/>
-      <c r="Q61" s="160"/>
-      <c r="R61" s="266"/>
-      <c r="S61" s="160"/>
-      <c r="T61" s="224"/>
-      <c r="U61" s="160"/>
-      <c r="V61" s="183"/>
-      <c r="W61" s="160"/>
+      <c r="N61" s="158"/>
+      <c r="O61" s="158"/>
+      <c r="P61" s="158"/>
+      <c r="Q61" s="155"/>
+      <c r="R61" s="211"/>
+      <c r="S61" s="155"/>
+      <c r="T61" s="238"/>
+      <c r="U61" s="155"/>
+      <c r="V61" s="280"/>
+      <c r="W61" s="155"/>
     </row>
     <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="128"/>
+      <c r="A62" s="127"/>
       <c r="B62" s="8"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="136"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="135"/>
       <c r="H62" s="56"/>
-      <c r="M62" s="215" t="s">
+      <c r="M62" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="N62" s="198"/>
-      <c r="O62" s="198"/>
-      <c r="P62" s="198"/>
-      <c r="Q62" s="191"/>
-      <c r="R62" s="213"/>
-      <c r="S62" s="191"/>
-      <c r="T62" s="252"/>
-      <c r="U62" s="191"/>
-      <c r="V62" s="228"/>
-      <c r="W62" s="191"/>
+      <c r="N62" s="178"/>
+      <c r="O62" s="178"/>
+      <c r="P62" s="178"/>
+      <c r="Q62" s="153"/>
+      <c r="R62" s="260"/>
+      <c r="S62" s="153"/>
+      <c r="T62" s="190"/>
+      <c r="U62" s="153"/>
+      <c r="V62" s="268"/>
+      <c r="W62" s="153"/>
     </row>
     <row r="63" spans="1:23" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63" s="8"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="134"/>
+      <c r="E63" s="133"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="137"/>
+      <c r="G63" s="136"/>
       <c r="H63" s="5"/>
       <c r="K63"/>
-      <c r="L63" s="142" t="s">
+      <c r="L63" s="141" t="s">
         <v>65</v>
       </c>
       <c r="M63" s="35"/>
@@ -5792,405 +5811,517 @@
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64" s="138"/>
+      <c r="E64" s="137"/>
       <c r="F64"/>
-      <c r="G64" s="138"/>
+      <c r="G64" s="137"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
-      <c r="L64" s="201" t="s">
+      <c r="L64" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="M64" s="194"/>
-      <c r="N64" s="194"/>
-      <c r="O64" s="194"/>
-      <c r="P64" s="194"/>
-      <c r="Q64" s="194"/>
-      <c r="R64" s="194"/>
-      <c r="S64" s="194"/>
-      <c r="T64" s="194"/>
-      <c r="U64" s="194"/>
-      <c r="V64" s="194"/>
-      <c r="W64" s="195"/>
+      <c r="M64" s="219"/>
+      <c r="N64" s="219"/>
+      <c r="O64" s="219"/>
+      <c r="P64" s="219"/>
+      <c r="Q64" s="219"/>
+      <c r="R64" s="219"/>
+      <c r="S64" s="219"/>
+      <c r="T64" s="219"/>
+      <c r="U64" s="219"/>
+      <c r="V64" s="219"/>
+      <c r="W64" s="163"/>
     </row>
     <row r="65" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65" s="168" t="s">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="291" t="s">
         <v>55</v>
       </c>
-      <c r="M65" s="170" t="s">
+      <c r="M65" s="286" t="s">
         <v>6</v>
       </c>
-      <c r="N65" s="170" t="s">
+      <c r="N65" s="286" t="s">
         <v>7</v>
       </c>
-      <c r="O65" s="170" t="s">
+      <c r="O65" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="P65" s="170" t="s">
+      <c r="P65" s="288" t="s">
         <v>11</v>
       </c>
-      <c r="Q65" s="162"/>
-      <c r="R65" s="162"/>
-      <c r="S65" s="160"/>
-      <c r="T65" s="170" t="s">
+      <c r="Q65" s="289"/>
+      <c r="R65" s="289"/>
+      <c r="S65" s="290"/>
+      <c r="T65" s="288" t="s">
         <v>56</v>
       </c>
-      <c r="U65" s="160"/>
-      <c r="V65" s="170" t="s">
+      <c r="U65" s="290"/>
+      <c r="V65" s="288" t="s">
         <v>57</v>
       </c>
-      <c r="W65" s="160"/>
+      <c r="W65" s="290"/>
+      <c r="X65" s="14"/>
     </row>
     <row r="66" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66" s="169"/>
-      <c r="M66" s="171"/>
-      <c r="N66" s="171"/>
-      <c r="O66" s="171"/>
-      <c r="P66" s="217" t="s">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="292"/>
+      <c r="M66" s="287"/>
+      <c r="N66" s="287"/>
+      <c r="O66" s="287"/>
+      <c r="P66" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="Q66" s="160"/>
-      <c r="R66" s="170" t="s">
+      <c r="Q66" s="155"/>
+      <c r="R66" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="S66" s="160"/>
-      <c r="T66" s="170" t="s">
+      <c r="S66" s="155"/>
+      <c r="T66" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="U66" s="160"/>
-      <c r="V66" s="170" t="s">
+      <c r="U66" s="155"/>
+      <c r="V66" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="W66" s="160"/>
+      <c r="W66" s="155"/>
+      <c r="X66" s="14"/>
     </row>
     <row r="67" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
       <c r="L67" s="40"/>
-      <c r="M67" s="85"/>
-      <c r="N67" s="85"/>
+      <c r="M67" s="149"/>
+      <c r="N67" s="149"/>
       <c r="O67" s="39"/>
-      <c r="P67" s="190"/>
-      <c r="Q67" s="191"/>
-      <c r="R67" s="190"/>
-      <c r="S67" s="191"/>
-      <c r="T67" s="190"/>
-      <c r="U67" s="191"/>
-      <c r="V67" s="190"/>
-      <c r="W67" s="191"/>
+      <c r="P67" s="152"/>
+      <c r="Q67" s="153"/>
+      <c r="R67" s="152"/>
+      <c r="S67" s="153"/>
+      <c r="T67" s="152"/>
+      <c r="U67" s="153"/>
+      <c r="V67" s="152"/>
+      <c r="W67" s="153"/>
+      <c r="X67" s="14"/>
     </row>
     <row r="68" spans="1:24" ht="12.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="N68" s="155"/>
-      <c r="O68" s="155"/>
-      <c r="P68" s="155"/>
-      <c r="Q68" s="155"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="148"/>
+      <c r="M68" s="148"/>
+      <c r="N68" s="160"/>
+      <c r="O68" s="160"/>
+      <c r="P68" s="160"/>
+      <c r="Q68" s="160"/>
+      <c r="R68" s="148"/>
+      <c r="S68" s="148"/>
+      <c r="T68" s="148"/>
+      <c r="U68" s="148"/>
+      <c r="V68" s="148"/>
+      <c r="W68" s="148"/>
+      <c r="X68" s="14"/>
     </row>
     <row r="69" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69" s="201" t="s">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="M69" s="195"/>
-      <c r="N69" s="193" t="s">
+      <c r="M69" s="163"/>
+      <c r="N69" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="O69" s="195"/>
-      <c r="P69" s="193" t="s">
+      <c r="O69" s="163"/>
+      <c r="P69" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="Q69" s="195"/>
-      <c r="R69" s="269"/>
-      <c r="S69" s="155"/>
+      <c r="Q69" s="163"/>
+      <c r="R69" s="174"/>
+      <c r="S69" s="160"/>
+      <c r="T69" s="148"/>
+      <c r="U69" s="148"/>
+      <c r="V69" s="148"/>
+      <c r="W69" s="148"/>
+      <c r="X69" s="14"/>
     </row>
     <row r="70" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70" s="285" t="s">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="M70" s="191"/>
-      <c r="N70" s="283">
+      <c r="M70" s="153"/>
+      <c r="N70" s="166">
         <f>L67*P67/1000</f>
         <v>0</v>
       </c>
-      <c r="O70" s="191"/>
-      <c r="P70" s="283">
+      <c r="O70" s="153"/>
+      <c r="P70" s="166">
         <f>L70+N70</f>
         <v>1</v>
       </c>
-      <c r="Q70" s="191"/>
-      <c r="R70" s="284"/>
-      <c r="S70" s="155"/>
+      <c r="Q70" s="153"/>
+      <c r="R70" s="168"/>
+      <c r="S70" s="160"/>
+      <c r="T70" s="148"/>
+      <c r="U70" s="148"/>
+      <c r="V70" s="148"/>
+      <c r="W70" s="148"/>
+      <c r="X70" s="14"/>
     </row>
     <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71" s="148"/>
-      <c r="M71" s="148"/>
-      <c r="N71" s="148"/>
-      <c r="O71" s="148"/>
-      <c r="P71" s="148"/>
-      <c r="Q71" s="148"/>
-      <c r="R71" s="148"/>
-      <c r="S71" s="149"/>
-      <c r="T71" s="149"/>
-      <c r="U71" s="149"/>
-      <c r="V71" s="149"/>
-      <c r="W71" s="149"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="146"/>
+      <c r="M71" s="146"/>
+      <c r="N71" s="146"/>
+      <c r="O71" s="146"/>
+      <c r="P71" s="146"/>
+      <c r="Q71" s="146"/>
+      <c r="R71" s="146"/>
+      <c r="S71" s="147"/>
+      <c r="T71" s="147"/>
+      <c r="U71" s="147"/>
+      <c r="V71" s="147"/>
+      <c r="W71" s="147"/>
+      <c r="X71" s="14"/>
     </row>
     <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72" s="148"/>
-      <c r="M72" s="148"/>
-      <c r="N72" s="148"/>
-      <c r="O72" s="148"/>
-      <c r="P72" s="148"/>
-      <c r="Q72" s="148"/>
-      <c r="R72" s="148"/>
-      <c r="S72" s="149"/>
-      <c r="T72" s="149"/>
-      <c r="U72" s="149"/>
-      <c r="V72" s="149"/>
-      <c r="W72" s="149"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="146"/>
+      <c r="M72" s="146"/>
+      <c r="N72" s="146"/>
+      <c r="O72" s="146"/>
+      <c r="P72" s="146"/>
+      <c r="Q72" s="146"/>
+      <c r="R72" s="146"/>
+      <c r="S72" s="147"/>
+      <c r="T72" s="147"/>
+      <c r="U72" s="147"/>
+      <c r="V72" s="147"/>
+      <c r="W72" s="147"/>
+      <c r="X72" s="14"/>
     </row>
     <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="L73" s="286" t="s">
+      <c r="B73" s="148"/>
+      <c r="C73" s="148"/>
+      <c r="D73" s="148"/>
+      <c r="E73" s="148"/>
+      <c r="F73" s="148"/>
+      <c r="G73" s="148"/>
+      <c r="H73" s="148"/>
+      <c r="I73" s="148"/>
+      <c r="J73" s="148"/>
+      <c r="K73" s="148"/>
+      <c r="L73" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="M73" s="286"/>
-      <c r="N73" s="286"/>
-      <c r="O73" s="286"/>
-      <c r="P73" s="286"/>
-      <c r="Q73" s="286"/>
-      <c r="R73" s="286"/>
-      <c r="S73" s="286"/>
-      <c r="T73" s="286"/>
-      <c r="U73" s="286"/>
-      <c r="V73" s="286"/>
-      <c r="W73" s="286"/>
+      <c r="M73" s="170"/>
+      <c r="N73" s="170"/>
+      <c r="O73" s="170"/>
+      <c r="P73" s="170"/>
+      <c r="Q73" s="170"/>
+      <c r="R73" s="170"/>
+      <c r="S73" s="170"/>
+      <c r="T73" s="170"/>
+      <c r="U73" s="170"/>
+      <c r="V73" s="170"/>
+      <c r="W73" s="170"/>
+      <c r="X73" s="14"/>
     </row>
     <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="L74" s="286" t="s">
+      <c r="B74" s="148"/>
+      <c r="C74" s="148"/>
+      <c r="D74" s="148"/>
+      <c r="E74" s="148"/>
+      <c r="F74" s="148"/>
+      <c r="G74" s="148"/>
+      <c r="H74" s="148"/>
+      <c r="I74" s="148"/>
+      <c r="J74" s="148"/>
+      <c r="K74" s="148"/>
+      <c r="L74" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="M74" s="286"/>
-      <c r="N74" s="286"/>
-      <c r="O74" s="286"/>
-      <c r="P74" s="286"/>
-      <c r="Q74" s="286"/>
-      <c r="R74" s="286"/>
-      <c r="S74" s="286"/>
-      <c r="T74" s="286"/>
-      <c r="U74" s="286"/>
-      <c r="V74" s="286"/>
-      <c r="W74" s="286"/>
+      <c r="M74" s="170"/>
+      <c r="N74" s="170"/>
+      <c r="O74" s="170"/>
+      <c r="P74" s="170"/>
+      <c r="Q74" s="170"/>
+      <c r="R74" s="170"/>
+      <c r="S74" s="170"/>
+      <c r="T74" s="170"/>
+      <c r="U74" s="170"/>
+      <c r="V74" s="170"/>
+      <c r="W74" s="170"/>
+      <c r="X74" s="14"/>
     </row>
     <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="L75" s="287" t="s">
+      <c r="B75" s="148"/>
+      <c r="C75" s="148"/>
+      <c r="D75" s="148"/>
+      <c r="E75" s="148"/>
+      <c r="F75" s="148"/>
+      <c r="G75" s="148"/>
+      <c r="H75" s="148"/>
+      <c r="I75" s="148"/>
+      <c r="J75" s="148"/>
+      <c r="K75" s="148"/>
+      <c r="L75" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="M75" s="287"/>
-      <c r="N75" s="287"/>
-      <c r="O75" s="287"/>
-      <c r="P75" s="287"/>
-      <c r="Q75" s="287"/>
-      <c r="R75" s="287"/>
-      <c r="S75" s="287"/>
-      <c r="T75" s="287"/>
-      <c r="U75" s="287"/>
-      <c r="V75" s="287"/>
-      <c r="W75" s="287"/>
-    </row>
-    <row r="76" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="L76" s="141" t="s">
+      <c r="M75" s="171"/>
+      <c r="N75" s="171"/>
+      <c r="O75" s="171"/>
+      <c r="P75" s="171"/>
+      <c r="Q75" s="171"/>
+      <c r="R75" s="171"/>
+      <c r="S75" s="171"/>
+      <c r="T75" s="171"/>
+      <c r="U75" s="171"/>
+      <c r="V75" s="171"/>
+      <c r="W75" s="171"/>
+      <c r="X75" s="14"/>
+    </row>
+    <row r="76" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="148"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
+      <c r="K76" s="148"/>
+      <c r="L76" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="O76" s="144"/>
-      <c r="P76" s="143"/>
-      <c r="Q76" s="275" t="s">
+      <c r="M76" s="148"/>
+      <c r="N76" s="148"/>
+      <c r="O76" s="142"/>
+      <c r="P76" s="148"/>
+      <c r="Q76" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="R76" s="275"/>
-      <c r="S76" s="275"/>
-      <c r="T76" s="145"/>
-      <c r="U76" s="146"/>
-      <c r="V76" s="145"/>
-      <c r="W76" s="145"/>
-      <c r="X76" s="143"/>
+      <c r="R76" s="150"/>
+      <c r="S76" s="150"/>
+      <c r="T76" s="143"/>
+      <c r="U76" s="144"/>
+      <c r="V76" s="143"/>
+      <c r="W76" s="143"/>
+      <c r="X76" s="148"/>
     </row>
     <row r="77" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="L77" s="141" t="s">
+      <c r="B77" s="148"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="148"/>
+      <c r="E77" s="148"/>
+      <c r="F77" s="148"/>
+      <c r="G77" s="148"/>
+      <c r="H77" s="148"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="148"/>
+      <c r="K77" s="148"/>
+      <c r="L77" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="O77" s="143"/>
-      <c r="P77" s="143"/>
-      <c r="Q77" s="275"/>
-      <c r="R77" s="275"/>
-      <c r="S77" s="275"/>
-      <c r="T77" s="145"/>
-      <c r="U77" s="147"/>
-      <c r="V77" s="275"/>
-      <c r="W77" s="275"/>
-      <c r="X77" s="143"/>
+      <c r="M77" s="148"/>
+      <c r="N77" s="148"/>
+      <c r="O77" s="148"/>
+      <c r="P77" s="148"/>
+      <c r="Q77" s="150"/>
+      <c r="R77" s="150"/>
+      <c r="S77" s="150"/>
+      <c r="T77" s="143"/>
+      <c r="U77" s="145"/>
+      <c r="V77" s="150"/>
+      <c r="W77" s="150"/>
+      <c r="X77" s="148"/>
     </row>
     <row r="78" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L78" s="141" t="s">
+      <c r="B78" s="148"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="148"/>
+      <c r="E78" s="148"/>
+      <c r="F78" s="148"/>
+      <c r="G78" s="148"/>
+      <c r="H78" s="148"/>
+      <c r="I78" s="148"/>
+      <c r="J78" s="148"/>
+      <c r="K78" s="148"/>
+      <c r="L78" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="O78" s="143"/>
-      <c r="P78" s="143"/>
-      <c r="Q78" s="276"/>
-      <c r="R78" s="276"/>
-      <c r="S78" s="276"/>
-      <c r="T78" s="145"/>
-      <c r="U78" s="145"/>
-      <c r="V78" s="276"/>
-      <c r="W78" s="276"/>
+      <c r="M78" s="148"/>
+      <c r="N78" s="148"/>
+      <c r="O78" s="148"/>
+      <c r="P78" s="148"/>
+      <c r="Q78" s="151"/>
+      <c r="R78" s="151"/>
+      <c r="S78" s="151"/>
+      <c r="T78" s="143"/>
+      <c r="U78" s="143"/>
+      <c r="V78" s="151"/>
+      <c r="W78" s="151"/>
+      <c r="X78" s="14"/>
     </row>
     <row r="79" spans="1:24" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="L79" s="141" t="s">
+      <c r="B79" s="148"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="148"/>
+      <c r="E79" s="148"/>
+      <c r="F79" s="148"/>
+      <c r="G79" s="148"/>
+      <c r="H79" s="148"/>
+      <c r="I79" s="148"/>
+      <c r="J79" s="148"/>
+      <c r="K79" s="148"/>
+      <c r="L79" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="M79" s="150" t="s">
+      <c r="M79" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="N79" s="150" t="s">
+      <c r="N79" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="O79" s="150" t="s">
+      <c r="O79" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="P79" s="150" t="s">
+      <c r="P79" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="Q79" s="150" t="s">
+      <c r="Q79" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="R79" s="150" t="s">
+      <c r="R79" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="S79" s="150" t="s">
+      <c r="S79" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="T79" s="150" t="s">
+      <c r="T79" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="U79" s="150" t="s">
+      <c r="U79" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="V79" s="150" t="s">
+      <c r="V79" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="W79" s="150" t="s">
+      <c r="W79" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="X79" s="152"/>
+      <c r="X79" s="284"/>
     </row>
     <row r="80" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L80" s="141" t="s">
+      <c r="B80" s="148"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="148"/>
+      <c r="E80" s="148"/>
+      <c r="F80" s="148"/>
+      <c r="G80" s="148"/>
+      <c r="H80" s="148"/>
+      <c r="I80" s="148"/>
+      <c r="J80" s="148"/>
+      <c r="K80" s="148"/>
+      <c r="L80" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="M80" s="151"/>
-      <c r="N80" s="151"/>
-      <c r="O80" s="151"/>
-      <c r="P80" s="151"/>
-      <c r="Q80" s="151"/>
-      <c r="R80" s="151"/>
-      <c r="S80" s="151"/>
-      <c r="T80" s="151"/>
-      <c r="U80" s="151"/>
-      <c r="V80" s="151"/>
-      <c r="W80" s="151"/>
-      <c r="X80" s="152"/>
+      <c r="M80" s="283"/>
+      <c r="N80" s="283"/>
+      <c r="O80" s="283"/>
+      <c r="P80" s="283"/>
+      <c r="Q80" s="283"/>
+      <c r="R80" s="283"/>
+      <c r="S80" s="283"/>
+      <c r="T80" s="283"/>
+      <c r="U80" s="283"/>
+      <c r="V80" s="283"/>
+      <c r="W80" s="283"/>
+      <c r="X80" s="284"/>
     </row>
     <row r="81" spans="12:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="L81" s="141" t="s">
+      <c r="L81" s="140" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="82" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L82" s="141" t="s">
+      <c r="L82" s="140" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6199,48 +6330,163 @@
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="229">
-    <mergeCell ref="Q77:S78"/>
-    <mergeCell ref="V77:W78"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:W73"/>
-    <mergeCell ref="L74:W74"/>
-    <mergeCell ref="L75:W75"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="V79:V80"/>
+    <mergeCell ref="W79:W80"/>
+    <mergeCell ref="X79:X80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V27"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M4:W5"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="L64:W64"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="D6:E12"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="P65:S65"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="W27"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="U27"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S35:T35"/>
     <mergeCell ref="P8:W8"/>
     <mergeCell ref="T62:U62"/>
     <mergeCell ref="O32:P32"/>
@@ -6265,169 +6511,54 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="R14:R17"/>
     <mergeCell ref="M14:O17"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="U27"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="L69:M69"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="S40:T40"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q77:S78"/>
+    <mergeCell ref="V77:W78"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:W73"/>
+    <mergeCell ref="L74:W74"/>
+    <mergeCell ref="L75:W75"/>
+    <mergeCell ref="P69:Q69"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="W27"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="L64:W64"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M4:W5"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V27"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="D6:E12"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V79:V80"/>
-    <mergeCell ref="W79:W80"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="U79:U80"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047249" footer="0.19685039370078741"/>

--- a/property_excel/template_gnkt_bopz.xlsx
+++ b/property_excel/template_gnkt_bopz.xlsx
@@ -27,12 +27,12 @@
     <definedName name="пакер">СХЕМА!$U$19</definedName>
     <definedName name="раствор_глушения">СХЕМА!$R$52</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>СХЕМА СКВАЖИНЫ</t>
   </si>
@@ -243,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="32">
+  <numFmts count="30">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0&quot;м&quot;"/>
@@ -267,8 +267,6 @@
     <numFmt numFmtId="183" formatCode="0&quot;ая&quot;"/>
     <numFmt numFmtId="184" formatCode="0.0&quot; мг/дм3&quot;"/>
     <numFmt numFmtId="185" formatCode="General&quot; м3/сут&quot;"/>
-    <numFmt numFmtId="186" formatCode="@&quot;м&quot;"/>
-    <numFmt numFmtId="187" formatCode="General&quot; º/10м&quot;"/>
     <numFmt numFmtId="188" formatCode="0&quot; атм&quot;"/>
     <numFmt numFmtId="189" formatCode="General&quot; м3/т&quot;"/>
     <numFmt numFmtId="190" formatCode="0.0&quot;-&quot;"/>
@@ -2344,7 +2342,7 @@
     <xf numFmtId="0" fontId="32" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="34" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2751,306 +2749,158 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="39" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="174" fontId="42" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="25" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="39" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="185" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3059,61 +2909,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="189" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="25" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="42" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="181" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4104,8 +4105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="X44" sqref="X44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4152,10 +4153,10 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="253"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
       <c r="V1" s="89"/>
       <c r="W1" s="89"/>
     </row>
@@ -4186,28 +4187,28 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
       <c r="V3" s="88"/>
       <c r="W3" s="88"/>
     </row>
@@ -4224,19 +4225,19 @@
       <c r="J4" s="2"/>
       <c r="K4" s="12"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="255" t="s">
+      <c r="M4" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="174"/>
+      <c r="S4" s="174"/>
+      <c r="T4" s="174"/>
+      <c r="U4" s="174"/>
+      <c r="V4" s="174"/>
+      <c r="W4" s="174"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
@@ -4251,24 +4252,24 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="174"/>
+      <c r="V5" s="174"/>
+      <c r="W5" s="174"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="269"/>
-      <c r="E6" s="270"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="214"/>
       <c r="F6" s="47"/>
       <c r="G6" s="48"/>
       <c r="H6" s="51"/>
@@ -4276,26 +4277,26 @@
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
-      <c r="M6" s="218" t="s">
+      <c r="M6" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="219"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="224"/>
-      <c r="Q6" s="219"/>
-      <c r="R6" s="219"/>
-      <c r="S6" s="219"/>
-      <c r="T6" s="219"/>
-      <c r="U6" s="219"/>
-      <c r="V6" s="219"/>
-      <c r="W6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="250"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="164"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="271"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="55"/>
       <c r="G7" s="54"/>
       <c r="H7" s="52"/>
@@ -4303,26 +4304,26 @@
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
-      <c r="M7" s="180" t="s">
+      <c r="M7" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="158"/>
-      <c r="O7" s="155"/>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="158"/>
-      <c r="R7" s="158"/>
-      <c r="S7" s="158"/>
-      <c r="T7" s="158"/>
-      <c r="U7" s="158"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="155"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="251"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="161"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="156"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="271"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="215"/>
       <c r="F8" s="55"/>
       <c r="G8" s="54"/>
       <c r="H8" s="52"/>
@@ -4330,26 +4331,26 @@
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
       <c r="L8" s="56"/>
-      <c r="M8" s="275" t="s">
+      <c r="M8" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="188"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="187"/>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="188"/>
-      <c r="S8" s="188"/>
-      <c r="T8" s="188"/>
-      <c r="U8" s="188"/>
-      <c r="V8" s="188"/>
-      <c r="W8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="255"/>
+      <c r="Q8" s="189"/>
+      <c r="R8" s="189"/>
+      <c r="S8" s="189"/>
+      <c r="T8" s="189"/>
+      <c r="U8" s="189"/>
+      <c r="V8" s="189"/>
+      <c r="W8" s="190"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="271"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="215"/>
       <c r="F9" s="55"/>
       <c r="G9" s="54"/>
       <c r="H9" s="52"/>
@@ -4357,38 +4358,38 @@
       <c r="J9" s="92"/>
       <c r="K9" s="92"/>
       <c r="L9" s="93"/>
-      <c r="M9" s="246" t="s">
+      <c r="M9" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="219"/>
+      <c r="N9" s="163"/>
       <c r="O9" s="94"/>
-      <c r="P9" s="210" t="s">
+      <c r="P9" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="210" t="s">
+      <c r="Q9" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="210" t="s">
+      <c r="R9" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="244" t="s">
+      <c r="S9" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="203"/>
-      <c r="U9" s="210" t="s">
+      <c r="T9" s="233"/>
+      <c r="U9" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="210" t="s">
+      <c r="V9" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="163"/>
+      <c r="W9" s="164"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="271"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="215"/>
       <c r="F10" s="55"/>
       <c r="G10" s="54"/>
       <c r="H10" s="52"/>
@@ -4396,17 +4397,17 @@
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
       <c r="L10" s="95"/>
-      <c r="M10" s="250" t="s">
+      <c r="M10" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="158"/>
+      <c r="N10" s="161"/>
       <c r="O10" s="96"/>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="184"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="184"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="165"/>
+      <c r="S10" s="174"/>
+      <c r="T10" s="174"/>
+      <c r="U10" s="165"/>
       <c r="V10" s="90" t="s">
         <v>13</v>
       </c>
@@ -4418,8 +4419,8 @@
       <c r="A11"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="271"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="215"/>
       <c r="F11" s="55"/>
       <c r="G11" s="54"/>
       <c r="H11" s="52"/>
@@ -4427,11 +4428,11 @@
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
-      <c r="M11" s="199" t="s">
+      <c r="M11" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="158"/>
-      <c r="O11" s="173"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="194"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="21"/>
@@ -4445,8 +4446,8 @@
       <c r="A12"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="272"/>
-      <c r="E12" s="273"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="217"/>
       <c r="F12" s="55"/>
       <c r="G12" s="70"/>
       <c r="H12" s="71"/>
@@ -4454,11 +4455,11 @@
       <c r="J12" s="73"/>
       <c r="K12" s="74"/>
       <c r="L12" s="58"/>
-      <c r="M12" s="199" t="s">
+      <c r="M12" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="158"/>
-      <c r="O12" s="173"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="194"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="22"/>
@@ -4481,11 +4482,11 @@
       <c r="J13" s="101"/>
       <c r="K13" s="101"/>
       <c r="L13" s="101"/>
-      <c r="M13" s="199" t="s">
+      <c r="M13" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="158"/>
-      <c r="O13" s="173"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="194"/>
       <c r="P13" s="91"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
@@ -4508,19 +4509,19 @@
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
       <c r="L14" s="57"/>
-      <c r="M14" s="157" t="s">
+      <c r="M14" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="188"/>
-      <c r="O14" s="189"/>
-      <c r="P14" s="212"/>
-      <c r="Q14" s="214"/>
-      <c r="R14" s="214"/>
-      <c r="S14" s="222"/>
-      <c r="T14" s="279"/>
-      <c r="U14" s="249"/>
-      <c r="V14" s="281"/>
-      <c r="W14" s="263"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="190"/>
+      <c r="P14" s="270"/>
+      <c r="Q14" s="246"/>
+      <c r="R14" s="246"/>
+      <c r="S14" s="247"/>
+      <c r="T14" s="196"/>
+      <c r="U14" s="201"/>
+      <c r="V14" s="199"/>
+      <c r="W14" s="183"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
@@ -4535,17 +4536,17 @@
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
       <c r="L15" s="57"/>
-      <c r="M15" s="215"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="216"/>
-      <c r="P15" s="213"/>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="213"/>
-      <c r="S15" s="223"/>
-      <c r="T15" s="216"/>
-      <c r="U15" s="213"/>
-      <c r="V15" s="213"/>
-      <c r="W15" s="264"/>
+      <c r="M15" s="271"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="200"/>
+      <c r="Q15" s="200"/>
+      <c r="R15" s="200"/>
+      <c r="S15" s="248"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="200"/>
+      <c r="V15" s="200"/>
+      <c r="W15" s="184"/>
     </row>
     <row r="16" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
@@ -4560,17 +4561,17 @@
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
       <c r="L16" s="57"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="216"/>
-      <c r="P16" s="213"/>
-      <c r="Q16" s="213"/>
-      <c r="R16" s="213"/>
-      <c r="S16" s="223"/>
-      <c r="T16" s="216"/>
-      <c r="U16" s="213"/>
-      <c r="V16" s="213"/>
-      <c r="W16" s="264"/>
+      <c r="M16" s="271"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="200"/>
+      <c r="Q16" s="200"/>
+      <c r="R16" s="200"/>
+      <c r="S16" s="248"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="200"/>
+      <c r="V16" s="200"/>
+      <c r="W16" s="184"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
@@ -4585,17 +4586,17 @@
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
       <c r="L17" s="57"/>
-      <c r="M17" s="207"/>
-      <c r="N17" s="217"/>
-      <c r="O17" s="208"/>
-      <c r="P17" s="184"/>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="184"/>
-      <c r="S17" s="209"/>
-      <c r="T17" s="208"/>
-      <c r="U17" s="184"/>
-      <c r="V17" s="184"/>
-      <c r="W17" s="243"/>
+      <c r="M17" s="267"/>
+      <c r="N17" s="178"/>
+      <c r="O17" s="198"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="165"/>
+      <c r="S17" s="249"/>
+      <c r="T17" s="198"/>
+      <c r="U17" s="165"/>
+      <c r="V17" s="165"/>
+      <c r="W17" s="185"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
@@ -4610,11 +4611,11 @@
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
       <c r="L18" s="57"/>
-      <c r="M18" s="266" t="s">
+      <c r="M18" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="178"/>
-      <c r="O18" s="153"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="154"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="34"/>
       <c r="R18" s="34"/>
@@ -4637,11 +4638,11 @@
       <c r="J19" s="57"/>
       <c r="K19" s="57"/>
       <c r="L19" s="57"/>
-      <c r="M19" s="256" t="s">
+      <c r="M19" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="217"/>
-      <c r="O19" s="257"/>
+      <c r="N19" s="178"/>
+      <c r="O19" s="179"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="30"/>
       <c r="R19" s="29"/>
@@ -4664,11 +4665,11 @@
       <c r="J20" s="77"/>
       <c r="K20" s="77"/>
       <c r="L20" s="77"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="155"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="156"/>
       <c r="R20" s="23"/>
       <c r="S20" s="97"/>
       <c r="T20" s="27"/>
@@ -4689,9 +4690,9 @@
       <c r="J21" s="131"/>
       <c r="K21" s="79"/>
       <c r="L21" s="79"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="173"/>
+      <c r="M21" s="272"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="194"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
@@ -4714,16 +4715,16 @@
       <c r="J22" s="132"/>
       <c r="K22" s="80"/>
       <c r="L22" s="80"/>
-      <c r="M22" s="177" t="s">
+      <c r="M22" s="275" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="178"/>
-      <c r="O22" s="179"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="264"/>
       <c r="P22" s="68"/>
       <c r="Q22" s="69"/>
       <c r="R22" s="68"/>
-      <c r="S22" s="204"/>
-      <c r="T22" s="179"/>
+      <c r="S22" s="263"/>
+      <c r="T22" s="264"/>
       <c r="U22" s="115"/>
       <c r="V22" s="116"/>
       <c r="W22" s="117"/>
@@ -4741,19 +4742,19 @@
       <c r="J23" s="118"/>
       <c r="K23" s="119"/>
       <c r="L23" s="119"/>
-      <c r="M23" s="192" t="s">
+      <c r="M23" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
+      <c r="N23" s="174"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="174"/>
+      <c r="Q23" s="174"/>
+      <c r="R23" s="174"/>
+      <c r="S23" s="174"/>
+      <c r="T23" s="174"/>
+      <c r="U23" s="174"/>
+      <c r="V23" s="174"/>
+      <c r="W23" s="174"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -4770,17 +4771,17 @@
         <v>23</v>
       </c>
       <c r="L24" s="77"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="160"/>
-      <c r="S24" s="160"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="160"/>
-      <c r="V24" s="160"/>
-      <c r="W24" s="160"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="174"/>
+      <c r="R24" s="174"/>
+      <c r="S24" s="174"/>
+      <c r="T24" s="174"/>
+      <c r="U24" s="174"/>
+      <c r="V24" s="174"/>
+      <c r="W24" s="174"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
@@ -4795,27 +4796,27 @@
       <c r="J25" s="84"/>
       <c r="K25" s="78"/>
       <c r="L25" s="79"/>
-      <c r="M25" s="205" t="s">
+      <c r="M25" s="265" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="206"/>
-      <c r="O25" s="167" t="s">
+      <c r="N25" s="266"/>
+      <c r="O25" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="206"/>
-      <c r="Q25" s="167" t="s">
+      <c r="P25" s="266"/>
+      <c r="Q25" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="219"/>
-      <c r="S25" s="219"/>
-      <c r="T25" s="163"/>
-      <c r="U25" s="167" t="s">
+      <c r="R25" s="163"/>
+      <c r="S25" s="163"/>
+      <c r="T25" s="164"/>
+      <c r="U25" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="V25" s="261" t="s">
+      <c r="V25" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W25" s="242" t="s">
+      <c r="W25" s="231" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4829,24 +4830,24 @@
       <c r="G26" s="46"/>
       <c r="H26" s="83"/>
       <c r="I26" s="83"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="207"/>
-      <c r="N26" s="208"/>
-      <c r="O26" s="209"/>
-      <c r="P26" s="208"/>
-      <c r="Q26" s="193" t="s">
+      <c r="J26" s="276"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="267"/>
+      <c r="N26" s="198"/>
+      <c r="O26" s="249"/>
+      <c r="P26" s="198"/>
+      <c r="Q26" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="189"/>
-      <c r="S26" s="193" t="s">
+      <c r="R26" s="190"/>
+      <c r="S26" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="T26" s="189"/>
-      <c r="U26" s="184"/>
-      <c r="V26" s="184"/>
-      <c r="W26" s="243"/>
+      <c r="T26" s="190"/>
+      <c r="U26" s="165"/>
+      <c r="V26" s="165"/>
+      <c r="W26" s="185"/>
     </row>
     <row r="27" spans="1:23" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
@@ -4861,17 +4862,17 @@
       <c r="J27" s="77"/>
       <c r="K27" s="77"/>
       <c r="L27" s="77"/>
-      <c r="M27" s="175"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="191"/>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="197"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="197"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="226"/>
-      <c r="V27" s="267"/>
-      <c r="W27" s="245"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="155"/>
+      <c r="P27" s="156"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="157"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="252"/>
+      <c r="V27" s="167"/>
+      <c r="W27" s="234"/>
     </row>
     <row r="28" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
@@ -4886,14 +4887,14 @@
       <c r="J28" s="57"/>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
-      <c r="M28" s="175"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="191"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="197"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="197"/>
-      <c r="T28" s="155"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="155"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="157"/>
+      <c r="T28" s="156"/>
       <c r="U28" s="37"/>
       <c r="V28" s="41"/>
       <c r="W28" s="42"/>
@@ -4908,17 +4909,17 @@
       <c r="G29" s="46"/>
       <c r="H29" s="2"/>
       <c r="I29" s="120"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="175"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="197"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="197"/>
-      <c r="T29" s="155"/>
+      <c r="J29" s="274"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="170"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="156"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="156"/>
+      <c r="S29" s="157"/>
+      <c r="T29" s="156"/>
       <c r="U29" s="37"/>
       <c r="V29" s="41"/>
       <c r="W29" s="42"/>
@@ -4933,17 +4934,17 @@
       <c r="G30" s="46"/>
       <c r="H30" s="2"/>
       <c r="I30" s="120"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="175"/>
-      <c r="N30" s="155"/>
-      <c r="O30" s="191"/>
-      <c r="P30" s="155"/>
-      <c r="Q30" s="197"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="197"/>
-      <c r="T30" s="155"/>
+      <c r="J30" s="208"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="174"/>
+      <c r="M30" s="170"/>
+      <c r="N30" s="156"/>
+      <c r="O30" s="155"/>
+      <c r="P30" s="156"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="156"/>
       <c r="U30" s="37"/>
       <c r="V30" s="41"/>
       <c r="W30" s="42"/>
@@ -4958,17 +4959,17 @@
       <c r="G31" s="46"/>
       <c r="H31" s="2"/>
       <c r="I31" s="120"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="160"/>
-      <c r="M31" s="175"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="191"/>
-      <c r="P31" s="155"/>
-      <c r="Q31" s="197"/>
-      <c r="R31" s="155"/>
-      <c r="S31" s="197"/>
-      <c r="T31" s="155"/>
+      <c r="J31" s="208"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="156"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="157"/>
+      <c r="T31" s="156"/>
       <c r="U31" s="37"/>
       <c r="V31" s="41"/>
       <c r="W31" s="42"/>
@@ -4983,17 +4984,17 @@
       <c r="G32" s="46"/>
       <c r="H32" s="56"/>
       <c r="I32" s="121"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="175"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="191"/>
-      <c r="P32" s="155"/>
-      <c r="Q32" s="197"/>
-      <c r="R32" s="155"/>
-      <c r="S32" s="197"/>
-      <c r="T32" s="155"/>
+      <c r="J32" s="208"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="174"/>
+      <c r="M32" s="170"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="155"/>
+      <c r="P32" s="156"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="157"/>
+      <c r="T32" s="156"/>
       <c r="U32" s="37"/>
       <c r="V32" s="41"/>
       <c r="W32" s="42"/>
@@ -5008,17 +5009,17 @@
       <c r="G33" s="46"/>
       <c r="H33" s="56"/>
       <c r="I33" s="121"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="160"/>
-      <c r="L33" s="160"/>
-      <c r="M33" s="175"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="191"/>
-      <c r="P33" s="155"/>
-      <c r="Q33" s="197"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="197"/>
-      <c r="T33" s="155"/>
+      <c r="J33" s="208"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="174"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="155"/>
+      <c r="P33" s="156"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="156"/>
+      <c r="S33" s="157"/>
+      <c r="T33" s="156"/>
       <c r="U33" s="37"/>
       <c r="V33" s="41"/>
       <c r="W33" s="42"/>
@@ -5033,17 +5034,17 @@
       <c r="G34" s="46"/>
       <c r="H34" s="56"/>
       <c r="I34" s="121"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="175"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="191"/>
-      <c r="P34" s="155"/>
-      <c r="Q34" s="197"/>
-      <c r="R34" s="155"/>
-      <c r="S34" s="197"/>
-      <c r="T34" s="155"/>
+      <c r="J34" s="208"/>
+      <c r="K34" s="174"/>
+      <c r="L34" s="174"/>
+      <c r="M34" s="170"/>
+      <c r="N34" s="156"/>
+      <c r="O34" s="155"/>
+      <c r="P34" s="156"/>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="156"/>
+      <c r="S34" s="157"/>
+      <c r="T34" s="156"/>
       <c r="U34" s="37"/>
       <c r="V34" s="41"/>
       <c r="W34" s="42"/>
@@ -5058,17 +5059,17 @@
       <c r="G35" s="46"/>
       <c r="H35" s="56"/>
       <c r="I35" s="121"/>
-      <c r="J35" s="159"/>
-      <c r="K35" s="160"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="175"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="191"/>
-      <c r="P35" s="155"/>
-      <c r="Q35" s="197"/>
-      <c r="R35" s="155"/>
-      <c r="S35" s="197"/>
-      <c r="T35" s="155"/>
+      <c r="J35" s="208"/>
+      <c r="K35" s="174"/>
+      <c r="L35" s="174"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="156"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="156"/>
+      <c r="Q35" s="157"/>
+      <c r="R35" s="156"/>
+      <c r="S35" s="157"/>
+      <c r="T35" s="156"/>
       <c r="U35" s="37"/>
       <c r="V35" s="41"/>
       <c r="W35" s="42"/>
@@ -5083,17 +5084,17 @@
       <c r="G36" s="46"/>
       <c r="H36" s="56"/>
       <c r="I36" s="121"/>
-      <c r="J36" s="159"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="160"/>
-      <c r="M36" s="175"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="191"/>
-      <c r="P36" s="155"/>
-      <c r="Q36" s="197"/>
-      <c r="R36" s="155"/>
-      <c r="S36" s="197"/>
-      <c r="T36" s="155"/>
+      <c r="J36" s="208"/>
+      <c r="K36" s="174"/>
+      <c r="L36" s="174"/>
+      <c r="M36" s="170"/>
+      <c r="N36" s="156"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="156"/>
+      <c r="Q36" s="157"/>
+      <c r="R36" s="156"/>
+      <c r="S36" s="157"/>
+      <c r="T36" s="156"/>
       <c r="U36" s="37"/>
       <c r="V36" s="41"/>
       <c r="W36" s="42"/>
@@ -5108,17 +5109,17 @@
       <c r="G37" s="46"/>
       <c r="H37" s="56"/>
       <c r="I37" s="121"/>
-      <c r="J37" s="159"/>
-      <c r="K37" s="160"/>
-      <c r="L37" s="160"/>
-      <c r="M37" s="175"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="191"/>
-      <c r="P37" s="155"/>
-      <c r="Q37" s="197"/>
-      <c r="R37" s="155"/>
-      <c r="S37" s="197"/>
-      <c r="T37" s="155"/>
+      <c r="J37" s="208"/>
+      <c r="K37" s="174"/>
+      <c r="L37" s="174"/>
+      <c r="M37" s="170"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="155"/>
+      <c r="P37" s="156"/>
+      <c r="Q37" s="157"/>
+      <c r="R37" s="156"/>
+      <c r="S37" s="157"/>
+      <c r="T37" s="156"/>
       <c r="U37" s="37"/>
       <c r="V37" s="41"/>
       <c r="W37" s="42"/>
@@ -5133,17 +5134,17 @@
       <c r="G38" s="46"/>
       <c r="H38" s="56"/>
       <c r="I38" s="121"/>
-      <c r="J38" s="159"/>
-      <c r="K38" s="160"/>
-      <c r="L38" s="160"/>
-      <c r="M38" s="175"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="191"/>
-      <c r="P38" s="155"/>
-      <c r="Q38" s="197"/>
-      <c r="R38" s="155"/>
-      <c r="S38" s="197"/>
-      <c r="T38" s="155"/>
+      <c r="J38" s="208"/>
+      <c r="K38" s="174"/>
+      <c r="L38" s="174"/>
+      <c r="M38" s="170"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="156"/>
+      <c r="Q38" s="157"/>
+      <c r="R38" s="156"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="156"/>
       <c r="U38" s="37"/>
       <c r="V38" s="41"/>
       <c r="W38" s="42"/>
@@ -5158,17 +5159,17 @@
       <c r="G39" s="46"/>
       <c r="H39" s="56"/>
       <c r="I39" s="121"/>
-      <c r="J39" s="159"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="160"/>
-      <c r="M39" s="175"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="191"/>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="197"/>
-      <c r="R39" s="155"/>
-      <c r="S39" s="197"/>
-      <c r="T39" s="155"/>
+      <c r="J39" s="208"/>
+      <c r="K39" s="174"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="170"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="155"/>
+      <c r="P39" s="156"/>
+      <c r="Q39" s="157"/>
+      <c r="R39" s="156"/>
+      <c r="S39" s="157"/>
+      <c r="T39" s="156"/>
       <c r="U39" s="37"/>
       <c r="V39" s="41"/>
       <c r="W39" s="42"/>
@@ -5183,17 +5184,17 @@
       <c r="G40" s="46"/>
       <c r="H40" s="56"/>
       <c r="I40" s="121"/>
-      <c r="J40" s="159"/>
-      <c r="K40" s="160"/>
-      <c r="L40" s="160"/>
-      <c r="M40" s="254"/>
-      <c r="N40" s="153"/>
-      <c r="O40" s="229"/>
-      <c r="P40" s="153"/>
-      <c r="Q40" s="231"/>
-      <c r="R40" s="153"/>
-      <c r="S40" s="231"/>
-      <c r="T40" s="153"/>
+      <c r="J40" s="208"/>
+      <c r="K40" s="174"/>
+      <c r="L40" s="174"/>
+      <c r="M40" s="175"/>
+      <c r="N40" s="154"/>
+      <c r="O40" s="254"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="202"/>
+      <c r="R40" s="154"/>
+      <c r="S40" s="202"/>
+      <c r="T40" s="154"/>
       <c r="U40" s="38"/>
       <c r="V40" s="43"/>
       <c r="W40" s="44"/>
@@ -5211,19 +5212,19 @@
       <c r="J41" s="57"/>
       <c r="K41" s="57"/>
       <c r="L41" s="57"/>
-      <c r="M41" s="285" t="s">
+      <c r="M41" s="258" t="s">
         <v>32</v>
       </c>
-      <c r="N41" s="285"/>
-      <c r="O41" s="285"/>
-      <c r="P41" s="285"/>
-      <c r="Q41" s="285"/>
-      <c r="R41" s="285"/>
-      <c r="S41" s="285"/>
-      <c r="T41" s="285"/>
-      <c r="U41" s="285"/>
-      <c r="V41" s="285"/>
-      <c r="W41" s="285"/>
+      <c r="N41" s="258"/>
+      <c r="O41" s="258"/>
+      <c r="P41" s="258"/>
+      <c r="Q41" s="258"/>
+      <c r="R41" s="258"/>
+      <c r="S41" s="258"/>
+      <c r="T41" s="258"/>
+      <c r="U41" s="258"/>
+      <c r="V41" s="258"/>
+      <c r="W41" s="258"/>
     </row>
     <row r="42" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
@@ -5238,17 +5239,17 @@
       <c r="J42" s="122"/>
       <c r="K42" s="59"/>
       <c r="L42" s="56"/>
-      <c r="M42" s="194"/>
-      <c r="N42" s="194"/>
-      <c r="O42" s="194"/>
-      <c r="P42" s="194"/>
-      <c r="Q42" s="194"/>
-      <c r="R42" s="194"/>
-      <c r="S42" s="194"/>
-      <c r="T42" s="194"/>
-      <c r="U42" s="194"/>
-      <c r="V42" s="194"/>
-      <c r="W42" s="194"/>
+      <c r="M42" s="259"/>
+      <c r="N42" s="259"/>
+      <c r="O42" s="259"/>
+      <c r="P42" s="259"/>
+      <c r="Q42" s="259"/>
+      <c r="R42" s="259"/>
+      <c r="S42" s="259"/>
+      <c r="T42" s="259"/>
+      <c r="U42" s="259"/>
+      <c r="V42" s="259"/>
+      <c r="W42" s="259"/>
     </row>
     <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -5263,19 +5264,19 @@
       <c r="J43" s="122"/>
       <c r="K43" s="59"/>
       <c r="L43" s="56"/>
-      <c r="M43" s="248" t="s">
+      <c r="M43" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="N43" s="219"/>
-      <c r="O43" s="219"/>
-      <c r="P43" s="219"/>
-      <c r="Q43" s="219"/>
-      <c r="R43" s="219"/>
-      <c r="S43" s="219"/>
-      <c r="T43" s="219"/>
-      <c r="U43" s="201"/>
-      <c r="V43" s="200"/>
-      <c r="W43" s="201"/>
+      <c r="N43" s="163"/>
+      <c r="O43" s="163"/>
+      <c r="P43" s="163"/>
+      <c r="Q43" s="163"/>
+      <c r="R43" s="163"/>
+      <c r="S43" s="163"/>
+      <c r="T43" s="163"/>
+      <c r="U43" s="223"/>
+      <c r="V43" s="261"/>
+      <c r="W43" s="223"/>
     </row>
     <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
@@ -5290,19 +5291,19 @@
       <c r="J44" s="122"/>
       <c r="K44" s="59"/>
       <c r="L44" s="56"/>
-      <c r="M44" s="240" t="s">
+      <c r="M44" s="228" t="s">
         <v>34</v>
       </c>
-      <c r="N44" s="158"/>
-      <c r="O44" s="158"/>
-      <c r="P44" s="158"/>
-      <c r="Q44" s="158"/>
-      <c r="R44" s="158"/>
-      <c r="S44" s="158"/>
-      <c r="T44" s="158"/>
-      <c r="U44" s="196"/>
-      <c r="V44" s="195"/>
-      <c r="W44" s="196"/>
+      <c r="N44" s="161"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="161"/>
+      <c r="R44" s="161"/>
+      <c r="S44" s="161"/>
+      <c r="T44" s="161"/>
+      <c r="U44" s="229"/>
+      <c r="V44" s="260"/>
+      <c r="W44" s="229"/>
     </row>
     <row r="45" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
@@ -5317,19 +5318,19 @@
       <c r="J45" s="122"/>
       <c r="K45" s="56"/>
       <c r="L45" s="56"/>
-      <c r="M45" s="233" t="s">
+      <c r="M45" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="N45" s="178"/>
-      <c r="O45" s="178"/>
-      <c r="P45" s="178"/>
-      <c r="Q45" s="178"/>
-      <c r="R45" s="178"/>
-      <c r="S45" s="178"/>
-      <c r="T45" s="178"/>
-      <c r="U45" s="234"/>
-      <c r="V45" s="276"/>
-      <c r="W45" s="234"/>
+      <c r="N45" s="187"/>
+      <c r="O45" s="187"/>
+      <c r="P45" s="187"/>
+      <c r="Q45" s="187"/>
+      <c r="R45" s="187"/>
+      <c r="S45" s="187"/>
+      <c r="T45" s="187"/>
+      <c r="U45" s="192"/>
+      <c r="V45" s="191"/>
+      <c r="W45" s="192"/>
     </row>
     <row r="46" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
@@ -5344,19 +5345,19 @@
       <c r="J46" s="57"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
-      <c r="M46" s="202" t="s">
+      <c r="M46" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="N46" s="203"/>
-      <c r="O46" s="203"/>
-      <c r="P46" s="203"/>
-      <c r="Q46" s="203"/>
-      <c r="R46" s="203"/>
-      <c r="S46" s="203"/>
-      <c r="T46" s="203"/>
-      <c r="U46" s="203"/>
-      <c r="V46" s="203"/>
-      <c r="W46" s="203"/>
+      <c r="N46" s="233"/>
+      <c r="O46" s="233"/>
+      <c r="P46" s="233"/>
+      <c r="Q46" s="233"/>
+      <c r="R46" s="233"/>
+      <c r="S46" s="233"/>
+      <c r="T46" s="233"/>
+      <c r="U46" s="233"/>
+      <c r="V46" s="233"/>
+      <c r="W46" s="233"/>
     </row>
     <row r="47" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
@@ -5371,17 +5372,17 @@
       <c r="J47" s="57"/>
       <c r="K47" s="57"/>
       <c r="L47" s="57"/>
-      <c r="M47" s="160"/>
-      <c r="N47" s="160"/>
-      <c r="O47" s="160"/>
-      <c r="P47" s="160"/>
-      <c r="Q47" s="160"/>
-      <c r="R47" s="160"/>
-      <c r="S47" s="160"/>
-      <c r="T47" s="160"/>
-      <c r="U47" s="160"/>
-      <c r="V47" s="160"/>
-      <c r="W47" s="160"/>
+      <c r="M47" s="174"/>
+      <c r="N47" s="174"/>
+      <c r="O47" s="174"/>
+      <c r="P47" s="174"/>
+      <c r="Q47" s="174"/>
+      <c r="R47" s="174"/>
+      <c r="S47" s="174"/>
+      <c r="T47" s="174"/>
+      <c r="U47" s="174"/>
+      <c r="V47" s="174"/>
+      <c r="W47" s="174"/>
     </row>
     <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
@@ -5393,19 +5394,19 @@
       <c r="G48" s="46"/>
       <c r="H48" s="57"/>
       <c r="I48" s="57"/>
-      <c r="M48" s="221" t="s">
+      <c r="M48" s="245" t="s">
         <v>37</v>
       </c>
-      <c r="N48" s="219"/>
-      <c r="O48" s="219"/>
-      <c r="P48" s="219"/>
-      <c r="Q48" s="163"/>
-      <c r="R48" s="185"/>
-      <c r="S48" s="163"/>
-      <c r="T48" s="165"/>
-      <c r="U48" s="163"/>
-      <c r="V48" s="162"/>
-      <c r="W48" s="163"/>
+      <c r="N48" s="163"/>
+      <c r="O48" s="163"/>
+      <c r="P48" s="163"/>
+      <c r="Q48" s="164"/>
+      <c r="R48" s="277"/>
+      <c r="S48" s="164"/>
+      <c r="T48" s="284"/>
+      <c r="U48" s="164"/>
+      <c r="V48" s="283"/>
+      <c r="W48" s="164"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
@@ -5417,19 +5418,19 @@
       <c r="G49" s="46"/>
       <c r="H49" s="60"/>
       <c r="I49" s="60"/>
-      <c r="M49" s="157" t="s">
+      <c r="M49" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="N49" s="158"/>
-      <c r="O49" s="158"/>
-      <c r="P49" s="158"/>
-      <c r="Q49" s="155"/>
-      <c r="R49" s="252"/>
-      <c r="S49" s="155"/>
-      <c r="T49" s="154"/>
-      <c r="U49" s="155"/>
-      <c r="V49" s="258"/>
-      <c r="W49" s="155"/>
+      <c r="N49" s="161"/>
+      <c r="O49" s="161"/>
+      <c r="P49" s="161"/>
+      <c r="Q49" s="156"/>
+      <c r="R49" s="206"/>
+      <c r="S49" s="156"/>
+      <c r="T49" s="280"/>
+      <c r="U49" s="156"/>
+      <c r="V49" s="180"/>
+      <c r="W49" s="156"/>
     </row>
     <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
@@ -5441,19 +5442,19 @@
       <c r="G50" s="46"/>
       <c r="H50" s="123"/>
       <c r="I50" s="123"/>
-      <c r="M50" s="157" t="s">
+      <c r="M50" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="N50" s="158"/>
-      <c r="O50" s="158"/>
-      <c r="P50" s="158"/>
-      <c r="Q50" s="155"/>
-      <c r="R50" s="277"/>
-      <c r="S50" s="155"/>
-      <c r="T50" s="235"/>
-      <c r="U50" s="155"/>
-      <c r="V50" s="230"/>
-      <c r="W50" s="155"/>
+      <c r="N50" s="161"/>
+      <c r="O50" s="161"/>
+      <c r="P50" s="161"/>
+      <c r="Q50" s="156"/>
+      <c r="R50" s="225"/>
+      <c r="S50" s="156"/>
+      <c r="T50" s="238"/>
+      <c r="U50" s="156"/>
+      <c r="V50" s="236"/>
+      <c r="W50" s="156"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
@@ -5468,19 +5469,19 @@
       <c r="J51" s="56"/>
       <c r="K51" s="17"/>
       <c r="L51" s="16"/>
-      <c r="M51" s="157" t="s">
+      <c r="M51" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="N51" s="158"/>
-      <c r="O51" s="158"/>
-      <c r="P51" s="158"/>
-      <c r="Q51" s="155"/>
-      <c r="R51" s="227"/>
-      <c r="S51" s="155"/>
-      <c r="T51" s="228"/>
-      <c r="U51" s="155"/>
-      <c r="V51" s="230"/>
-      <c r="W51" s="155"/>
+      <c r="N51" s="161"/>
+      <c r="O51" s="161"/>
+      <c r="P51" s="161"/>
+      <c r="Q51" s="156"/>
+      <c r="R51" s="253"/>
+      <c r="S51" s="156"/>
+      <c r="T51" s="207"/>
+      <c r="U51" s="156"/>
+      <c r="V51" s="236"/>
+      <c r="W51" s="156"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
@@ -5495,21 +5496,21 @@
       <c r="J52" s="87"/>
       <c r="K52" s="87"/>
       <c r="L52" s="87"/>
-      <c r="M52" s="180" t="s">
+      <c r="M52" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="N52" s="158"/>
-      <c r="O52" s="158"/>
-      <c r="P52" s="158"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="236"/>
-      <c r="S52" s="155"/>
-      <c r="T52" s="265" t="s">
+      <c r="N52" s="161"/>
+      <c r="O52" s="161"/>
+      <c r="P52" s="161"/>
+      <c r="Q52" s="156"/>
+      <c r="R52" s="239"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="U52" s="155"/>
-      <c r="V52" s="161"/>
-      <c r="W52" s="155"/>
+      <c r="U52" s="156"/>
+      <c r="V52" s="282"/>
+      <c r="W52" s="156"/>
     </row>
     <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
@@ -5524,19 +5525,19 @@
       <c r="J53" s="123"/>
       <c r="K53"/>
       <c r="L53" s="86"/>
-      <c r="M53" s="180" t="s">
+      <c r="M53" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="N53" s="158"/>
-      <c r="O53" s="158"/>
-      <c r="P53" s="158"/>
-      <c r="Q53" s="155"/>
-      <c r="R53" s="259"/>
-      <c r="S53" s="155"/>
-      <c r="T53" s="220"/>
-      <c r="U53" s="155"/>
-      <c r="V53" s="232"/>
-      <c r="W53" s="155"/>
+      <c r="N53" s="161"/>
+      <c r="O53" s="161"/>
+      <c r="P53" s="161"/>
+      <c r="Q53" s="156"/>
+      <c r="R53" s="209"/>
+      <c r="S53" s="156"/>
+      <c r="T53" s="244"/>
+      <c r="U53" s="156"/>
+      <c r="V53" s="290"/>
+      <c r="W53" s="156"/>
     </row>
     <row r="54" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
@@ -5551,23 +5552,23 @@
       <c r="J54" s="60"/>
       <c r="K54" s="125"/>
       <c r="L54" s="121"/>
-      <c r="M54" s="157" t="s">
+      <c r="M54" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="N54" s="158"/>
-      <c r="O54" s="158"/>
-      <c r="P54" s="158"/>
-      <c r="Q54" s="155"/>
-      <c r="R54" s="237"/>
-      <c r="S54" s="155"/>
-      <c r="T54" s="228" t="s">
+      <c r="N54" s="161"/>
+      <c r="O54" s="161"/>
+      <c r="P54" s="161"/>
+      <c r="Q54" s="156"/>
+      <c r="R54" s="226"/>
+      <c r="S54" s="156"/>
+      <c r="T54" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="U54" s="155"/>
-      <c r="V54" s="278"/>
-      <c r="W54" s="155"/>
-    </row>
-    <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U54" s="156"/>
+      <c r="V54" s="241"/>
+      <c r="W54" s="156"/>
+    </row>
+    <row r="55" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5580,21 +5581,19 @@
       <c r="J55" s="122"/>
       <c r="K55" s="16"/>
       <c r="L55" s="126"/>
-      <c r="M55" s="157" t="s">
+      <c r="M55" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="N55" s="158"/>
-      <c r="O55" s="158"/>
-      <c r="P55" s="158"/>
-      <c r="Q55" s="155"/>
-      <c r="R55" s="198"/>
-      <c r="S55" s="155"/>
-      <c r="T55" s="228" t="s">
-        <v>45</v>
-      </c>
-      <c r="U55" s="155"/>
-      <c r="V55" s="164"/>
-      <c r="W55" s="155"/>
+      <c r="N55" s="161"/>
+      <c r="O55" s="161"/>
+      <c r="P55" s="161"/>
+      <c r="Q55" s="156"/>
+      <c r="R55" s="291"/>
+      <c r="S55" s="292"/>
+      <c r="T55" s="292"/>
+      <c r="U55" s="292"/>
+      <c r="V55" s="292"/>
+      <c r="W55" s="293"/>
     </row>
     <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
@@ -5609,19 +5608,19 @@
       <c r="J56" s="62"/>
       <c r="K56" s="56"/>
       <c r="L56" s="63"/>
-      <c r="M56" s="180" t="s">
+      <c r="M56" s="195" t="s">
         <v>47</v>
       </c>
-      <c r="N56" s="158"/>
-      <c r="O56" s="158"/>
-      <c r="P56" s="158"/>
-      <c r="Q56" s="155"/>
-      <c r="R56" s="239"/>
-      <c r="S56" s="155"/>
-      <c r="T56" s="239"/>
-      <c r="U56" s="155"/>
-      <c r="V56" s="239"/>
-      <c r="W56" s="155"/>
+      <c r="N56" s="161"/>
+      <c r="O56" s="161"/>
+      <c r="P56" s="161"/>
+      <c r="Q56" s="156"/>
+      <c r="R56" s="166"/>
+      <c r="S56" s="156"/>
+      <c r="T56" s="166"/>
+      <c r="U56" s="156"/>
+      <c r="V56" s="166"/>
+      <c r="W56" s="156"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
@@ -5636,19 +5635,19 @@
       <c r="J57" s="56"/>
       <c r="K57" s="56"/>
       <c r="L57" s="64"/>
-      <c r="M57" s="180" t="s">
+      <c r="M57" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="N57" s="158"/>
-      <c r="O57" s="158"/>
-      <c r="P57" s="158"/>
-      <c r="Q57" s="155"/>
-      <c r="R57" s="239"/>
-      <c r="S57" s="155"/>
-      <c r="T57" s="239"/>
-      <c r="U57" s="155"/>
-      <c r="V57" s="239"/>
-      <c r="W57" s="155"/>
+      <c r="N57" s="161"/>
+      <c r="O57" s="161"/>
+      <c r="P57" s="161"/>
+      <c r="Q57" s="156"/>
+      <c r="R57" s="166"/>
+      <c r="S57" s="156"/>
+      <c r="T57" s="166"/>
+      <c r="U57" s="156"/>
+      <c r="V57" s="166"/>
+      <c r="W57" s="156"/>
     </row>
     <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
@@ -5663,21 +5662,21 @@
       <c r="J58" s="56"/>
       <c r="K58" s="56"/>
       <c r="L58" s="56"/>
-      <c r="M58" s="180" t="s">
+      <c r="M58" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="N58" s="158"/>
-      <c r="O58" s="158"/>
-      <c r="P58" s="158"/>
-      <c r="Q58" s="155"/>
-      <c r="R58" s="241"/>
-      <c r="S58" s="155"/>
-      <c r="T58" s="239" t="s">
+      <c r="N58" s="161"/>
+      <c r="O58" s="161"/>
+      <c r="P58" s="161"/>
+      <c r="Q58" s="156"/>
+      <c r="R58" s="230"/>
+      <c r="S58" s="156"/>
+      <c r="T58" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="U58" s="155"/>
-      <c r="V58" s="156"/>
-      <c r="W58" s="155"/>
+      <c r="U58" s="156"/>
+      <c r="V58" s="281"/>
+      <c r="W58" s="156"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
@@ -5692,19 +5691,19 @@
       <c r="J59" s="66"/>
       <c r="K59" s="66"/>
       <c r="L59" s="66"/>
-      <c r="M59" s="157" t="s">
+      <c r="M59" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="N59" s="158"/>
-      <c r="O59" s="158"/>
-      <c r="P59" s="158"/>
-      <c r="Q59" s="155"/>
-      <c r="R59" s="182"/>
-      <c r="S59" s="155"/>
-      <c r="T59" s="239"/>
-      <c r="U59" s="155"/>
-      <c r="V59" s="274"/>
-      <c r="W59" s="155"/>
+      <c r="N59" s="161"/>
+      <c r="O59" s="161"/>
+      <c r="P59" s="161"/>
+      <c r="Q59" s="156"/>
+      <c r="R59" s="268"/>
+      <c r="S59" s="156"/>
+      <c r="T59" s="166"/>
+      <c r="U59" s="156"/>
+      <c r="V59" s="169"/>
+      <c r="W59" s="156"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
@@ -5719,19 +5718,19 @@
       <c r="J60" s="66"/>
       <c r="K60" s="66"/>
       <c r="L60" s="66"/>
-      <c r="M60" s="157" t="s">
+      <c r="M60" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="N60" s="158"/>
-      <c r="O60" s="158"/>
-      <c r="P60" s="158"/>
-      <c r="Q60" s="155"/>
-      <c r="R60" s="182"/>
-      <c r="S60" s="155"/>
-      <c r="T60" s="239"/>
-      <c r="U60" s="155"/>
-      <c r="V60" s="274"/>
-      <c r="W60" s="155"/>
+      <c r="N60" s="161"/>
+      <c r="O60" s="161"/>
+      <c r="P60" s="161"/>
+      <c r="Q60" s="156"/>
+      <c r="R60" s="268"/>
+      <c r="S60" s="156"/>
+      <c r="T60" s="166"/>
+      <c r="U60" s="156"/>
+      <c r="V60" s="169"/>
+      <c r="W60" s="156"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
@@ -5742,19 +5741,19 @@
       <c r="F61" s="138"/>
       <c r="G61" s="134"/>
       <c r="H61" s="56"/>
-      <c r="M61" s="157" t="s">
+      <c r="M61" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="N61" s="158"/>
-      <c r="O61" s="158"/>
-      <c r="P61" s="158"/>
-      <c r="Q61" s="155"/>
-      <c r="R61" s="211"/>
-      <c r="S61" s="155"/>
-      <c r="T61" s="238"/>
-      <c r="U61" s="155"/>
-      <c r="V61" s="280"/>
-      <c r="W61" s="155"/>
+      <c r="N61" s="161"/>
+      <c r="O61" s="161"/>
+      <c r="P61" s="161"/>
+      <c r="Q61" s="156"/>
+      <c r="R61" s="269"/>
+      <c r="S61" s="156"/>
+      <c r="T61" s="227"/>
+      <c r="U61" s="156"/>
+      <c r="V61" s="242"/>
+      <c r="W61" s="156"/>
     </row>
     <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="127"/>
@@ -5765,19 +5764,19 @@
       <c r="F62" s="128"/>
       <c r="G62" s="135"/>
       <c r="H62" s="56"/>
-      <c r="M62" s="262" t="s">
+      <c r="M62" s="211" t="s">
         <v>53</v>
       </c>
-      <c r="N62" s="178"/>
-      <c r="O62" s="178"/>
-      <c r="P62" s="178"/>
-      <c r="Q62" s="153"/>
-      <c r="R62" s="260"/>
-      <c r="S62" s="153"/>
-      <c r="T62" s="190"/>
-      <c r="U62" s="153"/>
-      <c r="V62" s="268"/>
-      <c r="W62" s="153"/>
+      <c r="N62" s="187"/>
+      <c r="O62" s="187"/>
+      <c r="P62" s="187"/>
+      <c r="Q62" s="154"/>
+      <c r="R62" s="210"/>
+      <c r="S62" s="154"/>
+      <c r="T62" s="256"/>
+      <c r="U62" s="154"/>
+      <c r="V62" s="168"/>
+      <c r="W62" s="154"/>
     </row>
     <row r="63" spans="1:23" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
@@ -5818,20 +5817,20 @@
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
-      <c r="L64" s="186" t="s">
+      <c r="L64" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="M64" s="219"/>
-      <c r="N64" s="219"/>
-      <c r="O64" s="219"/>
-      <c r="P64" s="219"/>
-      <c r="Q64" s="219"/>
-      <c r="R64" s="219"/>
-      <c r="S64" s="219"/>
-      <c r="T64" s="219"/>
-      <c r="U64" s="219"/>
-      <c r="V64" s="219"/>
-      <c r="W64" s="163"/>
+      <c r="M64" s="163"/>
+      <c r="N64" s="163"/>
+      <c r="O64" s="163"/>
+      <c r="P64" s="163"/>
+      <c r="Q64" s="163"/>
+      <c r="R64" s="163"/>
+      <c r="S64" s="163"/>
+      <c r="T64" s="163"/>
+      <c r="U64" s="163"/>
+      <c r="V64" s="163"/>
+      <c r="W64" s="164"/>
     </row>
     <row r="65" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
@@ -5845,32 +5844,32 @@
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
-      <c r="L65" s="291" t="s">
+      <c r="L65" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="M65" s="286" t="s">
+      <c r="M65" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="N65" s="286" t="s">
+      <c r="N65" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="O65" s="286" t="s">
+      <c r="O65" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="P65" s="288" t="s">
+      <c r="P65" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="Q65" s="289"/>
-      <c r="R65" s="289"/>
-      <c r="S65" s="290"/>
-      <c r="T65" s="288" t="s">
+      <c r="Q65" s="224"/>
+      <c r="R65" s="224"/>
+      <c r="S65" s="159"/>
+      <c r="T65" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="U65" s="290"/>
-      <c r="V65" s="288" t="s">
+      <c r="U65" s="159"/>
+      <c r="V65" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="W65" s="290"/>
+      <c r="W65" s="159"/>
       <c r="X65" s="14"/>
     </row>
     <row r="66" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5885,26 +5884,26 @@
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
-      <c r="L66" s="292"/>
-      <c r="M66" s="287"/>
-      <c r="N66" s="287"/>
-      <c r="O66" s="287"/>
-      <c r="P66" s="247" t="s">
+      <c r="L66" s="219"/>
+      <c r="M66" s="172"/>
+      <c r="N66" s="172"/>
+      <c r="O66" s="172"/>
+      <c r="P66" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="Q66" s="155"/>
-      <c r="R66" s="183" t="s">
+      <c r="Q66" s="156"/>
+      <c r="R66" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="S66" s="155"/>
-      <c r="T66" s="183" t="s">
+      <c r="S66" s="156"/>
+      <c r="T66" s="221" t="s">
         <v>58</v>
       </c>
-      <c r="U66" s="155"/>
-      <c r="V66" s="183" t="s">
+      <c r="U66" s="156"/>
+      <c r="V66" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="W66" s="155"/>
+      <c r="W66" s="156"/>
       <c r="X66" s="14"/>
     </row>
     <row r="67" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5923,14 +5922,14 @@
       <c r="M67" s="149"/>
       <c r="N67" s="149"/>
       <c r="O67" s="39"/>
-      <c r="P67" s="152"/>
-      <c r="Q67" s="153"/>
-      <c r="R67" s="152"/>
-      <c r="S67" s="153"/>
-      <c r="T67" s="152"/>
-      <c r="U67" s="153"/>
-      <c r="V67" s="152"/>
-      <c r="W67" s="153"/>
+      <c r="P67" s="153"/>
+      <c r="Q67" s="154"/>
+      <c r="R67" s="153"/>
+      <c r="S67" s="154"/>
+      <c r="T67" s="153"/>
+      <c r="U67" s="154"/>
+      <c r="V67" s="153"/>
+      <c r="W67" s="154"/>
       <c r="X67" s="14"/>
     </row>
     <row r="68" spans="1:24" ht="12.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5946,10 +5945,10 @@
       <c r="K68" s="14"/>
       <c r="L68" s="148"/>
       <c r="M68" s="148"/>
-      <c r="N68" s="160"/>
-      <c r="O68" s="160"/>
-      <c r="P68" s="160"/>
-      <c r="Q68" s="160"/>
+      <c r="N68" s="174"/>
+      <c r="O68" s="174"/>
+      <c r="P68" s="174"/>
+      <c r="Q68" s="174"/>
       <c r="R68" s="148"/>
       <c r="S68" s="148"/>
       <c r="T68" s="148"/>
@@ -5969,20 +5968,20 @@
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
-      <c r="L69" s="186" t="s">
+      <c r="L69" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="M69" s="163"/>
-      <c r="N69" s="167" t="s">
+      <c r="M69" s="164"/>
+      <c r="N69" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="O69" s="163"/>
-      <c r="P69" s="167" t="s">
+      <c r="O69" s="164"/>
+      <c r="P69" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="Q69" s="163"/>
-      <c r="R69" s="174"/>
-      <c r="S69" s="160"/>
+      <c r="Q69" s="164"/>
+      <c r="R69" s="273"/>
+      <c r="S69" s="174"/>
       <c r="T69" s="148"/>
       <c r="U69" s="148"/>
       <c r="V69" s="148"/>
@@ -6001,22 +6000,22 @@
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
-      <c r="L70" s="169" t="s">
+      <c r="L70" s="287" t="s">
         <v>63</v>
       </c>
-      <c r="M70" s="153"/>
-      <c r="N70" s="166">
+      <c r="M70" s="154"/>
+      <c r="N70" s="285">
         <f>L67*P67/1000</f>
         <v>0</v>
       </c>
-      <c r="O70" s="153"/>
-      <c r="P70" s="166">
+      <c r="O70" s="154"/>
+      <c r="P70" s="285">
         <f>L70+N70</f>
         <v>1</v>
       </c>
-      <c r="Q70" s="153"/>
-      <c r="R70" s="168"/>
-      <c r="S70" s="160"/>
+      <c r="Q70" s="154"/>
+      <c r="R70" s="286"/>
+      <c r="S70" s="174"/>
       <c r="T70" s="148"/>
       <c r="U70" s="148"/>
       <c r="V70" s="148"/>
@@ -6086,20 +6085,20 @@
       <c r="I73" s="148"/>
       <c r="J73" s="148"/>
       <c r="K73" s="148"/>
-      <c r="L73" s="170" t="s">
+      <c r="L73" s="288" t="s">
         <v>65</v>
       </c>
-      <c r="M73" s="170"/>
-      <c r="N73" s="170"/>
-      <c r="O73" s="170"/>
-      <c r="P73" s="170"/>
-      <c r="Q73" s="170"/>
-      <c r="R73" s="170"/>
-      <c r="S73" s="170"/>
-      <c r="T73" s="170"/>
-      <c r="U73" s="170"/>
-      <c r="V73" s="170"/>
-      <c r="W73" s="170"/>
+      <c r="M73" s="288"/>
+      <c r="N73" s="288"/>
+      <c r="O73" s="288"/>
+      <c r="P73" s="288"/>
+      <c r="Q73" s="288"/>
+      <c r="R73" s="288"/>
+      <c r="S73" s="288"/>
+      <c r="T73" s="288"/>
+      <c r="U73" s="288"/>
+      <c r="V73" s="288"/>
+      <c r="W73" s="288"/>
       <c r="X73" s="14"/>
     </row>
     <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -6113,20 +6112,20 @@
       <c r="I74" s="148"/>
       <c r="J74" s="148"/>
       <c r="K74" s="148"/>
-      <c r="L74" s="170" t="s">
+      <c r="L74" s="288" t="s">
         <v>65</v>
       </c>
-      <c r="M74" s="170"/>
-      <c r="N74" s="170"/>
-      <c r="O74" s="170"/>
-      <c r="P74" s="170"/>
-      <c r="Q74" s="170"/>
-      <c r="R74" s="170"/>
-      <c r="S74" s="170"/>
-      <c r="T74" s="170"/>
-      <c r="U74" s="170"/>
-      <c r="V74" s="170"/>
-      <c r="W74" s="170"/>
+      <c r="M74" s="288"/>
+      <c r="N74" s="288"/>
+      <c r="O74" s="288"/>
+      <c r="P74" s="288"/>
+      <c r="Q74" s="288"/>
+      <c r="R74" s="288"/>
+      <c r="S74" s="288"/>
+      <c r="T74" s="288"/>
+      <c r="U74" s="288"/>
+      <c r="V74" s="288"/>
+      <c r="W74" s="288"/>
       <c r="X74" s="14"/>
     </row>
     <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -6140,20 +6139,20 @@
       <c r="I75" s="148"/>
       <c r="J75" s="148"/>
       <c r="K75" s="148"/>
-      <c r="L75" s="171" t="s">
+      <c r="L75" s="289" t="s">
         <v>65</v>
       </c>
-      <c r="M75" s="171"/>
-      <c r="N75" s="171"/>
-      <c r="O75" s="171"/>
-      <c r="P75" s="171"/>
-      <c r="Q75" s="171"/>
-      <c r="R75" s="171"/>
-      <c r="S75" s="171"/>
-      <c r="T75" s="171"/>
-      <c r="U75" s="171"/>
-      <c r="V75" s="171"/>
-      <c r="W75" s="171"/>
+      <c r="M75" s="289"/>
+      <c r="N75" s="289"/>
+      <c r="O75" s="289"/>
+      <c r="P75" s="289"/>
+      <c r="Q75" s="289"/>
+      <c r="R75" s="289"/>
+      <c r="S75" s="289"/>
+      <c r="T75" s="289"/>
+      <c r="U75" s="289"/>
+      <c r="V75" s="289"/>
+      <c r="W75" s="289"/>
       <c r="X75" s="14"/>
     </row>
     <row r="76" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6174,11 +6173,11 @@
       <c r="N76" s="148"/>
       <c r="O76" s="142"/>
       <c r="P76" s="148"/>
-      <c r="Q76" s="150" t="s">
+      <c r="Q76" s="278" t="s">
         <v>66</v>
       </c>
-      <c r="R76" s="150"/>
-      <c r="S76" s="150"/>
+      <c r="R76" s="278"/>
+      <c r="S76" s="278"/>
       <c r="T76" s="143"/>
       <c r="U76" s="144"/>
       <c r="V76" s="143"/>
@@ -6203,13 +6202,13 @@
       <c r="N77" s="148"/>
       <c r="O77" s="148"/>
       <c r="P77" s="148"/>
-      <c r="Q77" s="150"/>
-      <c r="R77" s="150"/>
-      <c r="S77" s="150"/>
+      <c r="Q77" s="278"/>
+      <c r="R77" s="278"/>
+      <c r="S77" s="278"/>
       <c r="T77" s="143"/>
       <c r="U77" s="145"/>
-      <c r="V77" s="150"/>
-      <c r="W77" s="150"/>
+      <c r="V77" s="278"/>
+      <c r="W77" s="278"/>
       <c r="X77" s="148"/>
     </row>
     <row r="78" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6230,13 +6229,13 @@
       <c r="N78" s="148"/>
       <c r="O78" s="148"/>
       <c r="P78" s="148"/>
-      <c r="Q78" s="151"/>
-      <c r="R78" s="151"/>
-      <c r="S78" s="151"/>
+      <c r="Q78" s="279"/>
+      <c r="R78" s="279"/>
+      <c r="S78" s="279"/>
       <c r="T78" s="143"/>
       <c r="U78" s="143"/>
-      <c r="V78" s="151"/>
-      <c r="W78" s="151"/>
+      <c r="V78" s="279"/>
+      <c r="W78" s="279"/>
       <c r="X78" s="14"/>
     </row>
     <row r="79" spans="1:24" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -6253,40 +6252,40 @@
       <c r="L79" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="M79" s="282" t="s">
+      <c r="M79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="N79" s="282" t="s">
+      <c r="N79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="O79" s="282" t="s">
+      <c r="O79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="P79" s="282" t="s">
+      <c r="P79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="Q79" s="282" t="s">
+      <c r="Q79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="R79" s="282" t="s">
+      <c r="R79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="S79" s="282" t="s">
+      <c r="S79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="T79" s="282" t="s">
+      <c r="T79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="U79" s="282" t="s">
+      <c r="U79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="V79" s="282" t="s">
+      <c r="V79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="W79" s="282" t="s">
+      <c r="W79" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="X79" s="284"/>
+      <c r="X79" s="152"/>
     </row>
     <row r="80" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="148"/>
@@ -6302,18 +6301,18 @@
       <c r="L80" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="M80" s="283"/>
-      <c r="N80" s="283"/>
-      <c r="O80" s="283"/>
-      <c r="P80" s="283"/>
-      <c r="Q80" s="283"/>
-      <c r="R80" s="283"/>
-      <c r="S80" s="283"/>
-      <c r="T80" s="283"/>
-      <c r="U80" s="283"/>
-      <c r="V80" s="283"/>
-      <c r="W80" s="283"/>
-      <c r="X80" s="284"/>
+      <c r="M80" s="151"/>
+      <c r="N80" s="151"/>
+      <c r="O80" s="151"/>
+      <c r="P80" s="151"/>
+      <c r="Q80" s="151"/>
+      <c r="R80" s="151"/>
+      <c r="S80" s="151"/>
+      <c r="T80" s="151"/>
+      <c r="U80" s="151"/>
+      <c r="V80" s="151"/>
+      <c r="W80" s="151"/>
+      <c r="X80" s="152"/>
     </row>
     <row r="81" spans="12:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="L81" s="140" t="s">
@@ -6329,19 +6328,198 @@
     <row r="116" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="229">
-    <mergeCell ref="V79:V80"/>
-    <mergeCell ref="W79:W80"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="U79:U80"/>
+  <mergeCells count="227">
+    <mergeCell ref="Q77:S78"/>
+    <mergeCell ref="V77:W78"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:W73"/>
+    <mergeCell ref="L74:W74"/>
+    <mergeCell ref="L75:W75"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="M23:W24"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="M41:W42"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="M46:W47"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="U27"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="R55:W55"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="W27"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="P65:S65"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="L64:W64"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="D6:E12"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M4:W5"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="V14:V17"/>
     <mergeCell ref="V67:W67"/>
     <mergeCell ref="O33:P33"/>
     <mergeCell ref="Q33:R33"/>
@@ -6366,199 +6544,18 @@
     <mergeCell ref="V60:W60"/>
     <mergeCell ref="N65:N66"/>
     <mergeCell ref="M28:N28"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M4:W5"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="L64:W64"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="D6:E12"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="W27"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="U27"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="M23:W24"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="M41:W42"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="M46:W47"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q77:S78"/>
-    <mergeCell ref="V77:W78"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:W73"/>
-    <mergeCell ref="L74:W74"/>
-    <mergeCell ref="L75:W75"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V79:V80"/>
+    <mergeCell ref="W79:W80"/>
+    <mergeCell ref="X79:X80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="U79:U80"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047249" footer="0.19685039370078741"/>

--- a/property_excel/template_gnkt_bopz.xlsx
+++ b/property_excel/template_gnkt_bopz.xlsx
@@ -18,21 +18,21 @@
     <definedName name="element_1">СХЕМА!$U$19</definedName>
     <definedName name="воронка">СХЕМА!$S$22</definedName>
     <definedName name="воронка_">СХЕМА!$S$22</definedName>
-    <definedName name="забой">СХЕМА!$V$44</definedName>
-    <definedName name="забой_">СХЕМА!$V$44</definedName>
-    <definedName name="м">СХЕМА!$A$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">СХЕМА!$B$3:$X$82</definedName>
-    <definedName name="объем_глушения">СХЕМА!$V$52</definedName>
+    <definedName name="забой">СХЕМА!$V$45</definedName>
+    <definedName name="забой_">СХЕМА!$V$45</definedName>
+    <definedName name="м">СХЕМА!$A$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">СХЕМА!$B$3:$X$84</definedName>
+    <definedName name="объем_глушения">СХЕМА!$V$53</definedName>
     <definedName name="объем_трубного">СХЕМА!$W$17+СХЕМА!$W$18+СХЕМА!$W$19</definedName>
     <definedName name="пакер">СХЕМА!$U$19</definedName>
-    <definedName name="раствор_глушения">СХЕМА!$R$52</definedName>
+    <definedName name="раствор_глушения">СХЕМА!$R$53</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>СХЕМА СКВАЖИНЫ</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>ПЛАСТ</t>
+  </si>
+  <si>
+    <t>Плотность рабочей жидкости</t>
+  </si>
+  <si>
+    <t>1.01</t>
   </si>
 </sst>
 </file>
@@ -267,13 +273,13 @@
     <numFmt numFmtId="183" formatCode="0&quot;ая&quot;"/>
     <numFmt numFmtId="184" formatCode="0.0&quot; мг/дм3&quot;"/>
     <numFmt numFmtId="185" formatCode="General&quot; м3/сут&quot;"/>
-    <numFmt numFmtId="188" formatCode="0&quot; атм&quot;"/>
-    <numFmt numFmtId="189" formatCode="General&quot; м3/т&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.0&quot;-&quot;"/>
-    <numFmt numFmtId="191" formatCode="_-* #,##0\ _р_._-;\-* #,##0\ _р_._-;_-* &quot;-&quot;\ _р_._-;_-@_-"/>
-    <numFmt numFmtId="192" formatCode="_-* #,##0\ _d_._-;\-* #,##0\ _d_._-;_-* &quot;-&quot;\ _d_._-;_-@_-"/>
-    <numFmt numFmtId="193" formatCode="_-* #,##0.00\ _d_._-;\-* #,##0.00\ _d_._-;_-* &quot;-&quot;??\ _d_._-;_-@_-"/>
-    <numFmt numFmtId="194" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="0&quot; атм&quot;"/>
+    <numFmt numFmtId="187" formatCode="General&quot; м3/т&quot;"/>
+    <numFmt numFmtId="188" formatCode="0.0&quot;-&quot;"/>
+    <numFmt numFmtId="189" formatCode="_-* #,##0\ _р_._-;\-* #,##0\ _р_._-;_-* &quot;-&quot;\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="190" formatCode="_-* #,##0\ _d_._-;\-* #,##0\ _d_._-;_-* &quot;-&quot;\ _d_._-;_-@_-"/>
+    <numFmt numFmtId="191" formatCode="_-* #,##0.00\ _d_._-;\-* #,##0.00\ _d_._-;_-* &quot;-&quot;??\ _d_._-;_-@_-"/>
+    <numFmt numFmtId="192" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
   <fonts count="66" x14ac:knownFonts="1">
     <font>
@@ -962,7 +968,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -1885,6 +1891,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="440">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2272,7 +2291,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="191" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -2286,8 +2305,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="192" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="191" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -2300,7 +2319,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="194" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="192" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="41"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="42"/>
@@ -2342,7 +2361,7 @@
     <xf numFmtId="0" fontId="32" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="34" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2419,9 +2438,6 @@
     </xf>
     <xf numFmtId="2" fontId="42" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2579,9 +2595,6 @@
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2629,9 +2642,6 @@
     <xf numFmtId="166" fontId="43" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="42" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2749,128 +2759,286 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="39" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="174" fontId="42" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="25" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="170" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2878,17 +3046,8 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="184" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2915,206 +3074,97 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="39" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="25" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="25" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="42" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3623,13 +3673,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>515711</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>106136</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>106135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3691,13 +3741,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1091046</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>207820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>155864</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>48493</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3749,13 +3799,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>150791</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>112693</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4103,40 +4153,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X117"/>
+  <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="14" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="4.85546875" style="85" customWidth="1"/>
-    <col min="3" max="3" width="1.140625" style="85" customWidth="1"/>
-    <col min="4" max="4" width="2.5703125" style="85" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="85" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="85" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="85" customWidth="1"/>
-    <col min="8" max="8" width="3" style="85" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="85" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" style="85" customWidth="1"/>
-    <col min="11" max="11" width="5" style="85" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="85" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="85" customWidth="1"/>
-    <col min="14" max="15" width="9.5703125" style="85" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="85" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="85" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="85" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="85" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="85" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" style="85" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="85" customWidth="1"/>
-    <col min="23" max="23" width="21.42578125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="84" customWidth="1"/>
+    <col min="3" max="3" width="1.140625" style="84" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="84" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="84" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="84" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="84" customWidth="1"/>
+    <col min="8" max="8" width="3" style="84" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="84" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="84" customWidth="1"/>
+    <col min="11" max="11" width="5" style="84" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="84" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="84" customWidth="1"/>
+    <col min="14" max="15" width="9.5703125" style="84" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="84" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="84" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="84" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" style="84" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="84" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" style="84" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" style="84" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="84" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
+      <c r="A1" s="56"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4153,15 +4203,15 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="R1" s="272"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
     </row>
     <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4186,34 +4236,34 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="204" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="259" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="259"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="259"/>
+      <c r="U3" s="259"/>
+      <c r="V3" s="259"/>
+      <c r="W3" s="259"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4225,22 +4275,22 @@
       <c r="J4" s="2"/>
       <c r="K4" s="12"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="176" t="s">
+      <c r="M4" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4252,166 +4302,166 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="174"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="174"/>
-      <c r="S5" s="174"/>
-      <c r="T5" s="174"/>
-      <c r="U5" s="174"/>
-      <c r="V5" s="174"/>
-      <c r="W5" s="174"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="243" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="163"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="250"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="164"/>
+      <c r="N6" s="219"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="224"/>
+      <c r="Q6" s="219"/>
+      <c r="R6" s="219"/>
+      <c r="S6" s="219"/>
+      <c r="T6" s="219"/>
+      <c r="U6" s="219"/>
+      <c r="V6" s="219"/>
+      <c r="W6" s="161"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="195" t="s">
+      <c r="D7" s="158"/>
+      <c r="E7" s="267"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="161"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="225"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="156"/>
+      <c r="W7" s="153"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="188" t="s">
+      <c r="D8" s="158"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="282" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="189"/>
-      <c r="O8" s="190"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="189"/>
-      <c r="R8" s="189"/>
-      <c r="S8" s="189"/>
-      <c r="T8" s="189"/>
-      <c r="U8" s="189"/>
-      <c r="V8" s="189"/>
-      <c r="W8" s="190"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="187"/>
+      <c r="Q8" s="188"/>
+      <c r="R8" s="188"/>
+      <c r="S8" s="188"/>
+      <c r="T8" s="188"/>
+      <c r="U8" s="188"/>
+      <c r="V8" s="188"/>
+      <c r="W8" s="189"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="235" t="s">
+      <c r="D9" s="158"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="163"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="181" t="s">
+      <c r="N9" s="219"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="181" t="s">
+      <c r="Q9" s="209" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="181" t="s">
+      <c r="R9" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="232" t="s">
+      <c r="S9" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="233"/>
-      <c r="U9" s="181" t="s">
+      <c r="T9" s="202"/>
+      <c r="U9" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="181" t="s">
+      <c r="V9" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="164"/>
+      <c r="W9" s="161"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="203" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="161"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="174"/>
-      <c r="T10" s="174"/>
-      <c r="U10" s="165"/>
-      <c r="V10" s="90" t="s">
+      <c r="N10" s="156"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="210"/>
+      <c r="Q10" s="210"/>
+      <c r="R10" s="210"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="158"/>
+      <c r="U10" s="210"/>
+      <c r="V10" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="W10" s="32" t="s">
+      <c r="W10" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4419,82 +4469,82 @@
       <c r="A11"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="193" t="s">
+      <c r="D11" s="158"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="161"/>
-      <c r="O11" s="194"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="171"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="97"/>
+      <c r="S11" s="95"/>
       <c r="T11" s="27"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="100"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="98"/>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="193" t="s">
+      <c r="D12" s="268"/>
+      <c r="E12" s="269"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="161"/>
-      <c r="O12" s="194"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="171"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="22"/>
-      <c r="S12" s="97"/>
+      <c r="S12" s="95"/>
       <c r="T12" s="27"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="100"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="98"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="52"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="193" t="s">
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="161"/>
-      <c r="O13" s="194"/>
-      <c r="P13" s="91"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="89"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
-      <c r="S13" s="97"/>
+      <c r="S13" s="95"/>
       <c r="T13" s="27"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="100"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="98"/>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
@@ -4502,26 +4552,26 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="160" t="s">
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="189"/>
-      <c r="O14" s="190"/>
-      <c r="P14" s="270"/>
-      <c r="Q14" s="246"/>
-      <c r="R14" s="246"/>
-      <c r="S14" s="247"/>
-      <c r="T14" s="196"/>
-      <c r="U14" s="201"/>
-      <c r="V14" s="199"/>
-      <c r="W14" s="183"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="212"/>
+      <c r="Q14" s="214"/>
+      <c r="R14" s="214"/>
+      <c r="S14" s="222"/>
+      <c r="T14" s="284"/>
+      <c r="U14" s="257"/>
+      <c r="V14" s="285"/>
+      <c r="W14" s="279"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
@@ -4529,24 +4579,24 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="271"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="197"/>
-      <c r="P15" s="200"/>
-      <c r="Q15" s="200"/>
-      <c r="R15" s="200"/>
-      <c r="S15" s="248"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="200"/>
-      <c r="V15" s="200"/>
-      <c r="W15" s="184"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="215"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="216"/>
+      <c r="P15" s="213"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="213"/>
+      <c r="S15" s="223"/>
+      <c r="T15" s="216"/>
+      <c r="U15" s="213"/>
+      <c r="V15" s="213"/>
+      <c r="W15" s="280"/>
     </row>
     <row r="16" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
@@ -4554,24 +4604,24 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="271"/>
-      <c r="N16" s="174"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="200"/>
-      <c r="Q16" s="200"/>
-      <c r="R16" s="200"/>
-      <c r="S16" s="248"/>
-      <c r="T16" s="197"/>
-      <c r="U16" s="200"/>
-      <c r="V16" s="200"/>
-      <c r="W16" s="184"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="216"/>
+      <c r="P16" s="213"/>
+      <c r="Q16" s="213"/>
+      <c r="R16" s="213"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="216"/>
+      <c r="U16" s="213"/>
+      <c r="V16" s="213"/>
+      <c r="W16" s="280"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
@@ -4579,24 +4629,24 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="267"/>
-      <c r="N17" s="178"/>
-      <c r="O17" s="198"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="165"/>
-      <c r="S17" s="249"/>
-      <c r="T17" s="198"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="185"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="206"/>
+      <c r="N17" s="217"/>
+      <c r="O17" s="207"/>
+      <c r="P17" s="210"/>
+      <c r="Q17" s="210"/>
+      <c r="R17" s="210"/>
+      <c r="S17" s="208"/>
+      <c r="T17" s="207"/>
+      <c r="U17" s="210"/>
+      <c r="V17" s="210"/>
+      <c r="W17" s="247"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
@@ -4604,26 +4654,26 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="186" t="s">
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="187"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="105"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="103"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
@@ -4631,26 +4681,26 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="2"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="177" t="s">
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="275" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="178"/>
-      <c r="O19" s="179"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="276"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="30"/>
       <c r="R19" s="29"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="108"/>
-      <c r="W19" s="109"/>
+      <c r="S19" s="303"/>
+      <c r="T19" s="304"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="106"/>
     </row>
     <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -4658,24 +4708,24 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="156"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="156"/>
+      <c r="Q20" s="153"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="97"/>
+      <c r="S20" s="95"/>
       <c r="T20" s="27"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="100"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="98"/>
     </row>
     <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
@@ -4683,24 +4733,24 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="272"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="194"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="171"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
-      <c r="S21" s="111"/>
+      <c r="S21" s="108"/>
       <c r="T21" s="28"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="114"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="111"/>
     </row>
     <row r="22" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
@@ -4708,26 +4758,26 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="275" t="s">
+      <c r="F22" s="48"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="187"/>
-      <c r="O22" s="264"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="263"/>
-      <c r="T22" s="264"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="116"/>
-      <c r="W22" s="117"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="203"/>
+      <c r="T22" s="177"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="114"/>
     </row>
     <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
@@ -4735,26 +4785,26 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="257" t="s">
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="174"/>
-      <c r="O23" s="174"/>
-      <c r="P23" s="174"/>
-      <c r="Q23" s="174"/>
-      <c r="R23" s="174"/>
-      <c r="S23" s="174"/>
-      <c r="T23" s="174"/>
-      <c r="U23" s="174"/>
-      <c r="V23" s="174"/>
-      <c r="W23" s="174"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="158"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="158"/>
+      <c r="T23" s="158"/>
+      <c r="U23" s="158"/>
+      <c r="V23" s="158"/>
+      <c r="W23" s="158"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -4762,26 +4812,26 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="77" t="s">
+      <c r="F24" s="44"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="77"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="174"/>
-      <c r="O24" s="174"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="174"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="174"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="158"/>
+      <c r="S24" s="158"/>
+      <c r="T24" s="158"/>
+      <c r="U24" s="158"/>
+      <c r="V24" s="158"/>
+      <c r="W24" s="158"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
@@ -4789,34 +4839,34 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="265" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="266"/>
-      <c r="O25" s="162" t="s">
+      <c r="N25" s="205"/>
+      <c r="O25" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="266"/>
-      <c r="Q25" s="162" t="s">
+      <c r="P25" s="205"/>
+      <c r="Q25" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="163"/>
-      <c r="S25" s="163"/>
-      <c r="T25" s="164"/>
-      <c r="U25" s="162" t="s">
+      <c r="R25" s="219"/>
+      <c r="S25" s="219"/>
+      <c r="T25" s="161"/>
+      <c r="U25" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="V25" s="182" t="s">
+      <c r="V25" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="W25" s="231" t="s">
+      <c r="W25" s="246" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4826,378 +4876,377 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="276"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
-      <c r="M26" s="267"/>
-      <c r="N26" s="198"/>
-      <c r="O26" s="249"/>
-      <c r="P26" s="198"/>
-      <c r="Q26" s="240" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="206"/>
+      <c r="N26" s="207"/>
+      <c r="O26" s="208"/>
+      <c r="P26" s="207"/>
+      <c r="Q26" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="190"/>
-      <c r="S26" s="240" t="s">
+      <c r="R26" s="189"/>
+      <c r="S26" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="T26" s="190"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="185"/>
-    </row>
-    <row r="27" spans="1:23" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T26" s="189"/>
+      <c r="U26" s="210"/>
+      <c r="V26" s="210"/>
+      <c r="W26" s="247"/>
+    </row>
+    <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="156"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="156"/>
-      <c r="S27" s="157"/>
-      <c r="T27" s="156"/>
-      <c r="U27" s="252"/>
-      <c r="V27" s="167"/>
-      <c r="W27" s="234"/>
-    </row>
-    <row r="28" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="186"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="226"/>
+      <c r="V27" s="286"/>
+      <c r="W27" s="249"/>
+    </row>
+    <row r="28" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="157"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="42"/>
-    </row>
-    <row r="29" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="191"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="186"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="41"/>
+    </row>
+    <row r="29" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="274"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="174"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="156"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="156"/>
-      <c r="S29" s="157"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="42"/>
-    </row>
-    <row r="30" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="117"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="173"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="153"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="186"/>
+      <c r="T29" s="153"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="41"/>
+    </row>
+    <row r="30" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="174"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="155"/>
-      <c r="P30" s="156"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="156"/>
-      <c r="S30" s="157"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="42"/>
-    </row>
-    <row r="31" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="117"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="186"/>
+      <c r="T30" s="153"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="41"/>
+    </row>
+    <row r="31" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="174"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="155"/>
-      <c r="P31" s="156"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="156"/>
-      <c r="S31" s="157"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="42"/>
-    </row>
-    <row r="32" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="117"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="173"/>
+      <c r="N31" s="153"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="186"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="41"/>
+    </row>
+    <row r="32" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="208"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="174"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="155"/>
-      <c r="P32" s="156"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="156"/>
-      <c r="S32" s="157"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="42"/>
-    </row>
-    <row r="33" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="186"/>
+      <c r="T32" s="153"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="41"/>
+    </row>
+    <row r="33" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="208"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="174"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="156"/>
-      <c r="O33" s="155"/>
-      <c r="P33" s="156"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="156"/>
-      <c r="S33" s="157"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="42"/>
-    </row>
-    <row r="34" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="208"/>
-      <c r="K34" s="174"/>
-      <c r="L34" s="174"/>
-      <c r="M34" s="170"/>
-      <c r="N34" s="156"/>
-      <c r="O34" s="155"/>
-      <c r="P34" s="156"/>
-      <c r="Q34" s="157"/>
-      <c r="R34" s="156"/>
-      <c r="S34" s="157"/>
-      <c r="T34" s="156"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="42"/>
-    </row>
-    <row r="35" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="173"/>
+      <c r="N33" s="153"/>
+      <c r="O33" s="191"/>
+      <c r="P33" s="153"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="186"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="41"/>
+    </row>
+    <row r="34" spans="1:23" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="292"/>
+      <c r="C34" s="292"/>
+      <c r="D34" s="292"/>
+      <c r="E34" s="292"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="293"/>
+      <c r="I34" s="294"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="295"/>
+      <c r="M34" s="296"/>
+      <c r="N34" s="297"/>
+      <c r="O34" s="298"/>
+      <c r="P34" s="298"/>
+      <c r="Q34" s="299"/>
+      <c r="R34" s="299"/>
+      <c r="S34" s="299"/>
+      <c r="T34" s="299"/>
+      <c r="U34" s="300"/>
+      <c r="V34" s="301"/>
+      <c r="W34" s="302"/>
+    </row>
+    <row r="35" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="208"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="174"/>
-      <c r="M35" s="170"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="156"/>
-      <c r="Q35" s="157"/>
-      <c r="R35" s="156"/>
-      <c r="S35" s="157"/>
-      <c r="T35" s="156"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="42"/>
-    </row>
-    <row r="36" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="158"/>
+      <c r="L35" s="158"/>
+      <c r="M35" s="173"/>
+      <c r="N35" s="153"/>
+      <c r="O35" s="191"/>
+      <c r="P35" s="153"/>
+      <c r="Q35" s="186"/>
+      <c r="R35" s="153"/>
+      <c r="S35" s="186"/>
+      <c r="T35" s="153"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="41"/>
+    </row>
+    <row r="36" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="208"/>
-      <c r="K36" s="174"/>
-      <c r="L36" s="174"/>
-      <c r="M36" s="170"/>
-      <c r="N36" s="156"/>
-      <c r="O36" s="155"/>
-      <c r="P36" s="156"/>
-      <c r="Q36" s="157"/>
-      <c r="R36" s="156"/>
-      <c r="S36" s="157"/>
-      <c r="T36" s="156"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="42"/>
-    </row>
-    <row r="37" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="158"/>
+      <c r="L36" s="158"/>
+      <c r="M36" s="173"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="191"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="186"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="186"/>
+      <c r="T36" s="153"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="41"/>
+    </row>
+    <row r="37" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="208"/>
-      <c r="K37" s="174"/>
-      <c r="L37" s="174"/>
-      <c r="M37" s="170"/>
-      <c r="N37" s="156"/>
-      <c r="O37" s="155"/>
-      <c r="P37" s="156"/>
-      <c r="Q37" s="157"/>
-      <c r="R37" s="156"/>
-      <c r="S37" s="157"/>
-      <c r="T37" s="156"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="42"/>
-    </row>
-    <row r="38" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="158"/>
+      <c r="L37" s="158"/>
+      <c r="M37" s="173"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="191"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="153"/>
+      <c r="S37" s="186"/>
+      <c r="T37" s="153"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="41"/>
+    </row>
+    <row r="38" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="208"/>
-      <c r="K38" s="174"/>
-      <c r="L38" s="174"/>
-      <c r="M38" s="170"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="155"/>
-      <c r="P38" s="156"/>
-      <c r="Q38" s="157"/>
-      <c r="R38" s="156"/>
-      <c r="S38" s="157"/>
-      <c r="T38" s="156"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="42"/>
-    </row>
-    <row r="39" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="158"/>
+      <c r="L38" s="158"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="153"/>
+      <c r="O38" s="191"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="186"/>
+      <c r="R38" s="153"/>
+      <c r="S38" s="186"/>
+      <c r="T38" s="153"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="41"/>
+    </row>
+    <row r="39" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="208"/>
-      <c r="K39" s="174"/>
-      <c r="L39" s="174"/>
-      <c r="M39" s="170"/>
-      <c r="N39" s="156"/>
-      <c r="O39" s="155"/>
-      <c r="P39" s="156"/>
-      <c r="Q39" s="157"/>
-      <c r="R39" s="156"/>
-      <c r="S39" s="157"/>
-      <c r="T39" s="156"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="42"/>
-    </row>
-    <row r="40" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="158"/>
+      <c r="L39" s="158"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="153"/>
+      <c r="O39" s="191"/>
+      <c r="P39" s="153"/>
+      <c r="Q39" s="186"/>
+      <c r="R39" s="153"/>
+      <c r="S39" s="186"/>
+      <c r="T39" s="153"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="41"/>
+    </row>
+    <row r="40" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="208"/>
-      <c r="K40" s="174"/>
-      <c r="L40" s="174"/>
-      <c r="M40" s="175"/>
-      <c r="N40" s="154"/>
-      <c r="O40" s="254"/>
-      <c r="P40" s="154"/>
-      <c r="Q40" s="202"/>
-      <c r="R40" s="154"/>
-      <c r="S40" s="202"/>
-      <c r="T40" s="154"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="158"/>
+      <c r="L40" s="158"/>
+      <c r="M40" s="173"/>
+      <c r="N40" s="153"/>
+      <c r="O40" s="191"/>
+      <c r="P40" s="153"/>
+      <c r="Q40" s="186"/>
+      <c r="R40" s="153"/>
+      <c r="S40" s="186"/>
+      <c r="T40" s="153"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="41"/>
     </row>
     <row r="41" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
@@ -5205,78 +5254,76 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="258" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41" s="258"/>
-      <c r="O41" s="258"/>
-      <c r="P41" s="258"/>
-      <c r="Q41" s="258"/>
-      <c r="R41" s="258"/>
-      <c r="S41" s="258"/>
-      <c r="T41" s="258"/>
-      <c r="U41" s="258"/>
-      <c r="V41" s="258"/>
-      <c r="W41" s="258"/>
-    </row>
-    <row r="42" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="158"/>
+      <c r="L41" s="158"/>
+      <c r="M41" s="273"/>
+      <c r="N41" s="151"/>
+      <c r="O41" s="229"/>
+      <c r="P41" s="151"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="151"/>
+      <c r="S41" s="185"/>
+      <c r="T41" s="151"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="43"/>
+    </row>
+    <row r="42" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="59"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
       <c r="L42" s="56"/>
-      <c r="M42" s="259"/>
-      <c r="N42" s="259"/>
-      <c r="O42" s="259"/>
-      <c r="P42" s="259"/>
-      <c r="Q42" s="259"/>
-      <c r="R42" s="259"/>
-      <c r="S42" s="259"/>
-      <c r="T42" s="259"/>
-      <c r="U42" s="259"/>
-      <c r="V42" s="259"/>
-      <c r="W42" s="259"/>
-    </row>
-    <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="194" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="194"/>
+      <c r="O42" s="194"/>
+      <c r="P42" s="194"/>
+      <c r="Q42" s="194"/>
+      <c r="R42" s="194"/>
+      <c r="S42" s="194"/>
+      <c r="T42" s="194"/>
+      <c r="U42" s="194"/>
+      <c r="V42" s="194"/>
+      <c r="W42" s="194"/>
+    </row>
+    <row r="43" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="222" t="s">
-        <v>33</v>
-      </c>
-      <c r="N43" s="163"/>
-      <c r="O43" s="163"/>
-      <c r="P43" s="163"/>
-      <c r="Q43" s="163"/>
-      <c r="R43" s="163"/>
-      <c r="S43" s="163"/>
-      <c r="T43" s="163"/>
-      <c r="U43" s="223"/>
-      <c r="V43" s="261"/>
-      <c r="W43" s="223"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="195"/>
+      <c r="N43" s="195"/>
+      <c r="O43" s="195"/>
+      <c r="P43" s="195"/>
+      <c r="Q43" s="195"/>
+      <c r="R43" s="195"/>
+      <c r="S43" s="195"/>
+      <c r="T43" s="195"/>
+      <c r="U43" s="195"/>
+      <c r="V43" s="195"/>
+      <c r="W43" s="195"/>
     </row>
     <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
@@ -5284,53 +5331,53 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="228" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="161"/>
-      <c r="O44" s="161"/>
-      <c r="P44" s="161"/>
-      <c r="Q44" s="161"/>
-      <c r="R44" s="161"/>
-      <c r="S44" s="161"/>
-      <c r="T44" s="161"/>
-      <c r="U44" s="229"/>
-      <c r="V44" s="260"/>
-      <c r="W44" s="229"/>
-    </row>
-    <row r="45" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="252" t="s">
+        <v>33</v>
+      </c>
+      <c r="N44" s="219"/>
+      <c r="O44" s="219"/>
+      <c r="P44" s="219"/>
+      <c r="Q44" s="219"/>
+      <c r="R44" s="219"/>
+      <c r="S44" s="219"/>
+      <c r="T44" s="219"/>
+      <c r="U44" s="200"/>
+      <c r="V44" s="199"/>
+      <c r="W44" s="200"/>
+    </row>
+    <row r="45" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="237" t="s">
-        <v>35</v>
-      </c>
-      <c r="N45" s="187"/>
-      <c r="O45" s="187"/>
-      <c r="P45" s="187"/>
-      <c r="Q45" s="187"/>
-      <c r="R45" s="187"/>
-      <c r="S45" s="187"/>
-      <c r="T45" s="187"/>
-      <c r="U45" s="192"/>
-      <c r="V45" s="191"/>
-      <c r="W45" s="192"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="244" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="156"/>
+      <c r="O45" s="156"/>
+      <c r="P45" s="156"/>
+      <c r="Q45" s="156"/>
+      <c r="R45" s="156"/>
+      <c r="S45" s="156"/>
+      <c r="T45" s="156"/>
+      <c r="U45" s="197"/>
+      <c r="V45" s="196"/>
+      <c r="W45" s="197"/>
     </row>
     <row r="46" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
@@ -5338,75 +5385,78 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="262" t="s">
-        <v>36</v>
-      </c>
-      <c r="N46" s="233"/>
-      <c r="O46" s="233"/>
-      <c r="P46" s="233"/>
-      <c r="Q46" s="233"/>
-      <c r="R46" s="233"/>
-      <c r="S46" s="233"/>
-      <c r="T46" s="233"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="232" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" s="176"/>
+      <c r="O46" s="176"/>
+      <c r="P46" s="176"/>
+      <c r="Q46" s="176"/>
+      <c r="R46" s="176"/>
+      <c r="S46" s="176"/>
+      <c r="T46" s="176"/>
       <c r="U46" s="233"/>
-      <c r="V46" s="233"/>
+      <c r="V46" s="283"/>
       <c r="W46" s="233"/>
     </row>
-    <row r="47" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="174"/>
-      <c r="N47" s="174"/>
-      <c r="O47" s="174"/>
-      <c r="P47" s="174"/>
-      <c r="Q47" s="174"/>
-      <c r="R47" s="174"/>
-      <c r="S47" s="174"/>
-      <c r="T47" s="174"/>
-      <c r="U47" s="174"/>
-      <c r="V47" s="174"/>
-      <c r="W47" s="174"/>
-    </row>
-    <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="201" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" s="201"/>
+      <c r="O47" s="201"/>
+      <c r="P47" s="201"/>
+      <c r="Q47" s="201"/>
+      <c r="R47" s="201"/>
+      <c r="S47" s="201"/>
+      <c r="T47" s="201"/>
+      <c r="U47" s="201"/>
+      <c r="V47" s="201"/>
+      <c r="W47" s="201"/>
+    </row>
+    <row r="48" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="M48" s="245" t="s">
-        <v>37</v>
-      </c>
-      <c r="N48" s="163"/>
-      <c r="O48" s="163"/>
-      <c r="P48" s="163"/>
-      <c r="Q48" s="164"/>
-      <c r="R48" s="277"/>
-      <c r="S48" s="164"/>
-      <c r="T48" s="284"/>
-      <c r="U48" s="164"/>
-      <c r="V48" s="283"/>
-      <c r="W48" s="164"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="147"/>
+      <c r="N48" s="147"/>
+      <c r="O48" s="147"/>
+      <c r="P48" s="147"/>
+      <c r="Q48" s="147"/>
+      <c r="R48" s="147"/>
+      <c r="S48" s="147"/>
+      <c r="T48" s="147"/>
+      <c r="U48" s="147"/>
+      <c r="V48" s="147"/>
+      <c r="W48" s="147"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
@@ -5414,23 +5464,23 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="M49" s="160" t="s">
-        <v>38</v>
-      </c>
-      <c r="N49" s="161"/>
-      <c r="O49" s="161"/>
-      <c r="P49" s="161"/>
-      <c r="Q49" s="156"/>
-      <c r="R49" s="206"/>
-      <c r="S49" s="156"/>
-      <c r="T49" s="280"/>
-      <c r="U49" s="156"/>
-      <c r="V49" s="180"/>
-      <c r="W49" s="156"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="M49" s="221" t="s">
+        <v>37</v>
+      </c>
+      <c r="N49" s="219"/>
+      <c r="O49" s="219"/>
+      <c r="P49" s="219"/>
+      <c r="Q49" s="161"/>
+      <c r="R49" s="183"/>
+      <c r="S49" s="161"/>
+      <c r="T49" s="162"/>
+      <c r="U49" s="161"/>
+      <c r="V49" s="160"/>
+      <c r="W49" s="161"/>
     </row>
     <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
@@ -5438,23 +5488,23 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
-      <c r="M50" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="N50" s="161"/>
-      <c r="O50" s="161"/>
-      <c r="P50" s="161"/>
-      <c r="Q50" s="156"/>
-      <c r="R50" s="225"/>
-      <c r="S50" s="156"/>
-      <c r="T50" s="238"/>
-      <c r="U50" s="156"/>
-      <c r="V50" s="236"/>
-      <c r="W50" s="156"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="M50" s="155" t="s">
+        <v>38</v>
+      </c>
+      <c r="N50" s="156"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="153"/>
+      <c r="R50" s="260"/>
+      <c r="S50" s="153"/>
+      <c r="T50" s="152"/>
+      <c r="U50" s="153"/>
+      <c r="V50" s="277"/>
+      <c r="W50" s="153"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
@@ -5462,221 +5512,217 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="160" t="s">
-        <v>40</v>
-      </c>
-      <c r="N51" s="161"/>
-      <c r="O51" s="161"/>
-      <c r="P51" s="161"/>
-      <c r="Q51" s="156"/>
-      <c r="R51" s="253"/>
-      <c r="S51" s="156"/>
-      <c r="T51" s="207"/>
-      <c r="U51" s="156"/>
-      <c r="V51" s="236"/>
-      <c r="W51" s="156"/>
-    </row>
-    <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="M51" s="155" t="s">
+        <v>39</v>
+      </c>
+      <c r="N51" s="156"/>
+      <c r="O51" s="156"/>
+      <c r="P51" s="156"/>
+      <c r="Q51" s="153"/>
+      <c r="R51" s="256"/>
+      <c r="S51" s="153"/>
+      <c r="T51" s="234"/>
+      <c r="U51" s="153"/>
+      <c r="V51" s="230"/>
+      <c r="W51" s="153"/>
+    </row>
+    <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="195" t="s">
-        <v>41</v>
-      </c>
-      <c r="N52" s="161"/>
-      <c r="O52" s="161"/>
-      <c r="P52" s="161"/>
-      <c r="Q52" s="156"/>
-      <c r="R52" s="239"/>
-      <c r="S52" s="156"/>
-      <c r="T52" s="212" t="s">
-        <v>42</v>
-      </c>
-      <c r="U52" s="156"/>
-      <c r="V52" s="282"/>
-      <c r="W52" s="156"/>
-    </row>
-    <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="153"/>
+      <c r="R52" s="227"/>
+      <c r="S52" s="153"/>
+      <c r="T52" s="228"/>
+      <c r="U52" s="153"/>
+      <c r="V52" s="230"/>
+      <c r="W52" s="153"/>
+    </row>
+    <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
-      <c r="J53" s="123"/>
-      <c r="K53"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="86"/>
       <c r="L53" s="86"/>
-      <c r="M53" s="195" t="s">
-        <v>43</v>
-      </c>
-      <c r="N53" s="161"/>
-      <c r="O53" s="161"/>
-      <c r="P53" s="161"/>
-      <c r="Q53" s="156"/>
-      <c r="R53" s="209"/>
-      <c r="S53" s="156"/>
-      <c r="T53" s="244"/>
-      <c r="U53" s="156"/>
-      <c r="V53" s="290"/>
-      <c r="W53" s="156"/>
-    </row>
-    <row r="54" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M53" s="178" t="s">
+        <v>41</v>
+      </c>
+      <c r="N53" s="156"/>
+      <c r="O53" s="156"/>
+      <c r="P53" s="156"/>
+      <c r="Q53" s="153"/>
+      <c r="R53" s="235"/>
+      <c r="S53" s="153"/>
+      <c r="T53" s="264" t="s">
+        <v>42</v>
+      </c>
+      <c r="U53" s="153"/>
+      <c r="V53" s="159"/>
+      <c r="W53" s="153"/>
+    </row>
+    <row r="54" spans="1:23" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="121"/>
-      <c r="M54" s="160" t="s">
-        <v>44</v>
-      </c>
-      <c r="N54" s="161"/>
-      <c r="O54" s="161"/>
-      <c r="P54" s="161"/>
-      <c r="Q54" s="156"/>
-      <c r="R54" s="226"/>
-      <c r="S54" s="156"/>
-      <c r="T54" s="207" t="s">
-        <v>45</v>
-      </c>
-      <c r="U54" s="156"/>
-      <c r="V54" s="241"/>
-      <c r="W54" s="156"/>
-    </row>
-    <row r="55" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="44"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="120"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="178" t="s">
+        <v>67</v>
+      </c>
+      <c r="N54" s="156"/>
+      <c r="O54" s="156"/>
+      <c r="P54" s="156"/>
+      <c r="Q54" s="153"/>
+      <c r="R54" s="261" t="s">
+        <v>68</v>
+      </c>
+      <c r="S54" s="153"/>
+      <c r="T54" s="220"/>
+      <c r="U54" s="153"/>
+      <c r="V54" s="169"/>
+      <c r="W54" s="153"/>
+    </row>
+    <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="126"/>
-      <c r="M55" s="160" t="s">
-        <v>46</v>
-      </c>
-      <c r="N55" s="161"/>
-      <c r="O55" s="161"/>
-      <c r="P55" s="161"/>
-      <c r="Q55" s="156"/>
-      <c r="R55" s="291"/>
-      <c r="S55" s="292"/>
-      <c r="T55" s="292"/>
-      <c r="U55" s="292"/>
-      <c r="V55" s="292"/>
-      <c r="W55" s="293"/>
-    </row>
-    <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="120"/>
+      <c r="K55"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="178" t="s">
+        <v>43</v>
+      </c>
+      <c r="N55" s="156"/>
+      <c r="O55" s="156"/>
+      <c r="P55" s="156"/>
+      <c r="Q55" s="153"/>
+      <c r="R55" s="261"/>
+      <c r="S55" s="153"/>
+      <c r="T55" s="220"/>
+      <c r="U55" s="153"/>
+      <c r="V55" s="169"/>
+      <c r="W55" s="153"/>
+    </row>
+    <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="195" t="s">
-        <v>47</v>
-      </c>
-      <c r="N56" s="161"/>
-      <c r="O56" s="161"/>
-      <c r="P56" s="161"/>
-      <c r="Q56" s="156"/>
-      <c r="R56" s="166"/>
-      <c r="S56" s="156"/>
-      <c r="T56" s="166"/>
-      <c r="U56" s="156"/>
-      <c r="V56" s="166"/>
-      <c r="W56" s="156"/>
-    </row>
-    <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="44"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="118"/>
+      <c r="M56" s="155" t="s">
+        <v>44</v>
+      </c>
+      <c r="N56" s="156"/>
+      <c r="O56" s="156"/>
+      <c r="P56" s="156"/>
+      <c r="Q56" s="153"/>
+      <c r="R56" s="241"/>
+      <c r="S56" s="153"/>
+      <c r="T56" s="228" t="s">
+        <v>45</v>
+      </c>
+      <c r="U56" s="153"/>
+      <c r="V56" s="236"/>
+      <c r="W56" s="153"/>
+    </row>
+    <row r="57" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="121"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="195" t="s">
-        <v>48</v>
-      </c>
-      <c r="N57" s="161"/>
-      <c r="O57" s="161"/>
-      <c r="P57" s="161"/>
-      <c r="Q57" s="156"/>
-      <c r="R57" s="166"/>
-      <c r="S57" s="156"/>
-      <c r="T57" s="166"/>
-      <c r="U57" s="156"/>
-      <c r="V57" s="166"/>
-      <c r="W57" s="156"/>
-    </row>
-    <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="44"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="119"/>
+      <c r="J57" s="119"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="123"/>
+      <c r="M57" s="155" t="s">
+        <v>46</v>
+      </c>
+      <c r="N57" s="156"/>
+      <c r="O57" s="156"/>
+      <c r="P57" s="156"/>
+      <c r="Q57" s="153"/>
+      <c r="R57" s="238"/>
+      <c r="S57" s="239"/>
+      <c r="T57" s="239"/>
+      <c r="U57" s="239"/>
+      <c r="V57" s="239"/>
+      <c r="W57" s="240"/>
+    </row>
+    <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="195" t="s">
-        <v>49</v>
-      </c>
-      <c r="N58" s="161"/>
-      <c r="O58" s="161"/>
-      <c r="P58" s="161"/>
-      <c r="Q58" s="156"/>
-      <c r="R58" s="230"/>
-      <c r="S58" s="156"/>
-      <c r="T58" s="166" t="s">
-        <v>23</v>
-      </c>
-      <c r="U58" s="156"/>
-      <c r="V58" s="281"/>
-      <c r="W58" s="156"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="178" t="s">
+        <v>47</v>
+      </c>
+      <c r="N58" s="156"/>
+      <c r="O58" s="156"/>
+      <c r="P58" s="156"/>
+      <c r="Q58" s="153"/>
+      <c r="R58" s="243"/>
+      <c r="S58" s="153"/>
+      <c r="T58" s="243"/>
+      <c r="U58" s="153"/>
+      <c r="V58" s="243"/>
+      <c r="W58" s="153"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
@@ -5684,26 +5730,26 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="160" t="s">
-        <v>50</v>
-      </c>
-      <c r="N59" s="161"/>
-      <c r="O59" s="161"/>
-      <c r="P59" s="161"/>
-      <c r="Q59" s="156"/>
-      <c r="R59" s="268"/>
-      <c r="S59" s="156"/>
-      <c r="T59" s="166"/>
-      <c r="U59" s="156"/>
-      <c r="V59" s="169"/>
-      <c r="W59" s="156"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="178" t="s">
+        <v>48</v>
+      </c>
+      <c r="N59" s="156"/>
+      <c r="O59" s="156"/>
+      <c r="P59" s="156"/>
+      <c r="Q59" s="153"/>
+      <c r="R59" s="243"/>
+      <c r="S59" s="153"/>
+      <c r="T59" s="243"/>
+      <c r="U59" s="153"/>
+      <c r="V59" s="243"/>
+      <c r="W59" s="153"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
@@ -5711,202 +5757,184 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="160" t="s">
-        <v>51</v>
-      </c>
-      <c r="N60" s="161"/>
-      <c r="O60" s="161"/>
-      <c r="P60" s="161"/>
-      <c r="Q60" s="156"/>
-      <c r="R60" s="268"/>
-      <c r="S60" s="156"/>
-      <c r="T60" s="166"/>
-      <c r="U60" s="156"/>
-      <c r="V60" s="169"/>
-      <c r="W60" s="156"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="178" t="s">
+        <v>49</v>
+      </c>
+      <c r="N60" s="156"/>
+      <c r="O60" s="156"/>
+      <c r="P60" s="156"/>
+      <c r="Q60" s="153"/>
+      <c r="R60" s="245"/>
+      <c r="S60" s="153"/>
+      <c r="T60" s="243" t="s">
+        <v>23</v>
+      </c>
+      <c r="U60" s="153"/>
+      <c r="V60" s="154"/>
+      <c r="W60" s="153"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
-      <c r="B61" s="8"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="138"/>
-      <c r="G61" s="134"/>
-      <c r="H61" s="56"/>
-      <c r="M61" s="160" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="155" t="s">
+        <v>50</v>
+      </c>
+      <c r="N61" s="156"/>
+      <c r="O61" s="156"/>
+      <c r="P61" s="156"/>
+      <c r="Q61" s="153"/>
+      <c r="R61" s="180"/>
+      <c r="S61" s="153"/>
+      <c r="T61" s="243"/>
+      <c r="U61" s="153"/>
+      <c r="V61" s="288"/>
+      <c r="W61" s="153"/>
+    </row>
+    <row r="62" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="155" t="s">
+        <v>51</v>
+      </c>
+      <c r="N62" s="156"/>
+      <c r="O62" s="156"/>
+      <c r="P62" s="156"/>
+      <c r="Q62" s="153"/>
+      <c r="R62" s="180"/>
+      <c r="S62" s="153"/>
+      <c r="T62" s="243"/>
+      <c r="U62" s="153"/>
+      <c r="V62" s="288"/>
+      <c r="W62" s="153"/>
+    </row>
+    <row r="63" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="135"/>
+      <c r="G63" s="131"/>
+      <c r="H63" s="55"/>
+      <c r="M63" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="N61" s="161"/>
-      <c r="O61" s="161"/>
-      <c r="P61" s="161"/>
-      <c r="Q61" s="156"/>
-      <c r="R61" s="269"/>
-      <c r="S61" s="156"/>
-      <c r="T61" s="227"/>
-      <c r="U61" s="156"/>
-      <c r="V61" s="242"/>
-      <c r="W61" s="156"/>
-    </row>
-    <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="127"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="128"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="56"/>
-      <c r="M62" s="211" t="s">
+      <c r="N63" s="156"/>
+      <c r="O63" s="156"/>
+      <c r="P63" s="156"/>
+      <c r="Q63" s="153"/>
+      <c r="R63" s="211"/>
+      <c r="S63" s="153"/>
+      <c r="T63" s="242"/>
+      <c r="U63" s="153"/>
+      <c r="V63" s="237"/>
+      <c r="W63" s="153"/>
+    </row>
+    <row r="64" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="124"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="136"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="132"/>
+      <c r="H64" s="55"/>
+      <c r="M64" s="263" t="s">
         <v>53</v>
       </c>
-      <c r="N62" s="187"/>
-      <c r="O62" s="187"/>
-      <c r="P62" s="187"/>
-      <c r="Q62" s="154"/>
-      <c r="R62" s="210"/>
-      <c r="S62" s="154"/>
-      <c r="T62" s="256"/>
-      <c r="U62" s="154"/>
-      <c r="V62" s="168"/>
-      <c r="W62" s="154"/>
-    </row>
-    <row r="63" spans="1:23" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="133"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="136"/>
-      <c r="H63" s="5"/>
-      <c r="K63"/>
-      <c r="L63" s="141" t="s">
+      <c r="N64" s="176"/>
+      <c r="O64" s="176"/>
+      <c r="P64" s="176"/>
+      <c r="Q64" s="151"/>
+      <c r="R64" s="262"/>
+      <c r="S64" s="151"/>
+      <c r="T64" s="190"/>
+      <c r="U64" s="151"/>
+      <c r="V64" s="287"/>
+      <c r="W64" s="151"/>
+    </row>
+    <row r="65" spans="1:24" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="133"/>
+      <c r="H65" s="5"/>
+      <c r="K65"/>
+      <c r="L65" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="M63" s="35"/>
-      <c r="N63" s="36" t="s">
+      <c r="M65" s="34"/>
+      <c r="N65" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-    </row>
-    <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64" s="137"/>
-      <c r="F64"/>
-      <c r="G64" s="137"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64" s="205" t="s">
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
+    </row>
+    <row r="66" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66" s="134"/>
+      <c r="F66"/>
+      <c r="G66" s="134"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="M64" s="163"/>
-      <c r="N64" s="163"/>
-      <c r="O64" s="163"/>
-      <c r="P64" s="163"/>
-      <c r="Q64" s="163"/>
-      <c r="R64" s="163"/>
-      <c r="S64" s="163"/>
-      <c r="T64" s="163"/>
-      <c r="U64" s="163"/>
-      <c r="V64" s="163"/>
-      <c r="W64" s="164"/>
-    </row>
-    <row r="65" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="218" t="s">
-        <v>55</v>
-      </c>
-      <c r="M65" s="171" t="s">
-        <v>6</v>
-      </c>
-      <c r="N65" s="171" t="s">
-        <v>7</v>
-      </c>
-      <c r="O65" s="171" t="s">
-        <v>8</v>
-      </c>
-      <c r="P65" s="158" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q65" s="224"/>
-      <c r="R65" s="224"/>
-      <c r="S65" s="159"/>
-      <c r="T65" s="158" t="s">
-        <v>56</v>
-      </c>
-      <c r="U65" s="159"/>
-      <c r="V65" s="158" t="s">
-        <v>57</v>
-      </c>
-      <c r="W65" s="159"/>
-      <c r="X65" s="14"/>
-    </row>
-    <row r="66" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="219"/>
-      <c r="M66" s="172"/>
-      <c r="N66" s="172"/>
-      <c r="O66" s="172"/>
-      <c r="P66" s="220" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q66" s="156"/>
-      <c r="R66" s="221" t="s">
-        <v>14</v>
-      </c>
-      <c r="S66" s="156"/>
-      <c r="T66" s="221" t="s">
-        <v>58</v>
-      </c>
-      <c r="U66" s="156"/>
-      <c r="V66" s="221" t="s">
-        <v>59</v>
-      </c>
-      <c r="W66" s="156"/>
-      <c r="X66" s="14"/>
-    </row>
-    <row r="67" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="219"/>
+      <c r="N66" s="219"/>
+      <c r="O66" s="219"/>
+      <c r="P66" s="219"/>
+      <c r="Q66" s="219"/>
+      <c r="R66" s="219"/>
+      <c r="S66" s="219"/>
+      <c r="T66" s="219"/>
+      <c r="U66" s="219"/>
+      <c r="V66" s="219"/>
+      <c r="W66" s="161"/>
+    </row>
+    <row r="67" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -5918,21 +5946,36 @@
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="149"/>
-      <c r="N67" s="149"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="153"/>
-      <c r="Q67" s="154"/>
-      <c r="R67" s="153"/>
-      <c r="S67" s="154"/>
-      <c r="T67" s="153"/>
-      <c r="U67" s="154"/>
-      <c r="V67" s="153"/>
-      <c r="W67" s="154"/>
+      <c r="L67" s="270" t="s">
+        <v>55</v>
+      </c>
+      <c r="M67" s="181" t="s">
+        <v>6</v>
+      </c>
+      <c r="N67" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="O67" s="181" t="s">
+        <v>8</v>
+      </c>
+      <c r="P67" s="253" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q67" s="254"/>
+      <c r="R67" s="254"/>
+      <c r="S67" s="255"/>
+      <c r="T67" s="253" t="s">
+        <v>56</v>
+      </c>
+      <c r="U67" s="255"/>
+      <c r="V67" s="253" t="s">
+        <v>57</v>
+      </c>
+      <c r="W67" s="255"/>
       <c r="X67" s="14"/>
     </row>
-    <row r="68" spans="1:24" ht="12.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
@@ -5943,21 +5986,30 @@
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
-      <c r="L68" s="148"/>
-      <c r="M68" s="148"/>
-      <c r="N68" s="174"/>
-      <c r="O68" s="174"/>
-      <c r="P68" s="174"/>
-      <c r="Q68" s="174"/>
-      <c r="R68" s="148"/>
-      <c r="S68" s="148"/>
-      <c r="T68" s="148"/>
-      <c r="U68" s="148"/>
-      <c r="V68" s="148"/>
-      <c r="W68" s="148"/>
+      <c r="L68" s="271"/>
+      <c r="M68" s="182"/>
+      <c r="N68" s="182"/>
+      <c r="O68" s="182"/>
+      <c r="P68" s="251" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q68" s="153"/>
+      <c r="R68" s="231" t="s">
+        <v>14</v>
+      </c>
+      <c r="S68" s="153"/>
+      <c r="T68" s="231" t="s">
+        <v>58</v>
+      </c>
+      <c r="U68" s="153"/>
+      <c r="V68" s="231" t="s">
+        <v>59</v>
+      </c>
+      <c r="W68" s="153"/>
       <c r="X68" s="14"/>
     </row>
-    <row r="69" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
@@ -5968,28 +6020,21 @@
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
-      <c r="L69" s="205" t="s">
-        <v>60</v>
-      </c>
-      <c r="M69" s="164"/>
-      <c r="N69" s="162" t="s">
-        <v>61</v>
-      </c>
-      <c r="O69" s="164"/>
-      <c r="P69" s="162" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q69" s="164"/>
-      <c r="R69" s="273"/>
-      <c r="S69" s="174"/>
-      <c r="T69" s="148"/>
-      <c r="U69" s="148"/>
-      <c r="V69" s="148"/>
-      <c r="W69" s="148"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="146"/>
+      <c r="N69" s="146"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="150"/>
+      <c r="Q69" s="151"/>
+      <c r="R69" s="150"/>
+      <c r="S69" s="151"/>
+      <c r="T69" s="150"/>
+      <c r="U69" s="151"/>
+      <c r="V69" s="150"/>
+      <c r="W69" s="151"/>
       <c r="X69" s="14"/>
     </row>
-    <row r="70" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
+    <row r="70" spans="1:24" ht="12.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
@@ -6000,30 +6045,21 @@
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
-      <c r="L70" s="287" t="s">
-        <v>63</v>
-      </c>
-      <c r="M70" s="154"/>
-      <c r="N70" s="285">
-        <f>L67*P67/1000</f>
-        <v>0</v>
-      </c>
-      <c r="O70" s="154"/>
-      <c r="P70" s="285">
-        <f>L70+N70</f>
-        <v>1</v>
-      </c>
-      <c r="Q70" s="154"/>
-      <c r="R70" s="286"/>
-      <c r="S70" s="174"/>
-      <c r="T70" s="148"/>
-      <c r="U70" s="148"/>
-      <c r="V70" s="148"/>
-      <c r="W70" s="148"/>
+      <c r="L70" s="147"/>
+      <c r="M70" s="147"/>
+      <c r="N70" s="158"/>
+      <c r="O70" s="158"/>
+      <c r="P70" s="158"/>
+      <c r="Q70" s="158"/>
+      <c r="R70" s="147"/>
+      <c r="S70" s="147"/>
+      <c r="T70" s="147"/>
+      <c r="U70" s="147"/>
+      <c r="V70" s="147"/>
+      <c r="W70" s="147"/>
       <c r="X70" s="14"/>
     </row>
-    <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="10"/>
+    <row r="71" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
@@ -6034,22 +6070,28 @@
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
-      <c r="L71" s="146"/>
-      <c r="M71" s="146"/>
-      <c r="N71" s="146"/>
-      <c r="O71" s="146"/>
-      <c r="P71" s="146"/>
-      <c r="Q71" s="146"/>
-      <c r="R71" s="146"/>
-      <c r="S71" s="147"/>
+      <c r="L71" s="184" t="s">
+        <v>60</v>
+      </c>
+      <c r="M71" s="161"/>
+      <c r="N71" s="164" t="s">
+        <v>61</v>
+      </c>
+      <c r="O71" s="161"/>
+      <c r="P71" s="164" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q71" s="161"/>
+      <c r="R71" s="172"/>
+      <c r="S71" s="158"/>
       <c r="T71" s="147"/>
       <c r="U71" s="147"/>
       <c r="V71" s="147"/>
       <c r="W71" s="147"/>
       <c r="X71" s="14"/>
     </row>
-    <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
+    <row r="72" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
@@ -6060,14 +6102,22 @@
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
-      <c r="L72" s="146"/>
-      <c r="M72" s="146"/>
-      <c r="N72" s="146"/>
-      <c r="O72" s="146"/>
-      <c r="P72" s="146"/>
-      <c r="Q72" s="146"/>
-      <c r="R72" s="146"/>
-      <c r="S72" s="147"/>
+      <c r="L72" s="166" t="s">
+        <v>63</v>
+      </c>
+      <c r="M72" s="151"/>
+      <c r="N72" s="163">
+        <f>L69*P69/1000</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="151"/>
+      <c r="P72" s="163">
+        <f>L72+N72</f>
+        <v>1</v>
+      </c>
+      <c r="Q72" s="151"/>
+      <c r="R72" s="165"/>
+      <c r="S72" s="158"/>
       <c r="T72" s="147"/>
       <c r="U72" s="147"/>
       <c r="V72" s="147"/>
@@ -6075,336 +6125,466 @@
       <c r="X72" s="14"/>
     </row>
     <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="B73" s="148"/>
-      <c r="C73" s="148"/>
-      <c r="D73" s="148"/>
-      <c r="E73" s="148"/>
-      <c r="F73" s="148"/>
-      <c r="G73" s="148"/>
-      <c r="H73" s="148"/>
-      <c r="I73" s="148"/>
-      <c r="J73" s="148"/>
-      <c r="K73" s="148"/>
-      <c r="L73" s="288" t="s">
+      <c r="A73" s="10"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="143"/>
+      <c r="M73" s="143"/>
+      <c r="N73" s="143"/>
+      <c r="O73" s="143"/>
+      <c r="P73" s="143"/>
+      <c r="Q73" s="143"/>
+      <c r="R73" s="143"/>
+      <c r="S73" s="144"/>
+      <c r="T73" s="144"/>
+      <c r="U73" s="144"/>
+      <c r="V73" s="144"/>
+      <c r="W73" s="144"/>
+      <c r="X73" s="14"/>
+    </row>
+    <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="143"/>
+      <c r="M74" s="143"/>
+      <c r="N74" s="143"/>
+      <c r="O74" s="143"/>
+      <c r="P74" s="143"/>
+      <c r="Q74" s="143"/>
+      <c r="R74" s="143"/>
+      <c r="S74" s="144"/>
+      <c r="T74" s="144"/>
+      <c r="U74" s="144"/>
+      <c r="V74" s="144"/>
+      <c r="W74" s="144"/>
+      <c r="X74" s="14"/>
+    </row>
+    <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="145"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="145"/>
+      <c r="E75" s="145"/>
+      <c r="F75" s="145"/>
+      <c r="G75" s="145"/>
+      <c r="H75" s="145"/>
+      <c r="I75" s="145"/>
+      <c r="J75" s="145"/>
+      <c r="K75" s="145"/>
+      <c r="L75" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="M73" s="288"/>
-      <c r="N73" s="288"/>
-      <c r="O73" s="288"/>
-      <c r="P73" s="288"/>
-      <c r="Q73" s="288"/>
-      <c r="R73" s="288"/>
-      <c r="S73" s="288"/>
-      <c r="T73" s="288"/>
-      <c r="U73" s="288"/>
-      <c r="V73" s="288"/>
-      <c r="W73" s="288"/>
-      <c r="X73" s="14"/>
-    </row>
-    <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="148"/>
-      <c r="C74" s="148"/>
-      <c r="D74" s="148"/>
-      <c r="E74" s="148"/>
-      <c r="F74" s="148"/>
-      <c r="G74" s="148"/>
-      <c r="H74" s="148"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="148"/>
-      <c r="K74" s="148"/>
-      <c r="L74" s="288" t="s">
+      <c r="M75" s="167"/>
+      <c r="N75" s="167"/>
+      <c r="O75" s="167"/>
+      <c r="P75" s="167"/>
+      <c r="Q75" s="167"/>
+      <c r="R75" s="167"/>
+      <c r="S75" s="167"/>
+      <c r="T75" s="167"/>
+      <c r="U75" s="167"/>
+      <c r="V75" s="167"/>
+      <c r="W75" s="167"/>
+      <c r="X75" s="14"/>
+    </row>
+    <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="B76" s="145"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="145"/>
+      <c r="E76" s="145"/>
+      <c r="F76" s="145"/>
+      <c r="G76" s="145"/>
+      <c r="H76" s="145"/>
+      <c r="I76" s="145"/>
+      <c r="J76" s="145"/>
+      <c r="K76" s="145"/>
+      <c r="L76" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="M74" s="288"/>
-      <c r="N74" s="288"/>
-      <c r="O74" s="288"/>
-      <c r="P74" s="288"/>
-      <c r="Q74" s="288"/>
-      <c r="R74" s="288"/>
-      <c r="S74" s="288"/>
-      <c r="T74" s="288"/>
-      <c r="U74" s="288"/>
-      <c r="V74" s="288"/>
-      <c r="W74" s="288"/>
-      <c r="X74" s="14"/>
-    </row>
-    <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="148"/>
-      <c r="C75" s="148"/>
-      <c r="D75" s="148"/>
-      <c r="E75" s="148"/>
-      <c r="F75" s="148"/>
-      <c r="G75" s="148"/>
-      <c r="H75" s="148"/>
-      <c r="I75" s="148"/>
-      <c r="J75" s="148"/>
-      <c r="K75" s="148"/>
-      <c r="L75" s="289" t="s">
+      <c r="M76" s="167"/>
+      <c r="N76" s="167"/>
+      <c r="O76" s="167"/>
+      <c r="P76" s="167"/>
+      <c r="Q76" s="167"/>
+      <c r="R76" s="167"/>
+      <c r="S76" s="167"/>
+      <c r="T76" s="167"/>
+      <c r="U76" s="167"/>
+      <c r="V76" s="167"/>
+      <c r="W76" s="167"/>
+      <c r="X76" s="14"/>
+    </row>
+    <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
+      <c r="E77" s="145"/>
+      <c r="F77" s="145"/>
+      <c r="G77" s="145"/>
+      <c r="H77" s="145"/>
+      <c r="I77" s="145"/>
+      <c r="J77" s="145"/>
+      <c r="K77" s="145"/>
+      <c r="L77" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="M75" s="289"/>
-      <c r="N75" s="289"/>
-      <c r="O75" s="289"/>
-      <c r="P75" s="289"/>
-      <c r="Q75" s="289"/>
-      <c r="R75" s="289"/>
-      <c r="S75" s="289"/>
-      <c r="T75" s="289"/>
-      <c r="U75" s="289"/>
-      <c r="V75" s="289"/>
-      <c r="W75" s="289"/>
-      <c r="X75" s="14"/>
-    </row>
-    <row r="76" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="148"/>
-      <c r="C76" s="148"/>
-      <c r="D76" s="148"/>
-      <c r="E76" s="148"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="148"/>
-      <c r="K76" s="148"/>
-      <c r="L76" s="140" t="s">
+      <c r="M77" s="168"/>
+      <c r="N77" s="168"/>
+      <c r="O77" s="168"/>
+      <c r="P77" s="168"/>
+      <c r="Q77" s="168"/>
+      <c r="R77" s="168"/>
+      <c r="S77" s="168"/>
+      <c r="T77" s="168"/>
+      <c r="U77" s="168"/>
+      <c r="V77" s="168"/>
+      <c r="W77" s="168"/>
+      <c r="X77" s="14"/>
+    </row>
+    <row r="78" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="145"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="145"/>
+      <c r="E78" s="145"/>
+      <c r="F78" s="145"/>
+      <c r="G78" s="145"/>
+      <c r="H78" s="145"/>
+      <c r="I78" s="145"/>
+      <c r="J78" s="145"/>
+      <c r="K78" s="145"/>
+      <c r="L78" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="M76" s="148"/>
-      <c r="N76" s="148"/>
-      <c r="O76" s="142"/>
-      <c r="P76" s="148"/>
-      <c r="Q76" s="278" t="s">
+      <c r="M78" s="147"/>
+      <c r="N78" s="147"/>
+      <c r="O78" s="139"/>
+      <c r="P78" s="147"/>
+      <c r="Q78" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="R76" s="278"/>
-      <c r="S76" s="278"/>
-      <c r="T76" s="143"/>
-      <c r="U76" s="144"/>
-      <c r="V76" s="143"/>
-      <c r="W76" s="143"/>
-      <c r="X76" s="148"/>
-    </row>
-    <row r="77" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B77" s="148"/>
-      <c r="C77" s="148"/>
-      <c r="D77" s="148"/>
-      <c r="E77" s="148"/>
-      <c r="F77" s="148"/>
-      <c r="G77" s="148"/>
-      <c r="H77" s="148"/>
-      <c r="I77" s="148"/>
-      <c r="J77" s="148"/>
-      <c r="K77" s="148"/>
-      <c r="L77" s="140" t="s">
+      <c r="R78" s="148"/>
+      <c r="S78" s="148"/>
+      <c r="T78" s="140"/>
+      <c r="U78" s="141"/>
+      <c r="V78" s="140"/>
+      <c r="W78" s="140"/>
+      <c r="X78" s="145"/>
+    </row>
+    <row r="79" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="145"/>
+      <c r="F79" s="145"/>
+      <c r="G79" s="145"/>
+      <c r="H79" s="145"/>
+      <c r="I79" s="145"/>
+      <c r="J79" s="145"/>
+      <c r="K79" s="145"/>
+      <c r="L79" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="M77" s="148"/>
-      <c r="N77" s="148"/>
-      <c r="O77" s="148"/>
-      <c r="P77" s="148"/>
-      <c r="Q77" s="278"/>
-      <c r="R77" s="278"/>
-      <c r="S77" s="278"/>
-      <c r="T77" s="143"/>
-      <c r="U77" s="145"/>
-      <c r="V77" s="278"/>
-      <c r="W77" s="278"/>
-      <c r="X77" s="148"/>
-    </row>
-    <row r="78" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="148"/>
-      <c r="C78" s="148"/>
-      <c r="D78" s="148"/>
-      <c r="E78" s="148"/>
-      <c r="F78" s="148"/>
-      <c r="G78" s="148"/>
-      <c r="H78" s="148"/>
-      <c r="I78" s="148"/>
-      <c r="J78" s="148"/>
-      <c r="K78" s="148"/>
-      <c r="L78" s="140" t="s">
+      <c r="M79" s="147"/>
+      <c r="N79" s="147"/>
+      <c r="O79" s="147"/>
+      <c r="P79" s="147"/>
+      <c r="Q79" s="148"/>
+      <c r="R79" s="148"/>
+      <c r="S79" s="148"/>
+      <c r="T79" s="140"/>
+      <c r="U79" s="142"/>
+      <c r="V79" s="148"/>
+      <c r="W79" s="148"/>
+      <c r="X79" s="145"/>
+    </row>
+    <row r="80" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="145"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="145"/>
+      <c r="E80" s="145"/>
+      <c r="F80" s="145"/>
+      <c r="G80" s="145"/>
+      <c r="H80" s="145"/>
+      <c r="I80" s="145"/>
+      <c r="J80" s="145"/>
+      <c r="K80" s="145"/>
+      <c r="L80" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="M78" s="148"/>
-      <c r="N78" s="148"/>
-      <c r="O78" s="148"/>
-      <c r="P78" s="148"/>
-      <c r="Q78" s="279"/>
-      <c r="R78" s="279"/>
-      <c r="S78" s="279"/>
-      <c r="T78" s="143"/>
-      <c r="U78" s="143"/>
-      <c r="V78" s="279"/>
-      <c r="W78" s="279"/>
-      <c r="X78" s="14"/>
-    </row>
-    <row r="79" spans="1:24" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="148"/>
-      <c r="C79" s="148"/>
-      <c r="D79" s="148"/>
-      <c r="E79" s="148"/>
-      <c r="F79" s="148"/>
-      <c r="G79" s="148"/>
-      <c r="H79" s="148"/>
-      <c r="I79" s="148"/>
-      <c r="J79" s="148"/>
-      <c r="K79" s="148"/>
-      <c r="L79" s="140" t="s">
+      <c r="M80" s="147"/>
+      <c r="N80" s="147"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="147"/>
+      <c r="Q80" s="149"/>
+      <c r="R80" s="149"/>
+      <c r="S80" s="149"/>
+      <c r="T80" s="140"/>
+      <c r="U80" s="140"/>
+      <c r="V80" s="149"/>
+      <c r="W80" s="149"/>
+      <c r="X80" s="14"/>
+    </row>
+    <row r="81" spans="2:24" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="145"/>
+      <c r="C81" s="145"/>
+      <c r="D81" s="145"/>
+      <c r="E81" s="145"/>
+      <c r="F81" s="145"/>
+      <c r="G81" s="145"/>
+      <c r="H81" s="145"/>
+      <c r="I81" s="145"/>
+      <c r="J81" s="145"/>
+      <c r="K81" s="145"/>
+      <c r="L81" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="M79" s="150" t="s">
+      <c r="M81" s="289" t="s">
         <v>64</v>
       </c>
-      <c r="N79" s="150" t="s">
+      <c r="N81" s="289" t="s">
         <v>64</v>
       </c>
-      <c r="O79" s="150" t="s">
+      <c r="O81" s="289" t="s">
         <v>64</v>
       </c>
-      <c r="P79" s="150" t="s">
+      <c r="P81" s="289" t="s">
         <v>64</v>
       </c>
-      <c r="Q79" s="150" t="s">
+      <c r="Q81" s="289" t="s">
         <v>64</v>
       </c>
-      <c r="R79" s="150" t="s">
+      <c r="R81" s="289" t="s">
         <v>64</v>
       </c>
-      <c r="S79" s="150" t="s">
+      <c r="S81" s="289" t="s">
         <v>64</v>
       </c>
-      <c r="T79" s="150" t="s">
+      <c r="T81" s="289" t="s">
         <v>64</v>
       </c>
-      <c r="U79" s="150" t="s">
+      <c r="U81" s="289" t="s">
         <v>64</v>
       </c>
-      <c r="V79" s="150" t="s">
+      <c r="V81" s="289" t="s">
         <v>64</v>
       </c>
-      <c r="W79" s="150" t="s">
+      <c r="W81" s="289" t="s">
         <v>64</v>
       </c>
-      <c r="X79" s="152"/>
-    </row>
-    <row r="80" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="148"/>
-      <c r="C80" s="148"/>
-      <c r="D80" s="148"/>
-      <c r="E80" s="148"/>
-      <c r="F80" s="148"/>
-      <c r="G80" s="148"/>
-      <c r="H80" s="148"/>
-      <c r="I80" s="148"/>
-      <c r="J80" s="148"/>
-      <c r="K80" s="148"/>
-      <c r="L80" s="140" t="s">
+      <c r="X81" s="291"/>
+    </row>
+    <row r="82" spans="2:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="145"/>
+      <c r="C82" s="145"/>
+      <c r="D82" s="145"/>
+      <c r="E82" s="145"/>
+      <c r="F82" s="145"/>
+      <c r="G82" s="145"/>
+      <c r="H82" s="145"/>
+      <c r="I82" s="145"/>
+      <c r="J82" s="145"/>
+      <c r="K82" s="145"/>
+      <c r="L82" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="M80" s="151"/>
-      <c r="N80" s="151"/>
-      <c r="O80" s="151"/>
-      <c r="P80" s="151"/>
-      <c r="Q80" s="151"/>
-      <c r="R80" s="151"/>
-      <c r="S80" s="151"/>
-      <c r="T80" s="151"/>
-      <c r="U80" s="151"/>
-      <c r="V80" s="151"/>
-      <c r="W80" s="151"/>
-      <c r="X80" s="152"/>
-    </row>
-    <row r="81" spans="12:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="L81" s="140" t="s">
+      <c r="M82" s="290"/>
+      <c r="N82" s="290"/>
+      <c r="O82" s="290"/>
+      <c r="P82" s="290"/>
+      <c r="Q82" s="290"/>
+      <c r="R82" s="290"/>
+      <c r="S82" s="290"/>
+      <c r="T82" s="290"/>
+      <c r="U82" s="290"/>
+      <c r="V82" s="290"/>
+      <c r="W82" s="290"/>
+      <c r="X82" s="291"/>
+    </row>
+    <row r="83" spans="2:24" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="L83" s="137" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L82" s="140" t="s">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="L84" s="137" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="115" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="227">
-    <mergeCell ref="Q77:S78"/>
-    <mergeCell ref="V77:W78"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T49:U49"/>
+  <mergeCells count="237">
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="L66:W66"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="V81:V82"/>
+    <mergeCell ref="W81:W82"/>
+    <mergeCell ref="X81:X82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="S81:S82"/>
+    <mergeCell ref="T81:T82"/>
+    <mergeCell ref="U81:U82"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V27"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M4:W5"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="M63:Q63"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="M64:Q64"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="D6:E12"/>
+    <mergeCell ref="M47:W47"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="P67:S67"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="R60:S60"/>
     <mergeCell ref="V58:W58"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="W27"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="M46:U46"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="R57:W57"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="M6:O6"/>
     <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:W73"/>
-    <mergeCell ref="L74:W74"/>
-    <mergeCell ref="L75:W75"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="Q40:R40"/>
     <mergeCell ref="S40:T40"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="M23:W24"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="M41:W42"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="M46:W47"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
     <mergeCell ref="S14:S17"/>
     <mergeCell ref="M20:Q20"/>
     <mergeCell ref="O29:P29"/>
@@ -6412,150 +6592,82 @@
     <mergeCell ref="Q29:R29"/>
     <mergeCell ref="P7:W7"/>
     <mergeCell ref="U27"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="V52:W52"/>
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="Q30:R30"/>
     <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="M23:W24"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="M42:W43"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q79:S80"/>
+    <mergeCell ref="V79:W80"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="L75:W75"/>
+    <mergeCell ref="L76:W76"/>
+    <mergeCell ref="L77:W77"/>
+    <mergeCell ref="P71:Q71"/>
     <mergeCell ref="J37:L37"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="R55:W55"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="W27"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="L64:W64"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="D6:E12"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M4:W5"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V27"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="V79:V80"/>
-    <mergeCell ref="W79:W80"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="J38:L38"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047249" footer="0.19685039370078741"/>

--- a/property_excel/template_gnkt_bopz.xlsx
+++ b/property_excel/template_gnkt_bopz.xlsx
@@ -27,7 +27,7 @@
     <definedName name="пакер">СХЕМА!$U$19</definedName>
     <definedName name="раствор_глушения">СХЕМА!$R$53</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -249,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="30">
+  <numFmts count="31">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0&quot;м&quot;"/>
@@ -280,6 +280,7 @@
     <numFmt numFmtId="190" formatCode="_-* #,##0\ _d_._-;\-* #,##0\ _d_._-;_-* &quot;-&quot;\ _d_._-;_-@_-"/>
     <numFmt numFmtId="191" formatCode="_-* #,##0.00\ _d_._-;\-* #,##0.00\ _d_._-;_-* &quot;-&quot;??\ _d_._-;_-@_-"/>
     <numFmt numFmtId="192" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="194" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="66" x14ac:knownFonts="1">
     <font>
@@ -2361,7 +2362,7 @@
     <xf numFmtId="0" fontId="32" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="34" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2762,6 +2763,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="25" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2814,19 +2831,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2845,20 +2849,14 @@
     <xf numFmtId="181" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="183" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2893,14 +2891,11 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="174" fontId="42" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2928,13 +2923,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2960,52 +2982,6 @@
     <xf numFmtId="2" fontId="31" fillId="0" borderId="14" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3013,52 +2989,14 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="25" xfId="392" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="170" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3068,11 +3006,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3087,9 +3089,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3103,70 +3102,76 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="25" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="194" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="440">
     <cellStyle name=" 1" xfId="1"/>
@@ -4156,7 +4161,7 @@
   <dimension ref="A1:X119"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28:R28"/>
+      <selection activeCell="R59" sqref="R59:S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4203,10 +4208,10 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="272"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
+      <c r="R1" s="273"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
       <c r="V1" s="87"/>
       <c r="W1" s="87"/>
     </row>
@@ -4237,30 +4242,30 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="259" t="s">
+      <c r="B3" s="297" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
-      <c r="J3" s="259"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="259"/>
-      <c r="M3" s="259"/>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="259"/>
-      <c r="R3" s="259"/>
-      <c r="S3" s="259"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="297"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="297"/>
+      <c r="U3" s="297"/>
+      <c r="V3" s="297"/>
+      <c r="W3" s="297"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
@@ -4275,19 +4280,19 @@
       <c r="J4" s="2"/>
       <c r="K4" s="12"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="274" t="s">
+      <c r="M4" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="164"/>
+      <c r="T4" s="164"/>
+      <c r="U4" s="164"/>
+      <c r="V4" s="164"/>
+      <c r="W4" s="164"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
@@ -4302,24 +4307,24 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
-      <c r="U5" s="158"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="164"/>
+      <c r="T5" s="164"/>
+      <c r="U5" s="164"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="266"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="245"/>
       <c r="F6" s="46"/>
       <c r="G6" s="47"/>
       <c r="H6" s="50"/>
@@ -4327,26 +4332,26 @@
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
       <c r="L6" s="55"/>
-      <c r="M6" s="218" t="s">
+      <c r="M6" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="219"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="224"/>
-      <c r="Q6" s="219"/>
-      <c r="R6" s="219"/>
-      <c r="S6" s="219"/>
-      <c r="T6" s="219"/>
-      <c r="U6" s="219"/>
-      <c r="V6" s="219"/>
-      <c r="W6" s="161"/>
+      <c r="N6" s="227"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
+      <c r="T6" s="227"/>
+      <c r="U6" s="227"/>
+      <c r="V6" s="227"/>
+      <c r="W6" s="167"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="267"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="246"/>
       <c r="F7" s="54"/>
       <c r="G7" s="53"/>
       <c r="H7" s="51"/>
@@ -4354,26 +4359,26 @@
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
       <c r="L7" s="55"/>
-      <c r="M7" s="178" t="s">
+      <c r="M7" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="156"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="156"/>
-      <c r="W7" s="153"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
+      <c r="T7" s="162"/>
+      <c r="U7" s="162"/>
+      <c r="V7" s="162"/>
+      <c r="W7" s="159"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="267"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="246"/>
       <c r="F8" s="54"/>
       <c r="G8" s="53"/>
       <c r="H8" s="51"/>
@@ -4384,23 +4389,23 @@
       <c r="M8" s="282" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="188"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="187"/>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="188"/>
-      <c r="S8" s="188"/>
-      <c r="T8" s="188"/>
-      <c r="U8" s="188"/>
-      <c r="V8" s="188"/>
-      <c r="W8" s="189"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="188"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="187"/>
+      <c r="R8" s="187"/>
+      <c r="S8" s="187"/>
+      <c r="T8" s="187"/>
+      <c r="U8" s="187"/>
+      <c r="V8" s="187"/>
+      <c r="W8" s="188"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="267"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="246"/>
       <c r="F9" s="54"/>
       <c r="G9" s="53"/>
       <c r="H9" s="51"/>
@@ -4408,38 +4413,38 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
       <c r="L9" s="91"/>
-      <c r="M9" s="250" t="s">
+      <c r="M9" s="242" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="219"/>
+      <c r="N9" s="227"/>
       <c r="O9" s="92"/>
-      <c r="P9" s="209" t="s">
+      <c r="P9" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="209" t="s">
+      <c r="Q9" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="209" t="s">
+      <c r="R9" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="248" t="s">
+      <c r="S9" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="202"/>
-      <c r="U9" s="209" t="s">
+      <c r="T9" s="240"/>
+      <c r="U9" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="209" t="s">
+      <c r="V9" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="161"/>
+      <c r="W9" s="167"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="267"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="246"/>
       <c r="F10" s="54"/>
       <c r="G10" s="53"/>
       <c r="H10" s="51"/>
@@ -4447,17 +4452,17 @@
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
       <c r="L10" s="93"/>
-      <c r="M10" s="258" t="s">
+      <c r="M10" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="156"/>
+      <c r="N10" s="162"/>
       <c r="O10" s="94"/>
-      <c r="P10" s="210"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="210"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="210"/>
+      <c r="P10" s="208"/>
+      <c r="Q10" s="208"/>
+      <c r="R10" s="208"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="208"/>
       <c r="V10" s="88" t="s">
         <v>13</v>
       </c>
@@ -4469,8 +4474,8 @@
       <c r="A11"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="267"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="246"/>
       <c r="F11" s="54"/>
       <c r="G11" s="53"/>
       <c r="H11" s="51"/>
@@ -4478,11 +4483,11 @@
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
       <c r="L11" s="56"/>
-      <c r="M11" s="198" t="s">
+      <c r="M11" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="156"/>
-      <c r="O11" s="171"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="198"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="21"/>
@@ -4496,8 +4501,8 @@
       <c r="A12"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="268"/>
-      <c r="E12" s="269"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="248"/>
       <c r="F12" s="54"/>
       <c r="G12" s="69"/>
       <c r="H12" s="70"/>
@@ -4505,11 +4510,11 @@
       <c r="J12" s="72"/>
       <c r="K12" s="73"/>
       <c r="L12" s="57"/>
-      <c r="M12" s="198" t="s">
+      <c r="M12" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="156"/>
-      <c r="O12" s="171"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="198"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="22"/>
@@ -4532,11 +4537,11 @@
       <c r="J13" s="99"/>
       <c r="K13" s="99"/>
       <c r="L13" s="99"/>
-      <c r="M13" s="198" t="s">
+      <c r="M13" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="156"/>
-      <c r="O13" s="171"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="198"/>
       <c r="P13" s="89"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
@@ -4559,18 +4564,18 @@
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
       <c r="L14" s="56"/>
-      <c r="M14" s="155" t="s">
+      <c r="M14" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="188"/>
-      <c r="O14" s="189"/>
-      <c r="P14" s="212"/>
-      <c r="Q14" s="214"/>
-      <c r="R14" s="214"/>
-      <c r="S14" s="222"/>
-      <c r="T14" s="284"/>
-      <c r="U14" s="257"/>
-      <c r="V14" s="285"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="188"/>
+      <c r="P14" s="210"/>
+      <c r="Q14" s="212"/>
+      <c r="R14" s="212"/>
+      <c r="S14" s="229"/>
+      <c r="T14" s="283"/>
+      <c r="U14" s="243"/>
+      <c r="V14" s="284"/>
       <c r="W14" s="279"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4586,16 +4591,16 @@
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
-      <c r="M15" s="215"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="216"/>
-      <c r="P15" s="213"/>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="213"/>
-      <c r="S15" s="223"/>
-      <c r="T15" s="216"/>
-      <c r="U15" s="213"/>
-      <c r="V15" s="213"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="214"/>
+      <c r="P15" s="211"/>
+      <c r="Q15" s="211"/>
+      <c r="R15" s="211"/>
+      <c r="S15" s="230"/>
+      <c r="T15" s="214"/>
+      <c r="U15" s="211"/>
+      <c r="V15" s="211"/>
       <c r="W15" s="280"/>
     </row>
     <row r="16" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4611,16 +4616,16 @@
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
       <c r="L16" s="56"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="216"/>
-      <c r="P16" s="213"/>
-      <c r="Q16" s="213"/>
-      <c r="R16" s="213"/>
-      <c r="S16" s="223"/>
-      <c r="T16" s="216"/>
-      <c r="U16" s="213"/>
-      <c r="V16" s="213"/>
+      <c r="M16" s="213"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="214"/>
+      <c r="P16" s="211"/>
+      <c r="Q16" s="211"/>
+      <c r="R16" s="211"/>
+      <c r="S16" s="230"/>
+      <c r="T16" s="214"/>
+      <c r="U16" s="211"/>
+      <c r="V16" s="211"/>
       <c r="W16" s="280"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4636,17 +4641,17 @@
       <c r="J17" s="56"/>
       <c r="K17" s="56"/>
       <c r="L17" s="56"/>
-      <c r="M17" s="206"/>
-      <c r="N17" s="217"/>
-      <c r="O17" s="207"/>
-      <c r="P17" s="210"/>
-      <c r="Q17" s="210"/>
-      <c r="R17" s="210"/>
-      <c r="S17" s="208"/>
-      <c r="T17" s="207"/>
-      <c r="U17" s="210"/>
-      <c r="V17" s="210"/>
-      <c r="W17" s="247"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="215"/>
+      <c r="O17" s="205"/>
+      <c r="P17" s="208"/>
+      <c r="Q17" s="208"/>
+      <c r="R17" s="208"/>
+      <c r="S17" s="206"/>
+      <c r="T17" s="205"/>
+      <c r="U17" s="208"/>
+      <c r="V17" s="208"/>
+      <c r="W17" s="238"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
@@ -4664,8 +4669,8 @@
       <c r="M18" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="176"/>
-      <c r="O18" s="151"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="157"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="33"/>
@@ -4688,16 +4693,16 @@
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
       <c r="L19" s="56"/>
-      <c r="M19" s="275" t="s">
+      <c r="M19" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="217"/>
-      <c r="O19" s="276"/>
+      <c r="N19" s="215"/>
+      <c r="O19" s="277"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="30"/>
       <c r="R19" s="29"/>
-      <c r="S19" s="303"/>
-      <c r="T19" s="304"/>
+      <c r="S19" s="298"/>
+      <c r="T19" s="299"/>
       <c r="U19" s="104"/>
       <c r="V19" s="105"/>
       <c r="W19" s="106"/>
@@ -4715,11 +4720,11 @@
       <c r="J20" s="76"/>
       <c r="K20" s="76"/>
       <c r="L20" s="76"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="156"/>
-      <c r="Q20" s="153"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="159"/>
       <c r="R20" s="23"/>
       <c r="S20" s="95"/>
       <c r="T20" s="27"/>
@@ -4740,9 +4745,9 @@
       <c r="J21" s="128"/>
       <c r="K21" s="78"/>
       <c r="L21" s="78"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="171"/>
+      <c r="M21" s="217"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="198"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
@@ -4765,16 +4770,16 @@
       <c r="J22" s="129"/>
       <c r="K22" s="79"/>
       <c r="L22" s="79"/>
-      <c r="M22" s="175" t="s">
+      <c r="M22" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="176"/>
-      <c r="O22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="178"/>
       <c r="P22" s="67"/>
       <c r="Q22" s="68"/>
       <c r="R22" s="67"/>
-      <c r="S22" s="203"/>
-      <c r="T22" s="177"/>
+      <c r="S22" s="201"/>
+      <c r="T22" s="178"/>
       <c r="U22" s="112"/>
       <c r="V22" s="113"/>
       <c r="W22" s="114"/>
@@ -4792,19 +4797,19 @@
       <c r="J23" s="115"/>
       <c r="K23" s="116"/>
       <c r="L23" s="116"/>
-      <c r="M23" s="192" t="s">
+      <c r="M23" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="158"/>
-      <c r="T23" s="158"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="158"/>
-      <c r="W23" s="158"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="164"/>
+      <c r="U23" s="164"/>
+      <c r="V23" s="164"/>
+      <c r="W23" s="164"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -4821,17 +4826,17 @@
         <v>23</v>
       </c>
       <c r="L24" s="76"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="158"/>
-      <c r="T24" s="158"/>
-      <c r="U24" s="158"/>
-      <c r="V24" s="158"/>
-      <c r="W24" s="158"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
+      <c r="T24" s="164"/>
+      <c r="U24" s="164"/>
+      <c r="V24" s="164"/>
+      <c r="W24" s="164"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
@@ -4846,27 +4851,27 @@
       <c r="J25" s="83"/>
       <c r="K25" s="77"/>
       <c r="L25" s="78"/>
-      <c r="M25" s="204" t="s">
+      <c r="M25" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="205"/>
-      <c r="O25" s="164" t="s">
+      <c r="N25" s="203"/>
+      <c r="O25" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="205"/>
-      <c r="Q25" s="164" t="s">
+      <c r="P25" s="203"/>
+      <c r="Q25" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="219"/>
-      <c r="S25" s="219"/>
-      <c r="T25" s="161"/>
-      <c r="U25" s="164" t="s">
+      <c r="R25" s="227"/>
+      <c r="S25" s="227"/>
+      <c r="T25" s="167"/>
+      <c r="U25" s="170" t="s">
         <v>27</v>
       </c>
       <c r="V25" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="W25" s="246" t="s">
+      <c r="W25" s="237" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4880,24 +4885,24 @@
       <c r="G26" s="45"/>
       <c r="H26" s="82"/>
       <c r="I26" s="82"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="206"/>
-      <c r="N26" s="207"/>
-      <c r="O26" s="208"/>
-      <c r="P26" s="207"/>
-      <c r="Q26" s="193" t="s">
+      <c r="J26" s="180"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="206"/>
+      <c r="P26" s="205"/>
+      <c r="Q26" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="189"/>
-      <c r="S26" s="193" t="s">
+      <c r="R26" s="188"/>
+      <c r="S26" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="T26" s="189"/>
-      <c r="U26" s="210"/>
-      <c r="V26" s="210"/>
-      <c r="W26" s="247"/>
+      <c r="T26" s="188"/>
+      <c r="U26" s="208"/>
+      <c r="V26" s="208"/>
+      <c r="W26" s="238"/>
     </row>
     <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
@@ -4912,17 +4917,17 @@
       <c r="J27" s="76"/>
       <c r="K27" s="76"/>
       <c r="L27" s="76"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="191"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="186"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="226"/>
-      <c r="V27" s="286"/>
-      <c r="W27" s="249"/>
+      <c r="M27" s="184"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="190"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="185"/>
+      <c r="R27" s="159"/>
+      <c r="S27" s="185"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="233"/>
+      <c r="V27" s="304"/>
+      <c r="W27" s="241"/>
     </row>
     <row r="28" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
@@ -4937,14 +4942,14 @@
       <c r="J28" s="56"/>
       <c r="K28" s="56"/>
       <c r="L28" s="56"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="191"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="186"/>
-      <c r="T28" s="153"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="190"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="185"/>
+      <c r="R28" s="159"/>
+      <c r="S28" s="185"/>
+      <c r="T28" s="159"/>
       <c r="U28" s="36"/>
       <c r="V28" s="40"/>
       <c r="W28" s="41"/>
@@ -4959,17 +4964,17 @@
       <c r="G29" s="45"/>
       <c r="H29" s="2"/>
       <c r="I29" s="117"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="173"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="186"/>
-      <c r="T29" s="153"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="184"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="185"/>
+      <c r="R29" s="159"/>
+      <c r="S29" s="185"/>
+      <c r="T29" s="159"/>
       <c r="U29" s="36"/>
       <c r="V29" s="40"/>
       <c r="W29" s="41"/>
@@ -4984,17 +4989,17 @@
       <c r="G30" s="45"/>
       <c r="H30" s="2"/>
       <c r="I30" s="117"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="173"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="191"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="186"/>
-      <c r="T30" s="153"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="184"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="190"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="185"/>
+      <c r="R30" s="159"/>
+      <c r="S30" s="185"/>
+      <c r="T30" s="159"/>
       <c r="U30" s="36"/>
       <c r="V30" s="40"/>
       <c r="W30" s="41"/>
@@ -5009,17 +5014,17 @@
       <c r="G31" s="45"/>
       <c r="H31" s="2"/>
       <c r="I31" s="117"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="191"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="186"/>
-      <c r="T31" s="153"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="184"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="190"/>
+      <c r="P31" s="159"/>
+      <c r="Q31" s="185"/>
+      <c r="R31" s="159"/>
+      <c r="S31" s="185"/>
+      <c r="T31" s="159"/>
       <c r="U31" s="36"/>
       <c r="V31" s="40"/>
       <c r="W31" s="41"/>
@@ -5034,17 +5039,17 @@
       <c r="G32" s="45"/>
       <c r="H32" s="55"/>
       <c r="I32" s="118"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="173"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="191"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="186"/>
-      <c r="T32" s="153"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="190"/>
+      <c r="P32" s="159"/>
+      <c r="Q32" s="185"/>
+      <c r="R32" s="159"/>
+      <c r="S32" s="185"/>
+      <c r="T32" s="159"/>
       <c r="U32" s="36"/>
       <c r="V32" s="40"/>
       <c r="W32" s="41"/>
@@ -5059,44 +5064,44 @@
       <c r="G33" s="45"/>
       <c r="H33" s="55"/>
       <c r="I33" s="118"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="173"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="191"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="186"/>
-      <c r="T33" s="153"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="190"/>
+      <c r="P33" s="159"/>
+      <c r="Q33" s="185"/>
+      <c r="R33" s="159"/>
+      <c r="S33" s="185"/>
+      <c r="T33" s="159"/>
       <c r="U33" s="36"/>
       <c r="V33" s="40"/>
       <c r="W33" s="41"/>
     </row>
     <row r="34" spans="1:23" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="292"/>
-      <c r="C34" s="292"/>
-      <c r="D34" s="292"/>
-      <c r="E34" s="292"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
       <c r="F34" s="44"/>
       <c r="G34" s="45"/>
-      <c r="H34" s="293"/>
-      <c r="I34" s="294"/>
-      <c r="J34" s="157"/>
-      <c r="K34" s="157"/>
-      <c r="L34" s="295"/>
-      <c r="M34" s="296"/>
-      <c r="N34" s="297"/>
-      <c r="O34" s="298"/>
-      <c r="P34" s="298"/>
-      <c r="Q34" s="299"/>
-      <c r="R34" s="299"/>
-      <c r="S34" s="299"/>
-      <c r="T34" s="299"/>
-      <c r="U34" s="300"/>
-      <c r="V34" s="301"/>
-      <c r="W34" s="302"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="163"/>
+      <c r="K34" s="163"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="256"/>
+      <c r="N34" s="257"/>
+      <c r="O34" s="258"/>
+      <c r="P34" s="258"/>
+      <c r="Q34" s="259"/>
+      <c r="R34" s="259"/>
+      <c r="S34" s="259"/>
+      <c r="T34" s="259"/>
+      <c r="U34" s="151"/>
+      <c r="V34" s="152"/>
+      <c r="W34" s="153"/>
     </row>
     <row r="35" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
@@ -5108,17 +5113,17 @@
       <c r="G35" s="45"/>
       <c r="H35" s="55"/>
       <c r="I35" s="118"/>
-      <c r="J35" s="157"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="173"/>
-      <c r="N35" s="153"/>
-      <c r="O35" s="191"/>
-      <c r="P35" s="153"/>
-      <c r="Q35" s="186"/>
-      <c r="R35" s="153"/>
-      <c r="S35" s="186"/>
-      <c r="T35" s="153"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="184"/>
+      <c r="N35" s="159"/>
+      <c r="O35" s="190"/>
+      <c r="P35" s="159"/>
+      <c r="Q35" s="185"/>
+      <c r="R35" s="159"/>
+      <c r="S35" s="185"/>
+      <c r="T35" s="159"/>
       <c r="U35" s="36"/>
       <c r="V35" s="40"/>
       <c r="W35" s="41"/>
@@ -5133,17 +5138,17 @@
       <c r="G36" s="45"/>
       <c r="H36" s="55"/>
       <c r="I36" s="118"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="173"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="191"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="186"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="186"/>
-      <c r="T36" s="153"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="164"/>
+      <c r="M36" s="184"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="190"/>
+      <c r="P36" s="159"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="159"/>
+      <c r="S36" s="185"/>
+      <c r="T36" s="159"/>
       <c r="U36" s="36"/>
       <c r="V36" s="40"/>
       <c r="W36" s="41"/>
@@ -5158,17 +5163,17 @@
       <c r="G37" s="45"/>
       <c r="H37" s="55"/>
       <c r="I37" s="118"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="173"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="191"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="186"/>
-      <c r="R37" s="153"/>
-      <c r="S37" s="186"/>
-      <c r="T37" s="153"/>
+      <c r="J37" s="163"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="164"/>
+      <c r="M37" s="184"/>
+      <c r="N37" s="159"/>
+      <c r="O37" s="190"/>
+      <c r="P37" s="159"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="159"/>
+      <c r="S37" s="185"/>
+      <c r="T37" s="159"/>
       <c r="U37" s="36"/>
       <c r="V37" s="40"/>
       <c r="W37" s="41"/>
@@ -5183,17 +5188,17 @@
       <c r="G38" s="45"/>
       <c r="H38" s="55"/>
       <c r="I38" s="118"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="173"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="191"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="186"/>
-      <c r="R38" s="153"/>
-      <c r="S38" s="186"/>
-      <c r="T38" s="153"/>
+      <c r="J38" s="163"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="164"/>
+      <c r="M38" s="184"/>
+      <c r="N38" s="159"/>
+      <c r="O38" s="190"/>
+      <c r="P38" s="159"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="159"/>
+      <c r="S38" s="185"/>
+      <c r="T38" s="159"/>
       <c r="U38" s="36"/>
       <c r="V38" s="40"/>
       <c r="W38" s="41"/>
@@ -5208,17 +5213,17 @@
       <c r="G39" s="45"/>
       <c r="H39" s="55"/>
       <c r="I39" s="118"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="173"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="191"/>
-      <c r="P39" s="153"/>
-      <c r="Q39" s="186"/>
-      <c r="R39" s="153"/>
-      <c r="S39" s="186"/>
-      <c r="T39" s="153"/>
+      <c r="J39" s="163"/>
+      <c r="K39" s="164"/>
+      <c r="L39" s="164"/>
+      <c r="M39" s="184"/>
+      <c r="N39" s="159"/>
+      <c r="O39" s="190"/>
+      <c r="P39" s="159"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="159"/>
+      <c r="S39" s="185"/>
+      <c r="T39" s="159"/>
       <c r="U39" s="36"/>
       <c r="V39" s="40"/>
       <c r="W39" s="41"/>
@@ -5233,17 +5238,17 @@
       <c r="G40" s="45"/>
       <c r="H40" s="55"/>
       <c r="I40" s="118"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="173"/>
-      <c r="N40" s="153"/>
-      <c r="O40" s="191"/>
-      <c r="P40" s="153"/>
-      <c r="Q40" s="186"/>
-      <c r="R40" s="153"/>
-      <c r="S40" s="186"/>
-      <c r="T40" s="153"/>
+      <c r="J40" s="163"/>
+      <c r="K40" s="164"/>
+      <c r="L40" s="164"/>
+      <c r="M40" s="184"/>
+      <c r="N40" s="159"/>
+      <c r="O40" s="190"/>
+      <c r="P40" s="159"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="159"/>
+      <c r="S40" s="185"/>
+      <c r="T40" s="159"/>
       <c r="U40" s="36"/>
       <c r="V40" s="40"/>
       <c r="W40" s="41"/>
@@ -5258,17 +5263,17 @@
       <c r="G41" s="45"/>
       <c r="H41" s="55"/>
       <c r="I41" s="118"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="273"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="229"/>
-      <c r="P41" s="151"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="151"/>
-      <c r="S41" s="185"/>
-      <c r="T41" s="151"/>
+      <c r="J41" s="163"/>
+      <c r="K41" s="164"/>
+      <c r="L41" s="164"/>
+      <c r="M41" s="274"/>
+      <c r="N41" s="157"/>
+      <c r="O41" s="236"/>
+      <c r="P41" s="157"/>
+      <c r="Q41" s="183"/>
+      <c r="R41" s="157"/>
+      <c r="S41" s="183"/>
+      <c r="T41" s="157"/>
       <c r="U41" s="37"/>
       <c r="V41" s="42"/>
       <c r="W41" s="43"/>
@@ -5286,19 +5291,19 @@
       <c r="J42" s="56"/>
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
-      <c r="M42" s="194" t="s">
+      <c r="M42" s="193" t="s">
         <v>32</v>
       </c>
-      <c r="N42" s="194"/>
-      <c r="O42" s="194"/>
-      <c r="P42" s="194"/>
-      <c r="Q42" s="194"/>
-      <c r="R42" s="194"/>
-      <c r="S42" s="194"/>
-      <c r="T42" s="194"/>
-      <c r="U42" s="194"/>
-      <c r="V42" s="194"/>
-      <c r="W42" s="194"/>
+      <c r="N42" s="193"/>
+      <c r="O42" s="193"/>
+      <c r="P42" s="193"/>
+      <c r="Q42" s="193"/>
+      <c r="R42" s="193"/>
+      <c r="S42" s="193"/>
+      <c r="T42" s="193"/>
+      <c r="U42" s="193"/>
+      <c r="V42" s="193"/>
+      <c r="W42" s="193"/>
     </row>
     <row r="43" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
@@ -5313,17 +5318,17 @@
       <c r="J43" s="119"/>
       <c r="K43" s="58"/>
       <c r="L43" s="55"/>
-      <c r="M43" s="195"/>
-      <c r="N43" s="195"/>
-      <c r="O43" s="195"/>
-      <c r="P43" s="195"/>
-      <c r="Q43" s="195"/>
-      <c r="R43" s="195"/>
-      <c r="S43" s="195"/>
-      <c r="T43" s="195"/>
-      <c r="U43" s="195"/>
-      <c r="V43" s="195"/>
-      <c r="W43" s="195"/>
+      <c r="M43" s="194"/>
+      <c r="N43" s="194"/>
+      <c r="O43" s="194"/>
+      <c r="P43" s="194"/>
+      <c r="Q43" s="194"/>
+      <c r="R43" s="194"/>
+      <c r="S43" s="194"/>
+      <c r="T43" s="194"/>
+      <c r="U43" s="194"/>
+      <c r="V43" s="194"/>
+      <c r="W43" s="194"/>
     </row>
     <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
@@ -5338,16 +5343,16 @@
       <c r="J44" s="119"/>
       <c r="K44" s="58"/>
       <c r="L44" s="55"/>
-      <c r="M44" s="252" t="s">
+      <c r="M44" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="N44" s="219"/>
-      <c r="O44" s="219"/>
-      <c r="P44" s="219"/>
-      <c r="Q44" s="219"/>
-      <c r="R44" s="219"/>
-      <c r="S44" s="219"/>
-      <c r="T44" s="219"/>
+      <c r="N44" s="227"/>
+      <c r="O44" s="227"/>
+      <c r="P44" s="227"/>
+      <c r="Q44" s="227"/>
+      <c r="R44" s="227"/>
+      <c r="S44" s="227"/>
+      <c r="T44" s="227"/>
       <c r="U44" s="200"/>
       <c r="V44" s="199"/>
       <c r="W44" s="200"/>
@@ -5365,19 +5370,19 @@
       <c r="J45" s="119"/>
       <c r="K45" s="58"/>
       <c r="L45" s="55"/>
-      <c r="M45" s="244" t="s">
+      <c r="M45" s="267" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="156"/>
-      <c r="O45" s="156"/>
-      <c r="P45" s="156"/>
-      <c r="Q45" s="156"/>
-      <c r="R45" s="156"/>
-      <c r="S45" s="156"/>
-      <c r="T45" s="156"/>
-      <c r="U45" s="197"/>
-      <c r="V45" s="196"/>
-      <c r="W45" s="197"/>
+      <c r="N45" s="162"/>
+      <c r="O45" s="162"/>
+      <c r="P45" s="162"/>
+      <c r="Q45" s="162"/>
+      <c r="R45" s="162"/>
+      <c r="S45" s="162"/>
+      <c r="T45" s="162"/>
+      <c r="U45" s="196"/>
+      <c r="V45" s="195"/>
+      <c r="W45" s="196"/>
     </row>
     <row r="46" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
@@ -5392,19 +5397,19 @@
       <c r="J46" s="119"/>
       <c r="K46" s="55"/>
       <c r="L46" s="55"/>
-      <c r="M46" s="232" t="s">
+      <c r="M46" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="N46" s="176"/>
-      <c r="O46" s="176"/>
-      <c r="P46" s="176"/>
-      <c r="Q46" s="176"/>
-      <c r="R46" s="176"/>
-      <c r="S46" s="176"/>
-      <c r="T46" s="176"/>
-      <c r="U46" s="233"/>
-      <c r="V46" s="283"/>
-      <c r="W46" s="233"/>
+      <c r="N46" s="177"/>
+      <c r="O46" s="177"/>
+      <c r="P46" s="177"/>
+      <c r="Q46" s="177"/>
+      <c r="R46" s="177"/>
+      <c r="S46" s="177"/>
+      <c r="T46" s="177"/>
+      <c r="U46" s="270"/>
+      <c r="V46" s="290"/>
+      <c r="W46" s="270"/>
     </row>
     <row r="47" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
@@ -5419,19 +5424,19 @@
       <c r="J47" s="56"/>
       <c r="K47" s="56"/>
       <c r="L47" s="56"/>
-      <c r="M47" s="201" t="s">
+      <c r="M47" s="249" t="s">
         <v>36</v>
       </c>
-      <c r="N47" s="201"/>
-      <c r="O47" s="201"/>
-      <c r="P47" s="201"/>
-      <c r="Q47" s="201"/>
-      <c r="R47" s="201"/>
-      <c r="S47" s="201"/>
-      <c r="T47" s="201"/>
-      <c r="U47" s="201"/>
-      <c r="V47" s="201"/>
-      <c r="W47" s="201"/>
+      <c r="N47" s="249"/>
+      <c r="O47" s="249"/>
+      <c r="P47" s="249"/>
+      <c r="Q47" s="249"/>
+      <c r="R47" s="249"/>
+      <c r="S47" s="249"/>
+      <c r="T47" s="249"/>
+      <c r="U47" s="249"/>
+      <c r="V47" s="249"/>
+      <c r="W47" s="249"/>
     </row>
     <row r="48" spans="1:23" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
@@ -5468,19 +5473,19 @@
       <c r="G49" s="45"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56"/>
-      <c r="M49" s="221" t="s">
+      <c r="M49" s="228" t="s">
         <v>37</v>
       </c>
-      <c r="N49" s="219"/>
-      <c r="O49" s="219"/>
-      <c r="P49" s="219"/>
-      <c r="Q49" s="161"/>
-      <c r="R49" s="183"/>
-      <c r="S49" s="161"/>
-      <c r="T49" s="162"/>
-      <c r="U49" s="161"/>
-      <c r="V49" s="160"/>
-      <c r="W49" s="161"/>
+      <c r="N49" s="227"/>
+      <c r="O49" s="227"/>
+      <c r="P49" s="227"/>
+      <c r="Q49" s="167"/>
+      <c r="R49" s="182"/>
+      <c r="S49" s="167"/>
+      <c r="T49" s="168"/>
+      <c r="U49" s="167"/>
+      <c r="V49" s="166"/>
+      <c r="W49" s="167"/>
     </row>
     <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
@@ -5492,19 +5497,19 @@
       <c r="G50" s="45"/>
       <c r="H50" s="59"/>
       <c r="I50" s="59"/>
-      <c r="M50" s="155" t="s">
+      <c r="M50" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="N50" s="156"/>
-      <c r="O50" s="156"/>
-      <c r="P50" s="156"/>
-      <c r="Q50" s="153"/>
-      <c r="R50" s="260"/>
-      <c r="S50" s="153"/>
-      <c r="T50" s="152"/>
-      <c r="U50" s="153"/>
-      <c r="V50" s="277"/>
-      <c r="W50" s="153"/>
+      <c r="N50" s="162"/>
+      <c r="O50" s="162"/>
+      <c r="P50" s="162"/>
+      <c r="Q50" s="159"/>
+      <c r="R50" s="262"/>
+      <c r="S50" s="159"/>
+      <c r="T50" s="158"/>
+      <c r="U50" s="159"/>
+      <c r="V50" s="289"/>
+      <c r="W50" s="159"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
@@ -5516,19 +5521,19 @@
       <c r="G51" s="45"/>
       <c r="H51" s="120"/>
       <c r="I51" s="120"/>
-      <c r="M51" s="155" t="s">
+      <c r="M51" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="N51" s="156"/>
-      <c r="O51" s="156"/>
-      <c r="P51" s="156"/>
-      <c r="Q51" s="153"/>
-      <c r="R51" s="256"/>
-      <c r="S51" s="153"/>
-      <c r="T51" s="234"/>
-      <c r="U51" s="153"/>
-      <c r="V51" s="230"/>
-      <c r="W51" s="153"/>
+      <c r="N51" s="162"/>
+      <c r="O51" s="162"/>
+      <c r="P51" s="162"/>
+      <c r="Q51" s="159"/>
+      <c r="R51" s="255"/>
+      <c r="S51" s="159"/>
+      <c r="T51" s="271"/>
+      <c r="U51" s="159"/>
+      <c r="V51" s="216"/>
+      <c r="W51" s="159"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
@@ -5543,19 +5548,19 @@
       <c r="J52" s="55"/>
       <c r="K52" s="17"/>
       <c r="L52" s="16"/>
-      <c r="M52" s="155" t="s">
+      <c r="M52" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="N52" s="156"/>
-      <c r="O52" s="156"/>
-      <c r="P52" s="156"/>
-      <c r="Q52" s="153"/>
-      <c r="R52" s="227"/>
-      <c r="S52" s="153"/>
-      <c r="T52" s="228"/>
-      <c r="U52" s="153"/>
-      <c r="V52" s="230"/>
-      <c r="W52" s="153"/>
+      <c r="N52" s="162"/>
+      <c r="O52" s="162"/>
+      <c r="P52" s="162"/>
+      <c r="Q52" s="159"/>
+      <c r="R52" s="234"/>
+      <c r="S52" s="159"/>
+      <c r="T52" s="235"/>
+      <c r="U52" s="159"/>
+      <c r="V52" s="216"/>
+      <c r="W52" s="159"/>
     </row>
     <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
@@ -5570,21 +5575,21 @@
       <c r="J53" s="86"/>
       <c r="K53" s="86"/>
       <c r="L53" s="86"/>
-      <c r="M53" s="178" t="s">
+      <c r="M53" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="N53" s="156"/>
-      <c r="O53" s="156"/>
-      <c r="P53" s="156"/>
-      <c r="Q53" s="153"/>
-      <c r="R53" s="235"/>
-      <c r="S53" s="153"/>
-      <c r="T53" s="264" t="s">
+      <c r="N53" s="162"/>
+      <c r="O53" s="162"/>
+      <c r="P53" s="162"/>
+      <c r="Q53" s="159"/>
+      <c r="R53" s="272"/>
+      <c r="S53" s="159"/>
+      <c r="T53" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="U53" s="153"/>
-      <c r="V53" s="159"/>
-      <c r="W53" s="153"/>
+      <c r="U53" s="159"/>
+      <c r="V53" s="165"/>
+      <c r="W53" s="159"/>
     </row>
     <row r="54" spans="1:23" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
@@ -5598,21 +5603,21 @@
       <c r="I54" s="120"/>
       <c r="J54" s="120"/>
       <c r="L54" s="85"/>
-      <c r="M54" s="178" t="s">
+      <c r="M54" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="N54" s="156"/>
-      <c r="O54" s="156"/>
-      <c r="P54" s="156"/>
-      <c r="Q54" s="153"/>
-      <c r="R54" s="261" t="s">
+      <c r="N54" s="162"/>
+      <c r="O54" s="162"/>
+      <c r="P54" s="162"/>
+      <c r="Q54" s="159"/>
+      <c r="R54" s="264" t="s">
         <v>68</v>
       </c>
-      <c r="S54" s="153"/>
-      <c r="T54" s="220"/>
-      <c r="U54" s="153"/>
-      <c r="V54" s="169"/>
-      <c r="W54" s="153"/>
+      <c r="S54" s="159"/>
+      <c r="T54" s="260"/>
+      <c r="U54" s="159"/>
+      <c r="V54" s="225"/>
+      <c r="W54" s="159"/>
     </row>
     <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
@@ -5627,19 +5632,19 @@
       <c r="J55" s="120"/>
       <c r="K55"/>
       <c r="L55" s="85"/>
-      <c r="M55" s="178" t="s">
+      <c r="M55" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="N55" s="156"/>
-      <c r="O55" s="156"/>
-      <c r="P55" s="156"/>
-      <c r="Q55" s="153"/>
-      <c r="R55" s="261"/>
-      <c r="S55" s="153"/>
-      <c r="T55" s="220"/>
-      <c r="U55" s="153"/>
-      <c r="V55" s="169"/>
-      <c r="W55" s="153"/>
+      <c r="N55" s="162"/>
+      <c r="O55" s="162"/>
+      <c r="P55" s="162"/>
+      <c r="Q55" s="159"/>
+      <c r="R55" s="264"/>
+      <c r="S55" s="159"/>
+      <c r="T55" s="260"/>
+      <c r="U55" s="159"/>
+      <c r="V55" s="225"/>
+      <c r="W55" s="159"/>
     </row>
     <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
@@ -5654,21 +5659,21 @@
       <c r="J56" s="59"/>
       <c r="K56" s="122"/>
       <c r="L56" s="118"/>
-      <c r="M56" s="155" t="s">
+      <c r="M56" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="N56" s="156"/>
-      <c r="O56" s="156"/>
-      <c r="P56" s="156"/>
-      <c r="Q56" s="153"/>
-      <c r="R56" s="241"/>
-      <c r="S56" s="153"/>
-      <c r="T56" s="228" t="s">
+      <c r="N56" s="162"/>
+      <c r="O56" s="162"/>
+      <c r="P56" s="162"/>
+      <c r="Q56" s="159"/>
+      <c r="R56" s="266"/>
+      <c r="S56" s="159"/>
+      <c r="T56" s="235" t="s">
         <v>45</v>
       </c>
-      <c r="U56" s="153"/>
-      <c r="V56" s="236"/>
-      <c r="W56" s="153"/>
+      <c r="U56" s="159"/>
+      <c r="V56" s="218"/>
+      <c r="W56" s="159"/>
     </row>
     <row r="57" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
@@ -5683,19 +5688,19 @@
       <c r="J57" s="119"/>
       <c r="K57" s="16"/>
       <c r="L57" s="123"/>
-      <c r="M57" s="155" t="s">
+      <c r="M57" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="N57" s="156"/>
-      <c r="O57" s="156"/>
-      <c r="P57" s="156"/>
-      <c r="Q57" s="153"/>
-      <c r="R57" s="238"/>
-      <c r="S57" s="239"/>
-      <c r="T57" s="239"/>
-      <c r="U57" s="239"/>
-      <c r="V57" s="239"/>
-      <c r="W57" s="240"/>
+      <c r="N57" s="162"/>
+      <c r="O57" s="162"/>
+      <c r="P57" s="162"/>
+      <c r="Q57" s="159"/>
+      <c r="R57" s="221"/>
+      <c r="S57" s="222"/>
+      <c r="T57" s="222"/>
+      <c r="U57" s="222"/>
+      <c r="V57" s="222"/>
+      <c r="W57" s="223"/>
     </row>
     <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
@@ -5710,19 +5715,19 @@
       <c r="J58" s="61"/>
       <c r="K58" s="55"/>
       <c r="L58" s="62"/>
-      <c r="M58" s="178" t="s">
+      <c r="M58" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="N58" s="156"/>
-      <c r="O58" s="156"/>
-      <c r="P58" s="156"/>
-      <c r="Q58" s="153"/>
-      <c r="R58" s="243"/>
-      <c r="S58" s="153"/>
-      <c r="T58" s="243"/>
-      <c r="U58" s="153"/>
-      <c r="V58" s="243"/>
-      <c r="W58" s="153"/>
+      <c r="N58" s="162"/>
+      <c r="O58" s="162"/>
+      <c r="P58" s="162"/>
+      <c r="Q58" s="159"/>
+      <c r="R58" s="263"/>
+      <c r="S58" s="159"/>
+      <c r="T58" s="263"/>
+      <c r="U58" s="159"/>
+      <c r="V58" s="263"/>
+      <c r="W58" s="159"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
@@ -5737,19 +5742,19 @@
       <c r="J59" s="55"/>
       <c r="K59" s="55"/>
       <c r="L59" s="63"/>
-      <c r="M59" s="178" t="s">
+      <c r="M59" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="N59" s="156"/>
-      <c r="O59" s="156"/>
-      <c r="P59" s="156"/>
-      <c r="Q59" s="153"/>
-      <c r="R59" s="243"/>
-      <c r="S59" s="153"/>
-      <c r="T59" s="243"/>
-      <c r="U59" s="153"/>
-      <c r="V59" s="243"/>
-      <c r="W59" s="153"/>
+      <c r="N59" s="162"/>
+      <c r="O59" s="162"/>
+      <c r="P59" s="162"/>
+      <c r="Q59" s="159"/>
+      <c r="R59" s="305"/>
+      <c r="S59" s="306"/>
+      <c r="T59" s="263"/>
+      <c r="U59" s="159"/>
+      <c r="V59" s="263"/>
+      <c r="W59" s="159"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
@@ -5764,21 +5769,21 @@
       <c r="J60" s="55"/>
       <c r="K60" s="55"/>
       <c r="L60" s="55"/>
-      <c r="M60" s="178" t="s">
+      <c r="M60" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="N60" s="156"/>
-      <c r="O60" s="156"/>
-      <c r="P60" s="156"/>
-      <c r="Q60" s="153"/>
-      <c r="R60" s="245"/>
-      <c r="S60" s="153"/>
-      <c r="T60" s="243" t="s">
+      <c r="N60" s="162"/>
+      <c r="O60" s="162"/>
+      <c r="P60" s="162"/>
+      <c r="Q60" s="159"/>
+      <c r="R60" s="268"/>
+      <c r="S60" s="159"/>
+      <c r="T60" s="263" t="s">
         <v>23</v>
       </c>
-      <c r="U60" s="153"/>
-      <c r="V60" s="154"/>
-      <c r="W60" s="153"/>
+      <c r="U60" s="159"/>
+      <c r="V60" s="160"/>
+      <c r="W60" s="159"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
@@ -5793,19 +5798,19 @@
       <c r="J61" s="65"/>
       <c r="K61" s="65"/>
       <c r="L61" s="65"/>
-      <c r="M61" s="155" t="s">
+      <c r="M61" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="N61" s="156"/>
-      <c r="O61" s="156"/>
-      <c r="P61" s="156"/>
-      <c r="Q61" s="153"/>
-      <c r="R61" s="180"/>
-      <c r="S61" s="153"/>
-      <c r="T61" s="243"/>
-      <c r="U61" s="153"/>
-      <c r="V61" s="288"/>
-      <c r="W61" s="153"/>
+      <c r="N61" s="162"/>
+      <c r="O61" s="162"/>
+      <c r="P61" s="162"/>
+      <c r="Q61" s="159"/>
+      <c r="R61" s="181"/>
+      <c r="S61" s="159"/>
+      <c r="T61" s="263"/>
+      <c r="U61" s="159"/>
+      <c r="V61" s="286"/>
+      <c r="W61" s="159"/>
     </row>
     <row r="62" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
@@ -5820,19 +5825,19 @@
       <c r="J62" s="65"/>
       <c r="K62" s="65"/>
       <c r="L62" s="65"/>
-      <c r="M62" s="155" t="s">
+      <c r="M62" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="N62" s="156"/>
-      <c r="O62" s="156"/>
-      <c r="P62" s="156"/>
-      <c r="Q62" s="153"/>
-      <c r="R62" s="180"/>
-      <c r="S62" s="153"/>
-      <c r="T62" s="243"/>
-      <c r="U62" s="153"/>
-      <c r="V62" s="288"/>
-      <c r="W62" s="153"/>
+      <c r="N62" s="162"/>
+      <c r="O62" s="162"/>
+      <c r="P62" s="162"/>
+      <c r="Q62" s="159"/>
+      <c r="R62" s="181"/>
+      <c r="S62" s="159"/>
+      <c r="T62" s="263"/>
+      <c r="U62" s="159"/>
+      <c r="V62" s="286"/>
+      <c r="W62" s="159"/>
     </row>
     <row r="63" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
@@ -5843,19 +5848,19 @@
       <c r="F63" s="135"/>
       <c r="G63" s="131"/>
       <c r="H63" s="55"/>
-      <c r="M63" s="155" t="s">
+      <c r="M63" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="N63" s="156"/>
-      <c r="O63" s="156"/>
-      <c r="P63" s="156"/>
-      <c r="Q63" s="153"/>
-      <c r="R63" s="211"/>
-      <c r="S63" s="153"/>
-      <c r="T63" s="242"/>
-      <c r="U63" s="153"/>
-      <c r="V63" s="237"/>
-      <c r="W63" s="153"/>
+      <c r="N63" s="162"/>
+      <c r="O63" s="162"/>
+      <c r="P63" s="162"/>
+      <c r="Q63" s="159"/>
+      <c r="R63" s="209"/>
+      <c r="S63" s="159"/>
+      <c r="T63" s="293"/>
+      <c r="U63" s="159"/>
+      <c r="V63" s="219"/>
+      <c r="W63" s="159"/>
     </row>
     <row r="64" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="124"/>
@@ -5866,19 +5871,19 @@
       <c r="F64" s="125"/>
       <c r="G64" s="132"/>
       <c r="H64" s="55"/>
-      <c r="M64" s="263" t="s">
+      <c r="M64" s="292" t="s">
         <v>53</v>
       </c>
-      <c r="N64" s="176"/>
-      <c r="O64" s="176"/>
-      <c r="P64" s="176"/>
-      <c r="Q64" s="151"/>
-      <c r="R64" s="262"/>
-      <c r="S64" s="151"/>
-      <c r="T64" s="190"/>
-      <c r="U64" s="151"/>
-      <c r="V64" s="287"/>
-      <c r="W64" s="151"/>
+      <c r="N64" s="177"/>
+      <c r="O64" s="177"/>
+      <c r="P64" s="177"/>
+      <c r="Q64" s="157"/>
+      <c r="R64" s="291"/>
+      <c r="S64" s="157"/>
+      <c r="T64" s="189"/>
+      <c r="U64" s="157"/>
+      <c r="V64" s="285"/>
+      <c r="W64" s="157"/>
     </row>
     <row r="65" spans="1:24" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
@@ -5919,20 +5924,20 @@
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
-      <c r="L66" s="184" t="s">
+      <c r="L66" s="303" t="s">
         <v>54</v>
       </c>
-      <c r="M66" s="219"/>
-      <c r="N66" s="219"/>
-      <c r="O66" s="219"/>
-      <c r="P66" s="219"/>
-      <c r="Q66" s="219"/>
-      <c r="R66" s="219"/>
-      <c r="S66" s="219"/>
-      <c r="T66" s="219"/>
-      <c r="U66" s="219"/>
-      <c r="V66" s="219"/>
-      <c r="W66" s="161"/>
+      <c r="M66" s="227"/>
+      <c r="N66" s="227"/>
+      <c r="O66" s="227"/>
+      <c r="P66" s="227"/>
+      <c r="Q66" s="227"/>
+      <c r="R66" s="227"/>
+      <c r="S66" s="227"/>
+      <c r="T66" s="227"/>
+      <c r="U66" s="227"/>
+      <c r="V66" s="227"/>
+      <c r="W66" s="167"/>
     </row>
     <row r="67" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
@@ -5946,32 +5951,32 @@
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
-      <c r="L67" s="270" t="s">
+      <c r="L67" s="301" t="s">
         <v>55</v>
       </c>
-      <c r="M67" s="181" t="s">
+      <c r="M67" s="287" t="s">
         <v>6</v>
       </c>
-      <c r="N67" s="181" t="s">
+      <c r="N67" s="287" t="s">
         <v>7</v>
       </c>
-      <c r="O67" s="181" t="s">
+      <c r="O67" s="287" t="s">
         <v>8</v>
       </c>
-      <c r="P67" s="253" t="s">
+      <c r="P67" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="Q67" s="254"/>
-      <c r="R67" s="254"/>
-      <c r="S67" s="255"/>
-      <c r="T67" s="253" t="s">
+      <c r="Q67" s="253"/>
+      <c r="R67" s="253"/>
+      <c r="S67" s="254"/>
+      <c r="T67" s="252" t="s">
         <v>56</v>
       </c>
-      <c r="U67" s="255"/>
-      <c r="V67" s="253" t="s">
+      <c r="U67" s="254"/>
+      <c r="V67" s="252" t="s">
         <v>57</v>
       </c>
-      <c r="W67" s="255"/>
+      <c r="W67" s="254"/>
       <c r="X67" s="14"/>
     </row>
     <row r="68" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5986,26 +5991,26 @@
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
-      <c r="L68" s="271"/>
-      <c r="M68" s="182"/>
-      <c r="N68" s="182"/>
-      <c r="O68" s="182"/>
-      <c r="P68" s="251" t="s">
+      <c r="L68" s="302"/>
+      <c r="M68" s="288"/>
+      <c r="N68" s="288"/>
+      <c r="O68" s="288"/>
+      <c r="P68" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="Q68" s="153"/>
-      <c r="R68" s="231" t="s">
+      <c r="Q68" s="159"/>
+      <c r="R68" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="S68" s="153"/>
-      <c r="T68" s="231" t="s">
+      <c r="S68" s="159"/>
+      <c r="T68" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="U68" s="153"/>
-      <c r="V68" s="231" t="s">
+      <c r="U68" s="159"/>
+      <c r="V68" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="W68" s="153"/>
+      <c r="W68" s="159"/>
       <c r="X68" s="14"/>
     </row>
     <row r="69" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6024,14 +6029,14 @@
       <c r="M69" s="146"/>
       <c r="N69" s="146"/>
       <c r="O69" s="38"/>
-      <c r="P69" s="150"/>
-      <c r="Q69" s="151"/>
-      <c r="R69" s="150"/>
-      <c r="S69" s="151"/>
-      <c r="T69" s="150"/>
-      <c r="U69" s="151"/>
-      <c r="V69" s="150"/>
-      <c r="W69" s="151"/>
+      <c r="P69" s="156"/>
+      <c r="Q69" s="157"/>
+      <c r="R69" s="156"/>
+      <c r="S69" s="157"/>
+      <c r="T69" s="156"/>
+      <c r="U69" s="157"/>
+      <c r="V69" s="156"/>
+      <c r="W69" s="157"/>
       <c r="X69" s="14"/>
     </row>
     <row r="70" spans="1:24" ht="12.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6047,10 +6052,10 @@
       <c r="K70" s="14"/>
       <c r="L70" s="147"/>
       <c r="M70" s="147"/>
-      <c r="N70" s="158"/>
-      <c r="O70" s="158"/>
-      <c r="P70" s="158"/>
-      <c r="Q70" s="158"/>
+      <c r="N70" s="164"/>
+      <c r="O70" s="164"/>
+      <c r="P70" s="164"/>
+      <c r="Q70" s="164"/>
       <c r="R70" s="147"/>
       <c r="S70" s="147"/>
       <c r="T70" s="147"/>
@@ -6070,20 +6075,20 @@
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
-      <c r="L71" s="184" t="s">
+      <c r="L71" s="303" t="s">
         <v>60</v>
       </c>
-      <c r="M71" s="161"/>
-      <c r="N71" s="164" t="s">
+      <c r="M71" s="167"/>
+      <c r="N71" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="O71" s="161"/>
-      <c r="P71" s="164" t="s">
+      <c r="O71" s="167"/>
+      <c r="P71" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="Q71" s="161"/>
-      <c r="R71" s="172"/>
-      <c r="S71" s="158"/>
+      <c r="Q71" s="167"/>
+      <c r="R71" s="300"/>
+      <c r="S71" s="164"/>
       <c r="T71" s="147"/>
       <c r="U71" s="147"/>
       <c r="V71" s="147"/>
@@ -6102,22 +6107,22 @@
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
-      <c r="L72" s="166" t="s">
+      <c r="L72" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="M72" s="151"/>
-      <c r="N72" s="163">
+      <c r="M72" s="157"/>
+      <c r="N72" s="169">
         <f>L69*P69/1000</f>
         <v>0</v>
       </c>
-      <c r="O72" s="151"/>
-      <c r="P72" s="163">
+      <c r="O72" s="157"/>
+      <c r="P72" s="169">
         <f>L72+N72</f>
         <v>1</v>
       </c>
-      <c r="Q72" s="151"/>
-      <c r="R72" s="165"/>
-      <c r="S72" s="158"/>
+      <c r="Q72" s="157"/>
+      <c r="R72" s="171"/>
+      <c r="S72" s="164"/>
       <c r="T72" s="147"/>
       <c r="U72" s="147"/>
       <c r="V72" s="147"/>
@@ -6187,20 +6192,20 @@
       <c r="I75" s="145"/>
       <c r="J75" s="145"/>
       <c r="K75" s="145"/>
-      <c r="L75" s="167" t="s">
+      <c r="L75" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="M75" s="167"/>
-      <c r="N75" s="167"/>
-      <c r="O75" s="167"/>
-      <c r="P75" s="167"/>
-      <c r="Q75" s="167"/>
-      <c r="R75" s="167"/>
-      <c r="S75" s="167"/>
-      <c r="T75" s="167"/>
-      <c r="U75" s="167"/>
-      <c r="V75" s="167"/>
-      <c r="W75" s="167"/>
+      <c r="M75" s="173"/>
+      <c r="N75" s="173"/>
+      <c r="O75" s="173"/>
+      <c r="P75" s="173"/>
+      <c r="Q75" s="173"/>
+      <c r="R75" s="173"/>
+      <c r="S75" s="173"/>
+      <c r="T75" s="173"/>
+      <c r="U75" s="173"/>
+      <c r="V75" s="173"/>
+      <c r="W75" s="173"/>
       <c r="X75" s="14"/>
     </row>
     <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -6214,20 +6219,20 @@
       <c r="I76" s="145"/>
       <c r="J76" s="145"/>
       <c r="K76" s="145"/>
-      <c r="L76" s="167" t="s">
+      <c r="L76" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="M76" s="167"/>
-      <c r="N76" s="167"/>
-      <c r="O76" s="167"/>
-      <c r="P76" s="167"/>
-      <c r="Q76" s="167"/>
-      <c r="R76" s="167"/>
-      <c r="S76" s="167"/>
-      <c r="T76" s="167"/>
-      <c r="U76" s="167"/>
-      <c r="V76" s="167"/>
-      <c r="W76" s="167"/>
+      <c r="M76" s="173"/>
+      <c r="N76" s="173"/>
+      <c r="O76" s="173"/>
+      <c r="P76" s="173"/>
+      <c r="Q76" s="173"/>
+      <c r="R76" s="173"/>
+      <c r="S76" s="173"/>
+      <c r="T76" s="173"/>
+      <c r="U76" s="173"/>
+      <c r="V76" s="173"/>
+      <c r="W76" s="173"/>
       <c r="X76" s="14"/>
     </row>
     <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -6241,20 +6246,20 @@
       <c r="I77" s="145"/>
       <c r="J77" s="145"/>
       <c r="K77" s="145"/>
-      <c r="L77" s="168" t="s">
+      <c r="L77" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="M77" s="168"/>
-      <c r="N77" s="168"/>
-      <c r="O77" s="168"/>
-      <c r="P77" s="168"/>
-      <c r="Q77" s="168"/>
-      <c r="R77" s="168"/>
-      <c r="S77" s="168"/>
-      <c r="T77" s="168"/>
-      <c r="U77" s="168"/>
-      <c r="V77" s="168"/>
-      <c r="W77" s="168"/>
+      <c r="M77" s="174"/>
+      <c r="N77" s="174"/>
+      <c r="O77" s="174"/>
+      <c r="P77" s="174"/>
+      <c r="Q77" s="174"/>
+      <c r="R77" s="174"/>
+      <c r="S77" s="174"/>
+      <c r="T77" s="174"/>
+      <c r="U77" s="174"/>
+      <c r="V77" s="174"/>
+      <c r="W77" s="174"/>
       <c r="X77" s="14"/>
     </row>
     <row r="78" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6275,11 +6280,11 @@
       <c r="N78" s="147"/>
       <c r="O78" s="139"/>
       <c r="P78" s="147"/>
-      <c r="Q78" s="148" t="s">
+      <c r="Q78" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="R78" s="148"/>
-      <c r="S78" s="148"/>
+      <c r="R78" s="154"/>
+      <c r="S78" s="154"/>
       <c r="T78" s="140"/>
       <c r="U78" s="141"/>
       <c r="V78" s="140"/>
@@ -6304,13 +6309,13 @@
       <c r="N79" s="147"/>
       <c r="O79" s="147"/>
       <c r="P79" s="147"/>
-      <c r="Q79" s="148"/>
-      <c r="R79" s="148"/>
-      <c r="S79" s="148"/>
+      <c r="Q79" s="154"/>
+      <c r="R79" s="154"/>
+      <c r="S79" s="154"/>
       <c r="T79" s="140"/>
       <c r="U79" s="142"/>
-      <c r="V79" s="148"/>
-      <c r="W79" s="148"/>
+      <c r="V79" s="154"/>
+      <c r="W79" s="154"/>
       <c r="X79" s="145"/>
     </row>
     <row r="80" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6331,13 +6336,13 @@
       <c r="N80" s="147"/>
       <c r="O80" s="147"/>
       <c r="P80" s="147"/>
-      <c r="Q80" s="149"/>
-      <c r="R80" s="149"/>
-      <c r="S80" s="149"/>
+      <c r="Q80" s="155"/>
+      <c r="R80" s="155"/>
+      <c r="S80" s="155"/>
       <c r="T80" s="140"/>
       <c r="U80" s="140"/>
-      <c r="V80" s="149"/>
-      <c r="W80" s="149"/>
+      <c r="V80" s="155"/>
+      <c r="W80" s="155"/>
       <c r="X80" s="14"/>
     </row>
     <row r="81" spans="2:24" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -6354,40 +6359,40 @@
       <c r="L81" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="M81" s="289" t="s">
+      <c r="M81" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="N81" s="289" t="s">
+      <c r="N81" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="O81" s="289" t="s">
+      <c r="O81" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="P81" s="289" t="s">
+      <c r="P81" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="Q81" s="289" t="s">
+      <c r="Q81" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="R81" s="289" t="s">
+      <c r="R81" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="S81" s="289" t="s">
+      <c r="S81" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="T81" s="289" t="s">
+      <c r="T81" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="U81" s="289" t="s">
+      <c r="U81" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="V81" s="289" t="s">
+      <c r="V81" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="W81" s="289" t="s">
+      <c r="W81" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="X81" s="291"/>
+      <c r="X81" s="296"/>
     </row>
     <row r="82" spans="2:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="145"/>
@@ -6403,18 +6408,18 @@
       <c r="L82" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="M82" s="290"/>
-      <c r="N82" s="290"/>
-      <c r="O82" s="290"/>
-      <c r="P82" s="290"/>
-      <c r="Q82" s="290"/>
-      <c r="R82" s="290"/>
-      <c r="S82" s="290"/>
-      <c r="T82" s="290"/>
-      <c r="U82" s="290"/>
-      <c r="V82" s="290"/>
-      <c r="W82" s="290"/>
-      <c r="X82" s="291"/>
+      <c r="M82" s="295"/>
+      <c r="N82" s="295"/>
+      <c r="O82" s="295"/>
+      <c r="P82" s="295"/>
+      <c r="Q82" s="295"/>
+      <c r="R82" s="295"/>
+      <c r="S82" s="295"/>
+      <c r="T82" s="295"/>
+      <c r="U82" s="295"/>
+      <c r="V82" s="295"/>
+      <c r="W82" s="295"/>
+      <c r="X82" s="296"/>
     </row>
     <row r="83" spans="2:24" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="L83" s="137" t="s">
@@ -6444,6 +6449,17 @@
     <mergeCell ref="R54:S54"/>
     <mergeCell ref="T54:U54"/>
     <mergeCell ref="V54:W54"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V27"/>
     <mergeCell ref="V81:V82"/>
     <mergeCell ref="W81:W82"/>
     <mergeCell ref="X81:X82"/>
@@ -6456,20 +6472,6 @@
     <mergeCell ref="S81:S82"/>
     <mergeCell ref="T81:T82"/>
     <mergeCell ref="U81:U82"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V27"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="T59:U59"/>
     <mergeCell ref="V67:W67"/>
     <mergeCell ref="V64:W64"/>
     <mergeCell ref="V61:W61"/>
@@ -6479,7 +6481,18 @@
     <mergeCell ref="S35:T35"/>
     <mergeCell ref="V62:W62"/>
     <mergeCell ref="N67:N68"/>
-    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="M63:Q63"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="M64:Q64"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="T68:U68"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="M31:N31"/>
@@ -6488,7 +6501,6 @@
     <mergeCell ref="M4:W5"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M38:N38"/>
-    <mergeCell ref="V50:W50"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="V25:V26"/>
     <mergeCell ref="W14:W17"/>
@@ -6496,7 +6508,6 @@
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="M8:O8"/>
-    <mergeCell ref="V46:W46"/>
     <mergeCell ref="Q37:R37"/>
     <mergeCell ref="S37:T37"/>
     <mergeCell ref="M13:O13"/>
@@ -6505,23 +6516,24 @@
     <mergeCell ref="T14:T17"/>
     <mergeCell ref="V14:V17"/>
     <mergeCell ref="U9:U10"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="O38:P38"/>
     <mergeCell ref="T62:U62"/>
     <mergeCell ref="R55:S55"/>
-    <mergeCell ref="M63:Q63"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="M64:Q64"/>
     <mergeCell ref="T53:U53"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="M46:U46"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="T59:U59"/>
     <mergeCell ref="D6:E12"/>
     <mergeCell ref="M47:W47"/>
     <mergeCell ref="P69:Q69"/>
@@ -6546,14 +6558,6 @@
     <mergeCell ref="V9:W9"/>
     <mergeCell ref="M61:Q61"/>
     <mergeCell ref="J31:L31"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="Q38:R38"/>
     <mergeCell ref="W25:W26"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="S9:T10"/>
@@ -6563,17 +6567,20 @@
     <mergeCell ref="W27"/>
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
     <mergeCell ref="U14:U17"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="M46:U46"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="J30:L30"/>
     <mergeCell ref="S32:T32"/>
-    <mergeCell ref="R53:S53"/>
     <mergeCell ref="S26:T26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="S31:T31"/>
     <mergeCell ref="V56:W56"/>
     <mergeCell ref="V63:W63"/>
     <mergeCell ref="V68:W68"/>
@@ -6598,11 +6605,6 @@
     <mergeCell ref="O41:P41"/>
     <mergeCell ref="V52:W52"/>
     <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S36:T36"/>
     <mergeCell ref="P8:W8"/>
     <mergeCell ref="T64:U64"/>
     <mergeCell ref="O32:P32"/>
@@ -6627,9 +6629,6 @@
     <mergeCell ref="M14:O17"/>
     <mergeCell ref="V51:W51"/>
     <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="J40:L40"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="J39:L39"/>
     <mergeCell ref="J41:L41"/>
@@ -6645,6 +6644,11 @@
     <mergeCell ref="S41:T41"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="S33:T33"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J30:L30"/>
     <mergeCell ref="Q79:S80"/>
     <mergeCell ref="V79:W80"/>
     <mergeCell ref="Q78:S78"/>
@@ -6668,6 +6672,7 @@
     <mergeCell ref="P71:Q71"/>
     <mergeCell ref="J37:L37"/>
     <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J40:L40"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047249" footer="0.19685039370078741"/>
